--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\italo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A95A8-4B38-4FE5-B31A-EE1200CD6F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A637420-683B-C645-9F23-2343F3D4E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BEE2D8C-9D9D-476B-BA53-B499123B7BB3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8BEE2D8C-9D9D-476B-BA53-B499123B7BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25372,20 +25383,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED17744-2F6A-4A6F-A607-38624A023AC3}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25405,7 +25416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -25428,7 +25439,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -25451,7 +25462,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -25474,7 +25485,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -25482,7 +25493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -25490,23 +25501,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
+      <c r="B7" s="9">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
+      <c r="B8" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -25514,7 +25525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -25522,7 +25533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -25530,7 +25541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -25538,15 +25549,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
+      <c r="B13" s="9">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -25554,7 +25565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -25562,7 +25573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -25570,7 +25581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -25578,7 +25589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -25615,15 +25626,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -25646,7 +25657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -25671,7 +25682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -25696,7 +25707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -25721,7 +25732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -25746,7 +25757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -25771,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -25796,7 +25807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -25821,7 +25832,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -25846,7 +25857,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/patient-contactrelationship</v>
@@ -25871,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/patient-contactrelationship</v>
@@ -25896,7 +25907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -25921,7 +25932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -25946,7 +25957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -25971,7 +25982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/link-type</v>
@@ -25996,28 +26007,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26033,15 +26044,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26064,7 +26075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -26089,9 +26100,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26110,11 +26121,11 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:H15" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -26139,7 +26150,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -26164,7 +26175,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A7" si="2">_xlfn.CONCAT(C6,"/",B6)</f>
         <v>ValueSet/languages</v>
@@ -26189,7 +26200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26214,52 +26225,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26275,15 +26286,15 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26306,7 +26317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -26331,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -26356,7 +26367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -26381,7 +26392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -26406,7 +26417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -26431,7 +26442,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -26456,7 +26467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -26481,7 +26492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26506,7 +26517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v2-0360|2.7</v>
@@ -26531,7 +26542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v2-2.7-0360</v>
@@ -26556,7 +26567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -26581,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -26606,7 +26617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -26631,13 +26642,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="7"/>
     </row>
   </sheetData>
@@ -26649,19 +26660,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD80CD-A795-455A-B841-4E9DC818EB92}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26684,7 +26695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/languages</v>
@@ -26705,11 +26716,11 @@
         <v>0</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G6" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <f t="shared" ref="G2:G5" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26734,7 +26745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/healthcare-professional-roles-uv-ips</v>
@@ -26759,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -26784,7 +26795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/c80-practice-codes</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olusegun\Documents\GitHub\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A637420-683B-C645-9F23-2343F3D4E5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{8BEE2D8C-9D9D-476B-BA53-B499123B7BB3}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Practitioner" sheetId="4" r:id="rId4"/>
     <sheet name="PractitionerRole" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,9 +293,9 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25380,23 +25379,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED17744-2F6A-4A6F-A607-38624A023AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25416,7 +25415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -25439,7 +25438,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -25462,7 +25461,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -25485,7 +25484,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -25493,7 +25492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -25509,7 +25508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -25517,7 +25516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -25525,7 +25524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -25533,15 +25532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
+      <c r="B11" s="8">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -25549,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -25557,7 +25556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -25565,7 +25564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -25573,7 +25572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -25581,7 +25580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -25589,28 +25588,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html" xr:uid="{623AE2BF-07E6-4193-AAB6-4301282AF2B8}"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html" xr:uid="{6847FA48-919D-4392-B7CD-9F00702A748D}"/>
-    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html" xr:uid="{27796840-49B7-4F9F-BB32-7F7398B2E4F3}"/>
-    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html" xr:uid="{187B6C6E-7187-49A0-BBCB-7E343296F359}"/>
-    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html" xr:uid="{56F13967-894A-4DD1-9CB9-91C9CA979C8C}"/>
-    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html" xr:uid="{94EF6681-E915-4397-B72A-1CA1F9F54A4F}"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html" xr:uid="{8AD300C5-12D2-43AC-AAB9-7A35AFCDE14B}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html" xr:uid="{E32ED741-E007-4054-9584-EACB1E2C47F2}"/>
-    <hyperlink ref="A17" r:id="rId9" tooltip="IPS Server Capability Statement" display="https://build.fhir.org/ig/HL7/fhir-ips/CapabilityStatement-ips-server.html" xr:uid="{853AF2A5-0177-4B99-B201-C130842AFA63}"/>
-    <hyperlink ref="A16" r:id="rId10" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html" xr:uid="{902CD1D6-E0B1-4673-ACC4-B97293D5E893}"/>
-    <hyperlink ref="A15" r:id="rId11" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html" xr:uid="{71B5E0A4-4DBE-4FD3-9A5A-A4A22FB1FC9A}"/>
-    <hyperlink ref="A7" r:id="rId12" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html" xr:uid="{F5CC252D-AAD6-412F-9A0A-EC6F02E179E7}"/>
-    <hyperlink ref="A8" r:id="rId13" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html" xr:uid="{444FD865-C13F-4CAE-ADAD-3D26F01FBB19}"/>
-    <hyperlink ref="A10" r:id="rId14" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html" xr:uid="{B0E9B7F6-5C9C-46C3-9FDB-8A3073A172F1}"/>
-    <hyperlink ref="A14" r:id="rId15" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html" xr:uid="{70939CD6-52C6-4BEB-9771-DCBDF29B255D}"/>
+    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html"/>
+    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html"/>
+    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html"/>
+    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html"/>
+    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html"/>
+    <hyperlink ref="A17" r:id="rId9" tooltip="IPS Server Capability Statement" display="https://build.fhir.org/ig/HL7/fhir-ips/CapabilityStatement-ips-server.html"/>
+    <hyperlink ref="A16" r:id="rId10" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html"/>
+    <hyperlink ref="A15" r:id="rId11" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html"/>
+    <hyperlink ref="A7" r:id="rId12" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html"/>
+    <hyperlink ref="A8" r:id="rId13" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html"/>
+    <hyperlink ref="A10" r:id="rId14" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html"/>
+    <hyperlink ref="A14" r:id="rId15" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
@@ -25619,22 +25618,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57842BA-2005-483E-94D6-9586341292E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -25657,7 +25656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -25682,7 +25681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -25707,7 +25706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -25732,7 +25731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -25757,7 +25756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -25782,7 +25781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -25807,7 +25806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -25832,7 +25831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -25857,7 +25856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/patient-contactrelationship</v>
@@ -25882,7 +25881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/patient-contactrelationship</v>
@@ -25907,7 +25906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -25932,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -25957,7 +25956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -25982,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/link-type</v>
@@ -26007,28 +26006,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26037,22 +26036,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D594AE58-EE5E-4580-BCBE-7E6BA09C7349}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26075,7 +26074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -26100,7 +26099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -26125,7 +26124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -26150,7 +26149,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -26175,7 +26174,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A7" si="2">_xlfn.CONCAT(C6,"/",B6)</f>
         <v>ValueSet/languages</v>
@@ -26200,7 +26199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26225,52 +26224,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26279,22 +26278,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC91F8-0575-4E3E-996F-7DF2489DC64D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26317,7 +26316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -26342,7 +26341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -26367,7 +26366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -26392,7 +26391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -26417,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -26442,7 +26441,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -26467,7 +26466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -26492,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26517,7 +26516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v2-0360|2.7</v>
@@ -26542,7 +26541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v2-2.7-0360</v>
@@ -26567,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -26592,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -26617,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -26642,13 +26641,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
   </sheetData>
@@ -26657,22 +26656,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD80CD-A795-455A-B841-4E9DC818EB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -26695,7 +26694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/languages</v>
@@ -26720,7 +26719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -26745,7 +26744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/healthcare-professional-roles-uv-ips</v>
@@ -26770,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -26795,7 +26794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/c80-practice-codes</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,18 @@
     <sheet name="Organization" sheetId="3" r:id="rId3"/>
     <sheet name="Practitioner" sheetId="4" r:id="rId4"/>
     <sheet name="PractitionerRole" sheetId="5" r:id="rId5"/>
+    <sheet name="RelatedPerson" sheetId="6" r:id="rId6"/>
+    <sheet name="Alergy Intolerance (IPS)" sheetId="15" r:id="rId7"/>
+    <sheet name="Immunization" sheetId="16" r:id="rId8"/>
+    <sheet name="Condition (IPS)" sheetId="17" r:id="rId9"/>
+    <sheet name="Medication Statement (IPS)" sheetId="7" r:id="rId10"/>
+    <sheet name="Medication (IPS)" sheetId="18" r:id="rId11"/>
+    <sheet name="Observation Results (IPS)" sheetId="8" r:id="rId12"/>
+    <sheet name="ObservationResultLaboratory IPS" sheetId="9" r:id="rId13"/>
+    <sheet name="Specimen (IPS)" sheetId="10" r:id="rId14"/>
+    <sheet name="Composition (IPS)" sheetId="11" r:id="rId15"/>
+    <sheet name="Bundle - IPS" sheetId="12" r:id="rId16"/>
+    <sheet name="IPS Server Capability Statement" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="74">
   <si>
     <t>Artefato</t>
   </si>
@@ -211,6 +223,57 @@
   <si>
     <t>Especialidade clínica no canônico</t>
   </si>
+  <si>
+    <t>CodeSystem/</t>
+  </si>
+  <si>
+    <t>ValueSet/</t>
+  </si>
+  <si>
+    <t>CommonLanguages</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceClinicalStatusCodes</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceVerificationStatusCodes</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceType</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceCategory</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceCriticality</t>
+  </si>
+  <si>
+    <t>AllergyIntoleranceUvIps</t>
+  </si>
+  <si>
+    <t>ImmunizationStatusCodes</t>
+  </si>
+  <si>
+    <t>ImmunizationStatusReasonCodes</t>
+  </si>
+  <si>
+    <t>Vaccines - SNOMED CT IPS Free Set</t>
+  </si>
+  <si>
+    <t>Vaccines WHO ATC - IPS</t>
+  </si>
+  <si>
+    <t>Absent or Unknown Immunization - IPS</t>
+  </si>
+  <si>
+    <t>ResourceType</t>
+  </si>
+  <si>
+    <t>CodeSystem/resource-types</t>
+  </si>
+  <si>
+    <t>ValueSet/resource-types</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,6 +326,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -279,7 +348,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -291,6 +360,10 @@
     <xf numFmtId="9" fontId="1" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
@@ -25382,8 +25455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25422,20 +25495,20 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="e">
         <f>COUNTIFS(Patient!C:C, Sumario!C1,Patient!E:E,"TRUE",Patient!F:F,"TRUE")/(COUNTIFS(Patient!C:C, Sumario!C1,Patient!E:E,"TRUE",Patient!F:F,"TRUE")+COUNTIFS(Patient!C:C, Sumario!C1,Patient!E:E,"FALSE",Patient!F:F,"FALSE"))</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D2" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" s="6" t="e">
         <f>COUNTIFS(Patient!C:C, Sumario!D1,Patient!E:E,"TRUE",Patient!F:F,"TRUE")/(COUNTIFS(Patient!C:C, Sumario!D1,Patient!E:E,"TRUE",Patient!F:F,"TRUE")+COUNTIFS(Patient!C:C, Sumario!D1,Patient!E:E,"FALSE",Patient!F:F,"FALSE"))</f>
-        <v>0.16666666666666666</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="8" t="e">
         <f>AVERAGE(B2:E2)</f>
-        <v>0.58333333333333337</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -25445,20 +25518,20 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="4" t="e">
         <f>COUNTIFS(Organization!$C:$C, Sumario!C1,Organization!$E:$E,"TRUE",Organization!$F:$F,"TRUE")/(COUNTIFS(Organization!$C:$C, Sumario!C1,Organization!$E:$E,"TRUE",Organization!$F:$F,"TRUE")+COUNTIFS(Organization!$C:$C, Sumario!C1,Organization!$E:$E,"FALSE",Organization!$F:$F,"FALSE"))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D3" s="4" t="e">
         <f>COUNTIFS(Organization!$C:$C, Sumario!D1,Organization!$E:$E,"TRUE",Organization!$F:$F,"TRUE")/(COUNTIFS(Organization!$C:$C, Sumario!D1,Organization!$E:$E,"TRUE",Organization!$F:$F,"TRUE")+COUNTIFS(Organization!$C:$C, Sumario!D1,Organization!$E:$E,"FALSE",Organization!$F:$F,"FALSE"))</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="8" t="e">
         <f>AVERAGE(B3:E3)</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -25536,7 +25609,7 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
     </row>
@@ -25617,12 +25690,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25657,390 +25730,200 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,"/",B2)</f>
-        <v>CodeSystem/name-use</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
-        <v>ValueSet/name-use</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="b">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="b">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G15" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>CodeSystem/marital-status</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>ValueSet/marital-status</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>CodeSystem/administrative-gender</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="b">
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>ValueSet/administrative-gender</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="b">
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="str">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11">
         <f t="shared" si="0"/>
-        <v>CodeSystem/BRSexo</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>ValueSet/BRSexo-1.0</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="str">
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>CodeSystem/patient-contactrelationship</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="b">
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>ValueSet/patient-contactrelationship</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="b">
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="str">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>ValueSet/languages</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="b">
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ietf-bcp-47</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/link-type</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/link-type</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26075,214 +25958,200 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,"/",B2)</f>
-        <v>CodeSystem/organization-type</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
-        <v>ValueSet/organization-type</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3" t="b">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="b">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
-        <f>_xlfn.CONCAT(C4,"/",B4)</f>
-        <v>CodeSystem/BRTipoEstabelecimento</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="2" t="b">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>ValueSet/BRTipoEstabelecimento</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
-        <f t="shared" ref="A6:A7" si="2">_xlfn.CONCAT(C6,"/",B6)</f>
-        <v>ValueSet/languages</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="b">
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="b">
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" ref="G6:G7" si="3">COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ietf-bcp-47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="3" t="b">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="b">
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="3"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="7"/>
-    </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="7"/>
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7"/>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="6"/>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="6"/>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26317,331 +26186,115 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,"/",B2)</f>
-        <v>CodeSystem/name-use</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
-        <v>ValueSet/name-use</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="3" t="b">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="b">
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G13" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>CodeSystem/administrative-gender</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/administrative-gender</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/BRSexo</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/BRSexo-1.0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/languages</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ietf-bcp-47</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/v2-0360|2.7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/v2-2.7-0360</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/BRCBO</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/BRCBO-1.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ConceptMap/BRCBO</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" ref="G14" si="2">COUNTIF(E14:F14,TRUE)/COLUMNS(E14:F14)</f>
-        <v>0</v>
-      </c>
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26650,17 +26303,35 @@
     <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26695,6 +26366,1961 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f>_xlfn.CONCAT(C2,"/",B2)</f>
+        <v>CodeSystem/name-use</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <v>ValueSet/name-use</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G15" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/marital-status</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/marital-status</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/administrative-gender</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/administrative-gender</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/BRSexo</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/BRSexo-1.0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/patient-contactrelationship</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/patient-contactrelationship</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/languages</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/ietf-bcp-47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/link-type</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/link-type</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f>_xlfn.CONCAT(C2,"/",B2)</f>
+        <v>CodeSystem/organization-type</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <v>ValueSet/organization-type</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f>_xlfn.CONCAT(C4,"/",B4)</f>
+        <v>CodeSystem/BRTipoEstabelecimento</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/BRTipoEstabelecimento</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f t="shared" ref="A6:A7" si="2">_xlfn.CONCAT(C6,"/",B6)</f>
+        <v>ValueSet/languages</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G7" si="3">COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ietf-bcp-47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="str">
+        <f>_xlfn.CONCAT(C2,"/",B2)</f>
+        <v>CodeSystem/name-use</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <v>ValueSet/name-use</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/administrative-gender</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/administrative-gender</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/BRSexo</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/BRSexo-1.0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/languages</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/ietf-bcp-47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/v2-0360|2.7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/v2-2.7-0360</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/BRCBO</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/BRCBO-1.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ConceptMap/BRCBO</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" ref="G14" si="2">COUNTIF(E14:F14,TRUE)/COLUMNS(E14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/languages</v>
@@ -26822,4 +28448,936 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -25695,7 +25695,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25735,6 +25735,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -25746,6 +25752,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -25758,6 +25770,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25770,6 +25788,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25779,6 +25803,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25788,6 +25818,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25797,6 +25833,12 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25806,6 +25848,12 @@
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25815,6 +25863,12 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25824,6 +25878,12 @@
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25833,6 +25893,12 @@
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25842,6 +25908,12 @@
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25851,6 +25923,12 @@
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25860,54 +25938,108 @@
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25923,7 +26055,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25963,6 +26095,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -25974,6 +26112,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -25986,6 +26130,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25998,6 +26148,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26007,6 +26163,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26016,6 +26178,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26025,6 +26193,12 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26034,6 +26208,12 @@
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26043,6 +26223,12 @@
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26052,6 +26238,12 @@
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26061,6 +26253,12 @@
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26070,6 +26268,12 @@
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26079,6 +26283,12 @@
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26088,54 +26298,108 @@
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26151,7 +26415,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26191,6 +26455,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -26202,6 +26472,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -26214,6 +26490,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26226,6 +26508,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26235,6 +26523,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26244,6 +26538,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26253,72 +26553,168 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26331,7 +26727,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26371,6 +26767,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -26382,6 +26784,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -26394,6 +26802,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26406,6 +26820,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26415,6 +26835,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26424,6 +26850,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26433,72 +26865,165 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26511,7 +27036,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="H25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26551,6 +27076,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -26562,6 +27093,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -26574,6 +27111,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26586,6 +27129,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26595,6 +27144,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26604,6 +27159,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26613,72 +27174,168 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26691,7 +27348,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26731,6 +27388,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -26742,6 +27405,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -26754,6 +27423,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26766,6 +27441,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26775,6 +27456,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26784,6 +27471,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26793,72 +27486,168 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -26871,7 +27660,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26914,6 +27703,12 @@
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -26925,6 +27720,12 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -26937,6 +27738,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26949,6 +27756,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26958,6 +27771,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26967,6 +27786,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -26976,72 +27801,168 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -27054,7 +27975,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="F2" sqref="F2:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27117,6 +28038,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
@@ -27129,6 +28056,12 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -27141,6 +28074,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -27150,6 +28089,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -27159,6 +28104,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -27168,72 +28119,168 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -27246,7 +28293,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27664,8 +28711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27907,7 +28954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -28286,7 +29333,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28451,710 +29498,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="G2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="G2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="G2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="G4" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -29199,6 +29542,12 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
@@ -29210,8 +29559,14 @@
       </c>
       <c r="B3" s="4"/>
       <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G7" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
@@ -29222,7 +29577,13 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="G4" s="11">
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -29234,6 +29595,12 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -29243,6 +29610,12 @@
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -29252,6 +29625,12 @@
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -29261,117 +29640,1314 @@
       <c r="A8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G18" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="G22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="G23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -25657,8 +25657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25933,7 +25933,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -25956,7 +25956,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -25973,13 +25973,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -25996,13 +25996,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -26019,13 +26019,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -26041,13 +26041,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -26063,13 +26063,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26107,13 +26107,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -26129,13 +26129,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -26151,13 +26151,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -26173,13 +26173,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -26195,13 +26195,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -26217,13 +26217,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26239,13 +26239,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -26261,13 +26261,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -26283,13 +26283,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -26305,13 +26305,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -26327,13 +26327,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -26349,13 +26349,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -26415,13 +26415,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="str">
-        <f>CONCATENATE(C24,"/",B24)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -26437,13 +26437,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" ref="G24:G27" si="1">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <f t="shared" ref="G24:G27" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="str">
-        <f>CONCATENATE(C25,"/",B25)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -26459,13 +26459,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="str">
-        <f>CONCATENATE(C26,"/",B26)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -26481,13 +26481,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="str">
-        <f>CONCATENATE(C27,"/",B27)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -26503,7 +26503,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -26553,7 +26553,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -26576,7 +26576,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -26593,13 +26593,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -26616,13 +26616,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -26639,13 +26639,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -26661,13 +26661,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -26683,13 +26683,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -26705,13 +26705,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -26727,13 +26727,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -26749,13 +26749,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -26771,13 +26771,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -26815,13 +26815,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -26837,13 +26837,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -26859,13 +26859,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -26881,13 +26881,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -26903,13 +26903,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -26960,13 +26960,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -26979,13 +26979,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -26998,13 +26998,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -27017,7 +27017,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27068,7 +27068,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -27091,7 +27091,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -27108,13 +27108,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -27131,13 +27131,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -27176,13 +27176,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -27198,13 +27198,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -27220,13 +27220,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -27242,13 +27242,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -27286,13 +27286,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -27308,13 +27308,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -27330,13 +27330,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -27352,13 +27352,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -27374,13 +27374,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ObservationMethods</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -27396,13 +27396,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -27418,13 +27418,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -27440,13 +27440,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -27462,13 +27462,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -27484,13 +27484,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/LOINCCodes</v>
       </c>
       <c r="B22" s="20" t="s">
@@ -27528,13 +27528,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -27550,7 +27550,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -27600,7 +27600,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A39" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -27623,7 +27623,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -27640,13 +27640,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -27686,13 +27686,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/observation-category</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -27708,13 +27708,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">ValueSet/observation-category </v>
       </c>
       <c r="B7" s="4" t="s">
@@ -27730,13 +27730,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/LOINC.ORG</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -27752,13 +27752,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/results-laboratory-observations-uv-ips</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/resource-types</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -27796,13 +27796,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/resource-types</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -27840,13 +27840,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ResultsCodedValuesLaboratoryUvIps</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -27884,13 +27884,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Results Blood Group - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/http://snomed.info/sct </v>
       </c>
       <c r="B16" s="23" t="s">
@@ -27928,13 +27928,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Results Presence Absence - SNOMED CT IPS Free Se</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -27950,13 +27950,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B18" s="22" t="s">
@@ -27972,13 +27972,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Results Microorganism - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -27994,13 +27994,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/DataAbsentReason</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -28038,13 +28038,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ v3.ObservationInterpretation</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -28060,13 +28060,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -28082,13 +28082,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="str">
-        <f>CONCATENATE(C24,"/",B24)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B24" s="22" t="s">
@@ -28104,13 +28104,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f t="shared" ref="G24:G33" si="1">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <f t="shared" ref="G24:G33" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="str">
-        <f>CONCATENATE(C25,"/",B25)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -28126,13 +28126,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="str">
-        <f>CONCATENATE(C26,"/",B26)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B26" s="22" t="s">
@@ -28148,13 +28148,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="str">
-        <f>CONCATENATE(C27,"/",B27)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -28170,13 +28170,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="str">
-        <f>CONCATENATE(C28,"/",B28)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -28192,13 +28192,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="str">
-        <f>CONCATENATE(C29,"/",B29)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="str">
-        <f>CONCATENATE(C30,"/",B30)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -28236,13 +28236,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="str">
-        <f>CONCATENATE(C31,"/",B31)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -28258,13 +28258,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="str">
-        <f>CONCATENATE(C32,"/",B32)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -28280,13 +28280,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="str">
-        <f>CONCATENATE(C33,"/",B33)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -28302,13 +28302,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="str">
-        <f>CONCATENATE(C34,"/",B34)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org OU ObservationCodes</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -28324,13 +28324,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="11">
-        <f t="shared" ref="G34:G39" si="2">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
+        <f t="shared" ref="G34:G39" si="3">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="str">
-        <f>CONCATENATE(C35,"/",B35)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ LOINCCodes OU http://loinc.org</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -28346,13 +28346,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17" t="str">
-        <f>CONCATENATE(C36,"/",B36)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -28368,13 +28368,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="str">
-        <f>CONCATENATE(C37,"/",B37)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -28390,13 +28390,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17" t="str">
-        <f>CONCATENATE(C38,"/",B38)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/v3.ObservationInterpretation</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -28412,13 +28412,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="str">
-        <f>CONCATENATE(C39,"/",B39)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -28434,7 +28434,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -28494,7 +28494,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
       </c>
       <c r="B2" s="5"/>
@@ -28515,7 +28515,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B3" s="4"/>
@@ -28530,13 +28530,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="B4" s="5"/>
@@ -28551,13 +28551,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B5" s="4"/>
@@ -28572,13 +28572,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -28591,13 +28591,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -28610,13 +28610,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -28629,13 +28629,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -28648,13 +28648,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -28667,13 +28667,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -28686,13 +28686,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -28705,13 +28705,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -28724,13 +28724,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -28743,13 +28743,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -28762,13 +28762,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -28781,13 +28781,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -28800,13 +28800,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -28819,13 +28819,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -28838,13 +28838,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -28857,13 +28857,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -28876,13 +28876,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -28895,13 +28895,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -28914,7 +28914,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -28964,7 +28964,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
       </c>
       <c r="B2" s="5"/>
@@ -28985,7 +28985,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B3" s="4"/>
@@ -29000,13 +29000,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="B4" s="5"/>
@@ -29021,13 +29021,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B5" s="4"/>
@@ -29042,13 +29042,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -29061,13 +29061,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -29080,13 +29080,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -29099,13 +29099,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -29118,13 +29118,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -29137,13 +29137,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -29156,13 +29156,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -29175,13 +29175,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -29194,13 +29194,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -29213,13 +29213,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -29232,13 +29232,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -29251,13 +29251,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -29270,13 +29270,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -29289,13 +29289,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -29308,13 +29308,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -29327,13 +29327,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -29346,13 +29346,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -29365,13 +29365,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -29384,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -29434,7 +29434,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
       </c>
       <c r="B2" s="5"/>
@@ -29455,7 +29455,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B3" s="4"/>
@@ -29470,13 +29470,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="B4" s="5"/>
@@ -29491,13 +29491,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B5" s="4"/>
@@ -29512,13 +29512,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -29531,13 +29531,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -29550,13 +29550,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -29569,13 +29569,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -29588,13 +29588,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -29607,13 +29607,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -29626,13 +29626,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -29645,13 +29645,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -29664,13 +29664,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -29683,13 +29683,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -29702,13 +29702,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -29721,13 +29721,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -29740,13 +29740,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -29759,13 +29759,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -29778,13 +29778,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -29797,13 +29797,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -29816,13 +29816,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -29835,13 +29835,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -29854,7 +29854,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -29904,7 +29904,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
       </c>
       <c r="B2" s="5"/>
@@ -29925,7 +29925,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B3" s="4"/>
@@ -29940,13 +29940,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="B4" s="5"/>
@@ -29961,13 +29961,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="B5" s="4"/>
@@ -29982,13 +29982,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -30001,13 +30001,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -30020,13 +30020,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -30039,13 +30039,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -30058,13 +30058,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -30096,13 +30096,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -30115,13 +30115,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -30134,13 +30134,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -30153,13 +30153,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -30172,13 +30172,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -30191,13 +30191,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -30210,13 +30210,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -30248,13 +30248,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -30267,13 +30267,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -30286,13 +30286,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -30305,13 +30305,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -30324,7 +30324,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -31766,7 +31766,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -31789,7 +31789,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -31806,13 +31806,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceClinicalStatusCodes</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceClinicalStatusCodes</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -31852,13 +31852,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceVerificationStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -31874,13 +31874,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceVerificationStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -31896,13 +31896,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceType</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -31918,13 +31918,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceType</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -31940,13 +31940,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCategory</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -31962,13 +31962,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCategory</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -31984,13 +31984,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCriticality</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -32006,13 +32006,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCriticality</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -32028,13 +32028,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -32050,13 +32050,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -32072,13 +32072,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Allergy Intolerance - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -32094,13 +32094,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B17" s="15" t="s">
@@ -32116,13 +32116,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -32138,13 +32138,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -32160,13 +32160,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -32182,13 +32182,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -32204,13 +32204,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -32301,7 +32301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -32843,7 +32843,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
-        <f>CONCATENATE(C2,"/",B2)</f>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -32866,7 +32866,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="str">
-        <f>CONCATENATE(C3,"/",B3)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -32883,13 +32883,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="0">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
-        <f>CONCATENATE(C4,"/",B4)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -32906,13 +32906,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="str">
-        <f>CONCATENATE(C5,"/",B5)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -32929,13 +32929,13 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
-        <f>CONCATENATE(C6,"/",B6)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ConditionVerificationStatus</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -32951,13 +32951,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="str">
-        <f>CONCATENATE(C7,"/",B7)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ConditionVerificationStatus</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -32973,13 +32973,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
-        <f>CONCATENATE(C8,"/",B8)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ ProblemTypeUvIps</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -32995,13 +32995,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="str">
-        <f>CONCATENATE(C9,"/",B9)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ ProblemTypeUvIps</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -33017,13 +33017,13 @@
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
-        <f>CONCATENATE(C10,"/",B10)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Problem Type (LOINC)</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -33039,13 +33039,13 @@
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="str">
-        <f>CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Problem Type (LOINC)</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -33061,13 +33061,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
-        <f>CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -33083,13 +33083,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="str">
-        <f>CONCATENATE(C13,"/",B13)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -33105,13 +33105,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
-        <f>CONCATENATE(C14,"/",B14)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Problem Severity - IPS</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -33127,13 +33127,13 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="str">
-        <f>CONCATENATE(C15,"/",B15)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Problem Severity - IPS</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -33149,13 +33149,13 @@
         <v>0</v>
       </c>
       <c r="G15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
-        <f>CONCATENATE(C16,"/",B16)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -33171,13 +33171,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="str">
-        <f>CONCATENATE(C17,"/",B17)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -33193,13 +33193,13 @@
         <v>0</v>
       </c>
       <c r="G17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
-        <f>CONCATENATE(C18,"/",B18)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -33215,13 +33215,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="str">
-        <f>CONCATENATE(C19,"/",B19)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -33237,13 +33237,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
-        <f>CONCATENATE(C20,"/",B20)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -33259,13 +33259,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="str">
-        <f>CONCATENATE(C21,"/",B21)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -33281,13 +33281,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
-        <f>CONCATENATE(C22,"/",B22)</f>
+        <f t="shared" si="0"/>
         <v>CodeSystem/</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -33300,13 +33300,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="str">
-        <f>CONCATENATE(C23,"/",B23)</f>
+        <f t="shared" si="0"/>
         <v>ValueSet/</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -33319,7 +33319,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olusegun\Documents\GitHub\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AB39C1-8263-47B7-A094-5BA9E4055980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="Composition" sheetId="11" r:id="rId15"/>
     <sheet name="Bundle" sheetId="12" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="141">
   <si>
     <t>Artefato</t>
   </si>
@@ -422,11 +421,53 @@
   <si>
     <t>Composition</t>
   </si>
+  <si>
+    <t>SpecimenStatus</t>
+  </si>
+  <si>
+    <t>ResultsSpecimenTypeUvIps</t>
+  </si>
+  <si>
+    <t>Results Specimen Type - SNOMED CT IPS Free Set</t>
+  </si>
+  <si>
+    <t>FHIRSpecimenCollectionMethod</t>
+  </si>
+  <si>
+    <t>BodySiteUvIps</t>
+  </si>
+  <si>
+    <t>Hl7VSRelevantClincialInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2-0916 </t>
+  </si>
+  <si>
+    <t>SpecimenProcessingProcedure</t>
+  </si>
+  <si>
+    <t>v2.0373</t>
+  </si>
+  <si>
+    <t>SpecimenContainerType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hl7VSAdditivePreservative</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hl7VSAdditivePreservative ou v2-0371</t>
+  </si>
+  <si>
+    <t>Hl7VSSpecimenCondition</t>
+  </si>
+  <si>
+    <t>specimenCondition ou v2-0493</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,10 +594,10 @@
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25640,23 +25681,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25676,7 +25717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>114</v>
       </c>
@@ -25700,7 +25741,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -25724,7 +25765,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>116</v>
       </c>
@@ -25748,7 +25789,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>117</v>
       </c>
@@ -25772,7 +25813,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -25796,7 +25837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>118</v>
       </c>
@@ -25820,7 +25861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>119</v>
       </c>
@@ -25844,7 +25885,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>120</v>
       </c>
@@ -25868,7 +25909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>121</v>
       </c>
@@ -25892,7 +25933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>122</v>
       </c>
@@ -25916,7 +25957,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>123</v>
       </c>
@@ -25940,7 +25981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>124</v>
       </c>
@@ -25964,7 +26005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>125</v>
       </c>
@@ -25988,7 +26029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>126</v>
       </c>
@@ -26012,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -26036,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -26047,20 +26088,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A16" r:id="rId9" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A15" r:id="rId10" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A7" r:id="rId11" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A8" r:id="rId12" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A10" r:id="rId13" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html"/>
+    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html"/>
+    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html"/>
+    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html"/>
+    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html"/>
+    <hyperlink ref="A16" r:id="rId9" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html"/>
+    <hyperlink ref="A15" r:id="rId10" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html"/>
+    <hyperlink ref="A7" r:id="rId11" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html"/>
+    <hyperlink ref="A8" r:id="rId12" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html"/>
+    <hyperlink ref="A10" r:id="rId13" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html"/>
+    <hyperlink ref="A14" r:id="rId14" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -26069,22 +26110,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -26107,7 +26148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
@@ -26130,7 +26171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26153,7 +26194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26176,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26199,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26221,7 +26262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26243,7 +26284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
@@ -26265,7 +26306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
@@ -26287,7 +26328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26309,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26331,7 +26372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -26353,7 +26394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -26375,7 +26416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
@@ -26397,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
@@ -26419,7 +26460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAdditionalDosageInstructions</v>
@@ -26441,7 +26482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAdditionalDosageInstructions</v>
@@ -26463,7 +26504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26485,7 +26526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26507,7 +26548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26529,7 +26570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26551,7 +26592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ MedicineRouteOfAdministrationUvIps</v>
@@ -26573,7 +26614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ MedicineRouteOfAdministrationUvIps</v>
@@ -26595,7 +26636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ SNOMEDCTAdministrationMethodCodes</v>
@@ -26617,7 +26658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTAdministrationMethodCodes</v>
@@ -26639,7 +26680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DoseAndRateType</v>
@@ -26661,7 +26702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DoseAndRateType</v>
@@ -26689,22 +26730,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -26727,7 +26768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
@@ -26750,7 +26791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26773,7 +26814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26796,7 +26837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26819,7 +26860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
@@ -26841,7 +26882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
@@ -26863,7 +26904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -26885,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -26907,7 +26948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
@@ -26929,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
@@ -26951,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26973,7 +27014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26995,7 +27036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
@@ -27017,7 +27058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
@@ -27039,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
@@ -27061,7 +27102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
@@ -27083,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27102,7 +27143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27121,7 +27162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27140,7 +27181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27159,7 +27200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27178,7 +27219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27203,23 +27244,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -27242,7 +27283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
@@ -27265,7 +27306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27288,7 +27329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27311,7 +27352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27334,7 +27375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
@@ -27356,7 +27397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27378,7 +27419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -27400,7 +27441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -27422,7 +27463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -27444,7 +27485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -27466,7 +27507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
@@ -27488,7 +27529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
@@ -27510,7 +27551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTBodyStructures</v>
@@ -27532,7 +27573,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -27554,7 +27595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationMethods</v>
@@ -27576,7 +27617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -27598,7 +27639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -27620,7 +27661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
@@ -27642,7 +27683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27664,7 +27705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27686,7 +27727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINCCodes</v>
@@ -27708,7 +27749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27736,22 +27777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -27774,7 +27815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A39" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
@@ -27797,7 +27838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27820,7 +27861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27843,7 +27884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27866,7 +27907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/observation-category</v>
@@ -27888,7 +27929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ValueSet/observation-category </v>
@@ -27910,7 +27951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINC.ORG</v>
@@ -27932,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/results-laboratory-observations-uv-ips</v>
@@ -27954,7 +27995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/resource-types</v>
@@ -27976,7 +28017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/resource-types</v>
@@ -27998,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28020,7 +28061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResultsCodedValuesLaboratoryUvIps</v>
@@ -28042,7 +28083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28064,7 +28105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Blood Group - SNOMED CT IPS Free Set</v>
@@ -28086,7 +28127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/http://snomed.info/sct </v>
@@ -28108,7 +28149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Presence Absence - SNOMED CT IPS Free Se</v>
@@ -28130,7 +28171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28152,7 +28193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Microorganism - SNOMED CT IPS Free Set</v>
@@ -28174,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DataAbsentReason</v>
@@ -28196,7 +28237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28218,7 +28259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.ObservationInterpretation</v>
@@ -28240,7 +28281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -28262,7 +28303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28284,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -28306,7 +28347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28328,7 +28369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -28350,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -28372,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationReferenceRangeMeaningCodes</v>
@@ -28394,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28416,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -28438,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -28460,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -28482,7 +28523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org OU ObservationCodes</v>
@@ -28504,7 +28545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ LOINCCodes OU http://loinc.org</v>
@@ -28526,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -28548,7 +28589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28570,7 +28611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3.ObservationInterpretation</v>
@@ -28592,7 +28633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -28616,36 +28657,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="B34" r:id="rId8" display="http://loinc.org" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B18" r:id="rId4"/>
+    <hyperlink ref="B24" r:id="rId5"/>
+    <hyperlink ref="B26" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B34" r:id="rId8" display="http://loinc.org"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -28668,12 +28709,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="B2" s="5"/>
+        <v>CodeSystem/CommonLanguages</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
@@ -28689,12 +28732,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>ValueSet/CommonLanguages</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -28710,12 +28755,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>CodeSystem/SpecimenStatus</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
@@ -28731,12 +28778,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>ValueSet/SpecimenStatus</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -28752,10 +28801,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -28771,10 +28823,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/ResultsSpecimenTypeUvIps</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -28790,10 +28845,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -28809,10 +28867,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/Results Specimen Type - SNOMED CT IPS Free Set</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -28828,10 +28889,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/ResourceType</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -28847,10 +28911,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/ResourceType</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -28866,10 +28933,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -28885,10 +28955,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/FHIRSpecimenCollectionMethod</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -28904,10 +28977,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -28923,10 +28999,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/BodySiteUvIps</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -28942,10 +29021,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v xml:space="preserve">CodeSystem/v2-0916 </v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -28961,10 +29043,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/Hl7VSRelevantClincialInformation</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -28980,10 +29065,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/v2.0373</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -28999,10 +29087,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/SpecimenProcessingProcedure</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -29018,10 +29109,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -29037,10 +29131,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/SpecimenContainerType</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -29056,10 +29153,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/</v>
+        <v>CodeSystem/ Hl7VSAdditivePreservative ou v2-0371</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -29075,10 +29175,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/</v>
+        <v>ValueSet/ Hl7VSAdditivePreservative</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -29094,28 +29197,118 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="str">
+        <f t="shared" ref="A24:A27" si="2">CONCATENATE(C24,"/",B24)</f>
+        <v>CodeSystem/specimenCondition ou v2-0493</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" ref="G24:G27" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/Hl7VSSpecimenCondition</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -29138,7 +29331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
@@ -29159,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29180,7 +29373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29201,7 +29394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29222,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29241,7 +29434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29260,7 +29453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29279,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29298,7 +29491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29317,7 +29510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29336,7 +29529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29355,7 +29548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29374,7 +29567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29393,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29412,7 +29605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29431,7 +29624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29450,7 +29643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29469,7 +29662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29488,7 +29681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29507,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29526,7 +29719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29545,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29570,22 +29763,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -29608,7 +29801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/</v>
@@ -29629,7 +29822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29650,7 +29843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29671,7 +29864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29692,7 +29885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29711,7 +29904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29730,7 +29923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29749,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29768,7 +29961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29787,7 +29980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29806,7 +29999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29825,7 +30018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29844,7 +30037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29863,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29882,7 +30075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29901,7 +30094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29920,7 +30113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29939,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29958,7 +30151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -29977,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -29996,7 +30189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -30015,7 +30208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -30040,23 +30233,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G15" activeCellId="6" sqref="G2 G4 G6 G8 G10 G13 G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -30079,7 +30272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -30104,7 +30297,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -30129,7 +30322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -30154,7 +30347,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -30179,7 +30372,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -30204,7 +30397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -30229,7 +30422,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -30254,7 +30447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -30279,7 +30472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/patient-contactrelationship</v>
@@ -30304,7 +30497,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/patient-contactrelationship</v>
@@ -30329,7 +30522,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -30354,7 +30547,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -30379,7 +30572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -30404,7 +30597,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/link-type</v>
@@ -30429,28 +30622,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -30459,23 +30652,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -30498,7 +30691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -30523,7 +30716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -30548,7 +30741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -30573,7 +30766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -30598,7 +30791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ref="A6:A7" si="2">_xlfn.CONCAT(C6,"/",B6)</f>
         <v>ValueSet/languages</v>
@@ -30623,7 +30816,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -30648,52 +30841,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -30702,23 +30895,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -30741,7 +30934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -30766,7 +30959,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -30791,7 +30984,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -30816,7 +31009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -30841,7 +31034,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -30866,7 +31059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -30891,7 +31084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -30916,7 +31109,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -30941,7 +31134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v2-0360|2.7</v>
@@ -30966,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v2-2.7-0360</v>
@@ -30991,7 +31184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -31016,7 +31209,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -31041,7 +31234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -31066,13 +31259,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
   </sheetData>
@@ -31081,23 +31274,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -31120,7 +31313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/languages</v>
@@ -31145,7 +31338,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -31170,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/healthcare-professional-roles-uv-ips</v>
@@ -31195,7 +31388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -31220,7 +31413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/c80-practice-codes</v>
@@ -31251,22 +31444,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -31289,7 +31482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -31300,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -31311,7 +31504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -31323,7 +31516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -31335,7 +31528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -31344,7 +31537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>44</v>
       </c>
@@ -31353,76 +31546,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -31431,23 +31624,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -31470,7 +31663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A21" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
@@ -31493,7 +31686,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -31516,7 +31709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceClinicalStatusCodes</v>
@@ -31539,7 +31732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceClinicalStatusCodes</v>
@@ -31562,7 +31755,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceVerificationStatusCodes</v>
@@ -31584,7 +31777,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceVerificationStatusCodes</v>
@@ -31606,7 +31799,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceType</v>
@@ -31628,7 +31821,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceType</v>
@@ -31650,7 +31843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCategory</v>
@@ -31672,7 +31865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCategory</v>
@@ -31694,7 +31887,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCriticality</v>
@@ -31716,7 +31909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCriticality</v>
@@ -31738,7 +31931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceUvIps</v>
@@ -31760,7 +31953,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceUvIps</v>
@@ -31782,7 +31975,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -31804,7 +31997,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -31826,7 +32019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -31848,7 +32041,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -31870,7 +32063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
@@ -31892,7 +32085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
@@ -31914,7 +32107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -31960,22 +32153,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -31998,7 +32191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ImmunizationStatusCodes</v>
@@ -32021,7 +32214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" ref="A3:A23" si="0">CONCATENATE(C3,"/",B3)</f>
         <v>ValueSet/ImmunizationStatusCodes</v>
@@ -32044,7 +32237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ImmunizationStatusReasonCodes</v>
@@ -32067,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationStatusReasonCodes</v>
@@ -32090,7 +32283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines - SNOMED CT IPS Free Set</v>
@@ -32112,7 +32305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines - SNOMED CT IPS Free Set</v>
@@ -32134,7 +32327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines WHO ATC - IPS</v>
@@ -32156,7 +32349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
@@ -32178,7 +32371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
@@ -32200,7 +32393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Immunization - IPS</v>
@@ -32222,7 +32415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -32244,7 +32437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -32266,7 +32459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32285,7 +32478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -32304,7 +32497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32323,7 +32516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -32342,7 +32535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32361,7 +32554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -32380,7 +32573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32399,7 +32592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -32418,7 +32611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32437,7 +32630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -32456,7 +32649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
     </row>
   </sheetData>
@@ -32465,22 +32658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -32503,7 +32696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/CommonLanguages</v>
@@ -32526,7 +32719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -32549,7 +32742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
@@ -32572,7 +32765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
@@ -32595,7 +32788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionVerificationStatus</v>
@@ -32617,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionVerificationStatus</v>
@@ -32639,7 +32832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ProblemTypeUvIps</v>
@@ -32661,7 +32854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ProblemTypeUvIps</v>
@@ -32683,7 +32876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Type (LOINC)</v>
@@ -32705,7 +32898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Type (LOINC)</v>
@@ -32727,7 +32920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
@@ -32749,7 +32942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/DiagnosisSeverity</v>
@@ -32771,7 +32964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Severity - IPS</v>
@@ -32793,7 +32986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Severity - IPS</v>
@@ -32815,7 +33008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -32837,7 +33030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -32859,7 +33052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
@@ -32881,7 +33074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
@@ -32903,7 +33096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
@@ -32925,7 +33118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
@@ -32947,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -32966,7 +33159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="142">
   <si>
     <t>Artefato</t>
   </si>
@@ -463,6 +463,9 @@
   <si>
     <t>specimenCondition ou v2-0493</t>
   </si>
+  <si>
+    <t>Sexo</t>
+  </si>
 </sst>
 </file>
 
@@ -25684,7 +25687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -25726,19 +25729,19 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), C$1),"")</f>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), D$1),"")</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="E2" s="6" t="str">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="E2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), E$1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
         <f ca="1">AVERAGE(B2:E2)</f>
-        <v>0.66666666666666663</v>
+        <v>0.7857142857142857</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26083,7 +26086,7 @@
       </c>
       <c r="F17" s="23">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.29814814814814816</v>
+        <v>0.30608465608465613</v>
       </c>
     </row>
   </sheetData>
@@ -30236,8 +30239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" activeCellId="6" sqref="G2 G4 G6 G8 G10 G13 G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30299,7 +30302,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <f t="shared" ref="A3:A23" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -30318,7 +30321,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G15" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <f t="shared" ref="G3:G16" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
     </row>
@@ -30390,11 +30393,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -30415,11 +30418,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -30599,7 +30602,7 @@
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C15,"/",B15)</f>
         <v>CodeSystem/link-type</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -30623,7 +30626,28 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G17" s="7"/>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="144">
   <si>
     <t>Artefato</t>
   </si>
@@ -464,7 +464,13 @@
     <t>specimenCondition ou v2-0493</t>
   </si>
   <si>
+    <t>ConceptMap/</t>
+  </si>
+  <si>
     <t>Sexo</t>
+  </si>
+  <si>
+    <t>Sem ConceptMap</t>
   </si>
 </sst>
 </file>
@@ -25688,7 +25694,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25729,7 +25735,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), C$1),"")</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), D$1),"")</f>
@@ -25741,7 +25747,7 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">AVERAGE(B2:E2)</f>
-        <v>0.7857142857142857</v>
+        <v>0.8035714285714286</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -25757,7 +25763,7 @@
       </c>
       <c r="D3" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25765,7 +25771,7 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">AVERAGE(B3:E3)</f>
-        <v>0.5</v>
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26013,7 +26019,7 @@
         <v>125</v>
       </c>
       <c r="B14" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -26029,7 +26035,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26086,7 +26092,7 @@
       </c>
       <c r="F17" s="23">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.30608465608465613</v>
+        <v>0.33690476190476187</v>
       </c>
     </row>
   </sheetData>
@@ -30239,8 +30245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30477,10 +30483,10 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,"/",B10)</f>
         <v>CodeSystem/patient-contactrelationship</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -30502,10 +30508,10 @@
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,"/",B11)</f>
         <v>ValueSet/patient-contactrelationship</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -30552,7 +30558,7 @@
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C13,"/",B13)</f>
         <v>CodeSystem/ietf-bcp-47</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -30615,19 +30621,19 @@
         <v>26</v>
       </c>
       <c r="E15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -30636,7 +30642,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>1</v>
@@ -30679,8 +30685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30690,6 +30696,7 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -30805,14 +30812,14 @@
         <v>31</v>
       </c>
       <c r="E5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -30872,6 +30879,9 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -746,6 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
@@ -25838,7 +25839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -25880,11 +25881,11 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), C$1),"")</f>
-        <v>0.6428571428571429</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), D$1),"")</f>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E2" s="6">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), E$1),"")</f>
@@ -25892,7 +25893,7 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">AVERAGE(B2:E2)</f>
-        <v>0.8392857142857143</v>
+        <v>0.89285714285714279</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -25904,11 +25905,11 @@
       </c>
       <c r="C3" s="16">
         <f t="shared" ref="C3:E16" ca="1" si="0">IFERROR(AVERAGEIFS(INDIRECT($A3 &amp; "!G:G"),INDIRECT($A3 &amp; "!C:C"), C$1),"")</f>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E3" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25916,7 +25917,7 @@
       </c>
       <c r="F3" s="23">
         <f ca="1">AVERAGE(B3:E3)</f>
-        <v>0.61111111111111105</v>
+        <v>0.77777777777777768</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -25928,19 +25929,19 @@
       </c>
       <c r="C4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <f ca="1">AVERAGE(B4:E4)</f>
-        <v>0.70833333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -25952,11 +25953,11 @@
       </c>
       <c r="C5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E5" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25964,7 +25965,7 @@
       </c>
       <c r="F5" s="23">
         <f t="shared" ref="F5:F16" ca="1" si="1">AVERAGE(B5:E5)</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.27777777777777773</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26237,7 +26238,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.35263831527376416</v>
+        <v>0.39324678088222975</v>
       </c>
     </row>
   </sheetData>
@@ -34098,8 +34099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34402,11 +34403,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -34424,14 +34425,14 @@
         <v>23</v>
       </c>
       <c r="E13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -34562,7 +34563,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34716,11 +34717,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ref="G6:G7" si="3">COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -34738,14 +34739,14 @@
         <v>23</v>
       </c>
       <c r="E7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -34809,7 +34810,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34871,7 +34872,7 @@
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -35012,11 +35013,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -35034,14 +35035,14 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -35112,11 +35113,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -35134,14 +35135,14 @@
         <v>36</v>
       </c>
       <c r="E13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -35162,11 +35163,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="10">
         <f t="shared" ref="G14:G17" si="2">COUNTIF(E14:F14,TRUE)/COLUMNS(E14:F14)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -35235,7 +35236,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35245,6 +35246,7 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -35288,11 +35290,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" ref="G2:G5" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -35310,87 +35312,87 @@
         <v>23</v>
       </c>
       <c r="E3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/healthcare-professional-roles-uv-ips</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="E4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
+    <row r="5" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/c80-practice-codes</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="E6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
         <f t="shared" ref="G6" si="2">COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
         <v>0</v>
       </c>
@@ -35589,8 +35591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35600,6 +35602,7 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -35641,11 +35644,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -35661,14 +35664,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G32" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -25840,7 +25840,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26049,11 +26049,11 @@
       </c>
       <c r="C9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3.125E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E9" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26061,7 +26061,7 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0416666666666666E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.39324678088222975</v>
+        <v>0.39533011421556308</v>
       </c>
     </row>
   </sheetData>
@@ -34099,7 +34099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -35591,7 +35591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -37277,8 +37277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37287,7 +37287,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -37329,11 +37329,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -37349,14 +37349,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -26097,11 +26097,11 @@
       </c>
       <c r="C11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5454545454545456E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="F11" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34848484848484845</v>
+        <v>0.39393939393939387</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26169,11 +26169,11 @@
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8461538461538464E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35897435897435903</v>
+        <v>0.38461538461538458</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26193,11 +26193,11 @@
       </c>
       <c r="C15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8039215686274508E-3</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8039215686274508E-3</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26205,7 +26205,7 @@
       </c>
       <c r="F15" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.5359477124183009E-3</v>
+        <v>1.3071895424836602E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26238,7 +26238,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.39533011421556308</v>
+        <v>0.40050554880276235</v>
       </c>
     </row>
   </sheetData>
@@ -26269,7 +26269,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26278,7 +26278,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -26320,11 +26320,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26340,14 +26340,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26890,7 +26890,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26899,7 +26899,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -26941,11 +26941,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26961,14 +26961,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -27404,8 +27404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27415,6 +27415,7 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -27456,11 +27457,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -27476,14 +27477,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -28021,8 +28022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28031,6 +28032,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -28069,14 +28071,14 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -28092,14 +28094,14 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -28916,7 +28918,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28925,7 +28927,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -28967,11 +28969,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -28990,11 +28992,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -29539,7 +29541,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29548,7 +29550,7 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -29590,11 +29592,11 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -29613,11 +29615,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -31843,7 +31845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
@@ -37277,7 +37279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -25839,7 +25839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -31845,8 +31845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="187">
   <si>
     <t>Artefato</t>
   </si>
@@ -254,9 +254,6 @@
     <t>Medication Status Codes</t>
   </si>
   <si>
-    <t xml:space="preserve"> SNOMEDCTDrugTherapyStatusCodes</t>
-  </si>
-  <si>
     <t>Medication usage category codes</t>
   </si>
   <si>
@@ -266,22 +263,7 @@
     <t>Condition/Problem/DiagnosisCodes</t>
   </si>
   <si>
-    <t xml:space="preserve"> SNOMEDCTAdditionalDosageInstructions</t>
-  </si>
-  <si>
     <t>SNOMEDCTMedicationAsNeededReasonCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MedicineRouteOfAdministrationUvIps</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SNOMEDCTAdministrationMethodCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DoseAndRateType</t>
   </si>
   <si>
     <t>Medications - SNOMED CT IPS Free Set</t>
@@ -604,6 +586,21 @@
   <si>
     <t>ManifestationAndSymptomCodes</t>
   </si>
+  <si>
+    <t>SNOMEDCTDrugTherapyStatusCodes</t>
+  </si>
+  <si>
+    <t>SNOMEDCTAdditionalDosageInstructions</t>
+  </si>
+  <si>
+    <t>SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</t>
+  </si>
+  <si>
+    <t>SNOMEDCTAdministrationMethodCodes</t>
+  </si>
+  <si>
+    <t>DoseAndRateType</t>
+  </si>
 </sst>
 </file>
 
@@ -25874,7 +25871,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -25898,18 +25895,18 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="16">
         <f t="shared" ref="C3:E16" ca="1" si="0">IFERROR(AVERAGEIFS(INDIRECT($A3 &amp; "!G:G"),INDIRECT($A3 &amp; "!C:C"), C$1),"")</f>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D3" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E3" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25917,12 +25914,12 @@
       </c>
       <c r="F3" s="23">
         <f ca="1">AVERAGE(B3:E3)</f>
-        <v>0.77777777777777768</v>
+        <v>0.88888888888888895</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -25946,7 +25943,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -25994,7 +25991,7 @@
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B7" s="9">
         <v>1</v>
@@ -26018,18 +26015,18 @@
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2631578947368418E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26037,23 +26034,23 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35087719298245612</v>
+        <v>0.36842105263157898</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
       </c>
       <c r="C9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E9" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26061,12 +26058,12 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1666666666666664E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B10" s="24">
         <v>0</v>
@@ -26090,7 +26087,7 @@
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B11" s="9">
         <v>1</v>
@@ -26114,7 +26111,7 @@
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B12" s="24">
         <v>0</v>
@@ -26138,7 +26135,7 @@
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B13" s="9">
         <v>1</v>
@@ -26162,18 +26159,18 @@
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B14" s="24">
         <v>1</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26181,23 +26178,23 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38461538461538458</v>
+        <v>0.4102564102564103</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B15" s="9">
         <v>0</v>
       </c>
       <c r="C15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9607843137254902E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9607843137254902E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26205,7 +26202,7 @@
       </c>
       <c r="F15" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3071895424836602E-2</v>
+        <v>1.9607843137254902E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26238,7 +26235,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.40050554880276235</v>
+        <v>0.4126165672992298</v>
       </c>
     </row>
   </sheetData>
@@ -26269,7 +26266,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26310,7 +26307,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26399,10 +26396,10 @@
     <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ SNOMEDCTDrugTherapyStatusCodes</v>
+        <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26421,10 +26418,10 @@
     <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ SNOMEDCTDrugTherapyStatusCodes</v>
+        <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>182</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26446,7 +26443,7 @@
         <v>CodeSystem/Medication usage category codes</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -26468,7 +26465,7 @@
         <v>ValueSet/Medication usage category codes</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -26490,7 +26487,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -26512,7 +26509,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -26540,14 +26537,14 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26562,14 +26559,14 @@
         <v>4</v>
       </c>
       <c r="E13" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -26578,7 +26575,7 @@
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -26600,7 +26597,7 @@
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -26619,10 +26616,10 @@
     <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ SNOMEDCTAdditionalDosageInstructions</v>
+        <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26641,10 +26638,10 @@
     <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ SNOMEDCTAdditionalDosageInstructions</v>
+        <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26666,7 +26663,7 @@
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -26688,7 +26685,7 @@
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -26707,10 +26704,10 @@
     <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
+        <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26729,10 +26726,10 @@
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
+        <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26751,10 +26748,10 @@
     <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ MedicineRouteOfAdministrationUvIps</v>
+        <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26773,10 +26770,10 @@
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ MedicineRouteOfAdministrationUvIps</v>
+        <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26795,10 +26792,10 @@
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ SNOMEDCTAdministrationMethodCodes</v>
+        <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26817,10 +26814,10 @@
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ SNOMEDCTAdministrationMethodCodes</v>
+        <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26839,10 +26836,10 @@
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ DoseAndRateType</v>
+        <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26861,10 +26858,10 @@
     <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ DoseAndRateType</v>
+        <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26931,7 +26928,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26977,7 +26974,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27000,7 +26997,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27023,7 +27020,7 @@
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27045,7 +27042,7 @@
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27111,7 +27108,7 @@
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27133,7 +27130,7 @@
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27199,7 +27196,7 @@
         <v>CodeSystem/MedicineDoseFormUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27221,7 +27218,7 @@
         <v>ValueSet/MedicineDoseFormUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27243,7 +27240,7 @@
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -27265,7 +27262,7 @@
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -27405,7 +27402,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27447,7 +27444,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27470,7 +27467,7 @@
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -27493,7 +27490,7 @@
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27516,7 +27513,7 @@
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27539,7 +27536,7 @@
         <v>CodeSystem/loinc.org</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27561,7 +27558,7 @@
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27589,14 +27586,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -27611,14 +27608,14 @@
         <v>4</v>
       </c>
       <c r="E9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -27627,7 +27624,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27649,7 +27646,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27671,7 +27668,7 @@
         <v>CodeSystem/ ObservationInterpretationCodes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27693,7 +27690,7 @@
         <v>ValueSet/ ObservationInterpretationCodes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27715,7 +27712,7 @@
         <v>CodeSystem/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27737,7 +27734,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27759,7 +27756,7 @@
         <v>CodeSystem/ObservationMethods</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -27781,7 +27778,7 @@
         <v>ValueSet/ObservationMethods</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -27803,7 +27800,7 @@
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -27825,7 +27822,7 @@
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -27847,7 +27844,7 @@
         <v>CodeSystem/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -27869,7 +27866,7 @@
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -27891,7 +27888,7 @@
         <v>CodeSystem/LOINCCodes</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -27913,7 +27910,7 @@
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -27935,7 +27932,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -27957,7 +27954,7 @@
         <v>ValueSet/DataAbsentReason</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -28023,7 +28020,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28064,7 +28061,7 @@
         <v>CodeSystem/ CommonLanguages</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -28087,7 +28084,7 @@
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -28110,7 +28107,7 @@
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -28133,7 +28130,7 @@
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -28156,7 +28153,7 @@
         <v>CodeSystem/observation-category</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -28178,7 +28175,7 @@
         <v xml:space="preserve">ValueSet/observation-category </v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -28200,7 +28197,7 @@
         <v>CodeSystem/LOINC.ORG</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -28222,7 +28219,7 @@
         <v>ValueSet/results-laboratory-observations-uv-ips</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -28244,20 +28241,20 @@
         <v>CodeSystem/resource-types</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -28266,20 +28263,20 @@
         <v>ValueSet/resource-types</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -28288,7 +28285,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -28310,7 +28307,7 @@
         <v>ValueSet/ResultsCodedValuesLaboratoryUvIps</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -28332,7 +28329,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -28354,7 +28351,7 @@
         <v>ValueSet/Results Blood Group - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -28376,7 +28373,7 @@
         <v xml:space="preserve">CodeSystem/http://snomed.info/sct </v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -28398,7 +28395,7 @@
         <v>ValueSet/Results Presence Absence - SNOMED CT IPS Free Se</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -28420,7 +28417,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -28442,7 +28439,7 @@
         <v>ValueSet/Results Microorganism - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -28464,7 +28461,7 @@
         <v>CodeSystem/DataAbsentReason</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -28486,7 +28483,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -28508,7 +28505,7 @@
         <v>CodeSystem/ v3.ObservationInterpretation</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -28530,7 +28527,7 @@
         <v>ValueSet/ObservationInterpretationCodes</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -28552,7 +28549,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -28574,7 +28571,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -28596,7 +28593,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -28618,7 +28615,7 @@
         <v>ValueSet/ObservationMethods</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -28640,7 +28637,7 @@
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -28662,7 +28659,7 @@
         <v>ValueSet/ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -28684,7 +28681,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -28706,7 +28703,7 @@
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -28772,7 +28769,7 @@
         <v>CodeSystem/http://loinc.org OU ObservationCodes</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -28794,7 +28791,7 @@
         <v>ValueSet/ LOINCCodes OU http://loinc.org</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -28816,7 +28813,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -28838,7 +28835,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -28860,7 +28857,7 @@
         <v>CodeSystem/v3.ObservationInterpretation</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -28882,7 +28879,7 @@
         <v>ValueSet/ObservationInterpretationCodes</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -28918,7 +28915,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28959,7 +28956,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -29005,7 +29002,7 @@
         <v>CodeSystem/SpecimenStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -29028,7 +29025,7 @@
         <v>ValueSet/SpecimenStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -29051,7 +29048,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -29073,7 +29070,7 @@
         <v>ValueSet/ResultsSpecimenTypeUvIps</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -29095,7 +29092,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -29117,7 +29114,7 @@
         <v>ValueSet/Results Specimen Type - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -29145,14 +29142,14 @@
         <v>3</v>
       </c>
       <c r="E10" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -29167,14 +29164,14 @@
         <v>4</v>
       </c>
       <c r="E11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -29183,7 +29180,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -29205,7 +29202,7 @@
         <v>ValueSet/FHIRSpecimenCollectionMethod</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -29227,7 +29224,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -29249,7 +29246,7 @@
         <v>ValueSet/BodySiteUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -29271,7 +29268,7 @@
         <v xml:space="preserve">CodeSystem/v2-0916 </v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -29293,7 +29290,7 @@
         <v>ValueSet/Hl7VSRelevantClincialInformation</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -29315,7 +29312,7 @@
         <v>CodeSystem/v2.0373</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -29337,7 +29334,7 @@
         <v>ValueSet/SpecimenProcessingProcedure</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -29359,7 +29356,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -29381,7 +29378,7 @@
         <v>ValueSet/SpecimenContainerType</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -29403,7 +29400,7 @@
         <v>CodeSystem/ Hl7VSAdditivePreservative ou v2-0371</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -29425,7 +29422,7 @@
         <v>ValueSet/ Hl7VSAdditivePreservative</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -29447,7 +29444,7 @@
         <v>CodeSystem/specimenCondition ou v2-0493</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -29469,7 +29466,7 @@
         <v>ValueSet/Hl7VSSpecimenCondition</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -29541,7 +29538,7 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29582,7 +29579,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -29628,7 +29625,7 @@
         <v>CodeSystem/CompositionStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -29651,7 +29648,7 @@
         <v>ValueSet/ CompositionStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -29674,7 +29671,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -29696,7 +29693,7 @@
         <v>ValueSet/DocumentClassValueSet</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -29724,14 +29721,14 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -29746,14 +29743,14 @@
         <v>4</v>
       </c>
       <c r="E9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -29762,7 +29759,7 @@
         <v>CodeSystem/ v3.Confidentiality</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -29784,7 +29781,7 @@
         <v>ValueSet/v3.ConfidentialityClassification</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -29806,7 +29803,7 @@
         <v>CodeSystem/CompositionAttestationMode</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -29828,7 +29825,7 @@
         <v>ValueSet/CompositionAttestationMode</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -29850,7 +29847,7 @@
         <v>CodeSystem/DocumentRelationshipType</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -29872,7 +29869,7 @@
         <v>ValueSet/DocumentRelationshipType</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -29894,7 +29891,7 @@
         <v>CodeSystem/v3-ActCode</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -29916,7 +29913,7 @@
         <v>ValueSet/v3-ActCode</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -29938,7 +29935,7 @@
         <v>CodeSystem/v3-ActClass</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -29960,7 +29957,7 @@
         <v>ValueSet/ 112 ValueSet</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -29982,7 +29979,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -30004,7 +30001,7 @@
         <v>ValueSet/DocumentSectionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -30026,7 +30023,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -30049,7 +30046,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -30072,7 +30069,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -30095,7 +30092,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -30118,7 +30115,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -30141,7 +30138,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -30164,7 +30161,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -30186,7 +30183,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -30208,7 +30205,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -30230,7 +30227,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -30252,7 +30249,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -30274,7 +30271,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -30296,7 +30293,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -30318,7 +30315,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -30340,7 +30337,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -30362,7 +30359,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -30384,7 +30381,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -30406,7 +30403,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -30428,7 +30425,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -30450,7 +30447,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -30472,7 +30469,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -30494,7 +30491,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -30516,7 +30513,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -30538,7 +30535,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -30560,7 +30557,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -30582,7 +30579,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -30604,7 +30601,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -30626,7 +30623,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -30648,7 +30645,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -30670,7 +30667,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -30692,7 +30689,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -30714,7 +30711,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
@@ -30736,7 +30733,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
@@ -30758,7 +30755,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -30780,7 +30777,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -30802,7 +30799,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -30824,7 +30821,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -30846,7 +30843,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -30868,7 +30865,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -30890,7 +30887,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -30912,7 +30909,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -30934,7 +30931,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
@@ -30956,7 +30953,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -30978,7 +30975,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -31000,7 +30997,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -31022,7 +31019,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -31044,7 +31041,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -31066,7 +31063,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -31088,7 +31085,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -31110,7 +31107,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
@@ -31132,7 +31129,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -31154,7 +31151,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -31176,7 +31173,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -31198,7 +31195,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -31220,7 +31217,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -31242,7 +31239,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -31264,7 +31261,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -31286,7 +31283,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -31308,7 +31305,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -31330,7 +31327,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -31352,7 +31349,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -31374,7 +31371,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
@@ -31396,7 +31393,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -31418,7 +31415,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -31440,7 +31437,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -31462,7 +31459,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>4</v>
@@ -31484,7 +31481,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -31506,7 +31503,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -31528,7 +31525,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -31550,7 +31547,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -31572,7 +31569,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -31594,7 +31591,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -31616,7 +31613,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -31638,7 +31635,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>4</v>
@@ -31660,7 +31657,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -31682,7 +31679,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -31704,7 +31701,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -31726,7 +31723,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -31748,7 +31745,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>3</v>
@@ -31770,7 +31767,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>4</v>
@@ -31792,7 +31789,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
@@ -31814,7 +31811,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
@@ -31845,7 +31842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
@@ -31886,7 +31883,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -31909,7 +31906,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -31932,7 +31929,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -31955,7 +31952,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -31978,7 +31975,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -32000,7 +31997,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -32022,7 +32019,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -32044,7 +32041,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -32066,7 +32063,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -32088,7 +32085,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -32110,7 +32107,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -32132,7 +32129,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -32154,7 +32151,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -32176,7 +32173,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -32198,7 +32195,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -32220,7 +32217,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -32242,7 +32239,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -32264,7 +32261,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -32286,7 +32283,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -32308,7 +32305,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -32330,7 +32327,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -32352,7 +32349,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -32374,7 +32371,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -32397,7 +32394,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -32420,7 +32417,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -32443,7 +32440,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -32466,7 +32463,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -32488,7 +32485,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -32510,7 +32507,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -32532,7 +32529,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -32554,7 +32551,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -32576,7 +32573,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -32598,7 +32595,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -32620,7 +32617,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -32642,7 +32639,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -32664,7 +32661,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -32686,7 +32683,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -32708,7 +32705,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -32730,7 +32727,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -32752,7 +32749,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -32774,7 +32771,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -32796,7 +32793,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -32818,7 +32815,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -32840,7 +32837,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -32862,7 +32859,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -32884,7 +32881,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -32906,7 +32903,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -32928,7 +32925,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -32950,7 +32947,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -32972,7 +32969,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -32994,7 +32991,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>3</v>
@@ -33017,7 +33014,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -33040,7 +33037,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -33063,7 +33060,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -33086,7 +33083,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -33108,7 +33105,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -33130,7 +33127,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -33152,7 +33149,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -33174,7 +33171,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -33196,7 +33193,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -33218,7 +33215,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -33240,7 +33237,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -33262,7 +33259,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -33284,7 +33281,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -33306,7 +33303,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -33328,7 +33325,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -33350,7 +33347,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -33372,7 +33369,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -33394,7 +33391,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -33416,7 +33413,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -33438,7 +33435,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -33460,7 +33457,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -33482,7 +33479,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -33504,7 +33501,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -33526,7 +33523,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -33549,7 +33546,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -33572,7 +33569,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -33595,7 +33592,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -33618,7 +33615,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -33640,7 +33637,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -33662,7 +33659,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -33684,7 +33681,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -33706,7 +33703,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>3</v>
@@ -33728,7 +33725,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -33750,7 +33747,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>3</v>
@@ -33772,7 +33769,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -33794,7 +33791,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -33816,7 +33813,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -33838,7 +33835,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -33860,7 +33857,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -33882,7 +33879,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -33904,7 +33901,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -33926,7 +33923,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -33948,7 +33945,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -33970,7 +33967,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -33992,7 +33989,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -34014,7 +34011,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -34036,7 +34033,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -34499,7 +34496,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>1</v>
@@ -34524,7 +34521,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E17" s="3" t="b">
         <v>1</v>
@@ -34565,7 +34562,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34616,14 +34613,14 @@
         <v>29</v>
       </c>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -34641,14 +34638,14 @@
         <v>29</v>
       </c>
       <c r="E3" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" ref="G3:G5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -34759,7 +34756,7 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G10" s="6"/>
     </row>
@@ -35178,13 +35175,13 @@
         <v>ConceptMap/Sexo</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="b">
         <v>1</v>
@@ -35209,7 +35206,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>1</v>
@@ -35401,7 +35398,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -35659,7 +35656,7 @@
         <v>ValueSet/urn:ietf:bcp:47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -36126,7 +36123,7 @@
         <v>CodeSystem/http://snomed.info/sct where concept is-a 105590001 (Substance)</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -36148,7 +36145,7 @@
         <v>CodeSystem/http://snomed.info/sct  where concept is-a 373873005 (Pharmaceutical / biologic product)</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
@@ -36163,7 +36160,7 @@
         <v>ValueSet/SubstanceCode</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>4</v>
@@ -36185,7 +36182,7 @@
         <v>CodeSystem/ http://snomed.info/sct version http://snomed.info/sct/900000000000207008</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
@@ -36207,7 +36204,7 @@
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>4</v>
@@ -36229,7 +36226,7 @@
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -36251,7 +36248,7 @@
         <v>ValueSet/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
@@ -36273,7 +36270,7 @@
         <v>CodeSystem/http://snomed.info/sct  where concept is-a 284009009 (Route of administration values)</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
@@ -36297,7 +36294,7 @@
         <v>ValueSet/ SNOMEDCTRouteCodes</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>4</v>
@@ -36315,7 +36312,7 @@
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
@@ -36334,7 +36331,7 @@
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>5</v>
@@ -36352,7 +36349,7 @@
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="26" t="s">
@@ -36371,7 +36368,7 @@
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>5</v>
@@ -36389,7 +36386,7 @@
     </row>
     <row r="37" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -36407,7 +36404,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36678,14 +36675,14 @@
         <v>3</v>
       </c>
       <c r="E12" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -36700,14 +36697,14 @@
         <v>4</v>
       </c>
       <c r="E13" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -36716,7 +36713,7 @@
         <v>CodeSystem/ImmunizationOriginCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -36738,7 +36735,7 @@
         <v>ValueSet/ ImmunizationOriginCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -36760,7 +36757,7 @@
         <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -36782,7 +36779,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -36804,7 +36801,7 @@
         <v>CodeSystem/http://standardterms.edqm.eu</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -36826,7 +36823,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -36848,7 +36845,7 @@
         <v>CodeSystem/ v2.0443</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -36870,7 +36867,7 @@
         <v>ValueSet/ImmunizationFunctionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -36892,7 +36889,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -36914,7 +36911,7 @@
         <v>ValueSet/ImmunizationReasonCodes</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -36936,7 +36933,7 @@
         <v>CodeSystem/ImmunizationSubpotentReason</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -36958,7 +36955,7 @@
         <v>ValueSet/ImmunizationSubpotentReason</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -36980,7 +36977,7 @@
         <v>CodeSystem/ImmunizationProgramEligibility</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -37002,7 +36999,7 @@
         <v>ValueSet/ImmunizationProgramEligibility</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -37024,7 +37021,7 @@
         <v>CodeSystem/ImmunizationFundingSource</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -37046,7 +37043,7 @@
         <v>ValueSet/ImmunizationFundingSource</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -37068,7 +37065,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -37090,7 +37087,7 @@
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -37112,7 +37109,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -37134,7 +37131,7 @@
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -37279,8 +37276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37321,7 +37318,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -37765,7 +37762,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -37787,7 +37784,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -37815,14 +37812,14 @@
         <v>3</v>
       </c>
       <c r="E24" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" ref="G24:G29" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -37837,14 +37834,14 @@
         <v>4</v>
       </c>
       <c r="E25" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -37853,7 +37850,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -37875,7 +37872,7 @@
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -37897,7 +37894,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -37919,7 +37916,7 @@
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -37941,7 +37938,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -37963,7 +37960,7 @@
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="190">
   <si>
     <t>Artefato</t>
   </si>
@@ -601,6 +601,15 @@
   <si>
     <t>DoseAndRateType</t>
   </si>
+  <si>
+    <t>RNDS</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
 </sst>
 </file>
 
@@ -25836,7 +25845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -25876,21 +25885,21 @@
       <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="6" t="str">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), C$1),"")</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="D2" s="6">
+        <v/>
+      </c>
+      <c r="D2" s="6" t="str">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), D$1),"")</f>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E2" s="6">
+        <v/>
+      </c>
+      <c r="E2" s="6" t="str">
         <f ca="1">IFERROR(AVERAGEIFS(INDIRECT($A2 &amp; "!G:G"),INDIRECT($A2 &amp; "!C:C"), E$1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F2" s="8">
         <f ca="1">AVERAGE(B2:E2)</f>
-        <v>0.89285714285714279</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -25924,21 +25933,21 @@
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="6">
+        <v/>
+      </c>
+      <c r="D4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="E4" s="6">
+        <v/>
+      </c>
+      <c r="E4" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F4" s="8">
         <f ca="1">AVERAGE(B4:E4)</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -26235,7 +26244,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.4126165672992298</v>
+        <v>0.42809275777542027</v>
       </c>
     </row>
   </sheetData>
@@ -34096,10 +34105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34108,10 +34117,12 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -34131,10 +34142,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -34154,12 +34168,15 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -34179,12 +34196,15 @@
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G17" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H17" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -34204,12 +34224,15 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -34229,12 +34252,15 @@
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -34254,12 +34280,15 @@
       <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -34279,12 +34308,15 @@
       <c r="F7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRSexo</v>
@@ -34304,12 +34336,15 @@
       <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -34329,12 +34364,15 @@
       <c r="F9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f>CONCATENATE(C10,"/",B10)</f>
         <v>CodeSystem/patient-contactrelationship</v>
@@ -34354,12 +34392,15 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="str">
         <f>CONCATENATE(C11,"/",B11)</f>
         <v>ValueSet/patient-contactrelationship</v>
@@ -34379,12 +34420,15 @@
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -34404,12 +34448,15 @@
       <c r="F12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="str">
         <f>CONCATENATE(C13,"/",B13)</f>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -34429,12 +34476,15 @@
       <c r="F13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -34454,12 +34504,15 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="str">
         <f>CONCATENATE(C15,"/",B15)</f>
         <v>CodeSystem/link-type</v>
@@ -34479,12 +34532,15 @@
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f>CONCATENATE(C16,"/",B16)</f>
         <v>ConceptMap/BRSexo</v>
@@ -34504,12 +34560,12 @@
       <c r="F16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="str">
         <f>CONCATENATE(C17,"/",B17)</f>
         <v>ConceptMap/administrative-gender</v>
@@ -34529,28 +34585,28 @@
       <c r="F17" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G17" s="7">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="7"/>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34806,10 +34862,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34818,10 +34874,12 @@
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -34841,13 +34899,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
-        <f>_xlfn.CONCAT(C2,"/",B2)</f>
-        <v>CodeSystem/name-use</v>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="e">
+        <f ca="1">_xlfn.CONCAT(C2,"/",B2)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -34864,15 +34925,18 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A14" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
-        <v>ValueSet/name-use</v>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="e">
+        <f t="shared" ref="A3:A14" ca="1" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
+        <v>#NAME?</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -34889,15 +34953,18 @@
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G13" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="7">
+        <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/administrative-gender</v>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -34914,15 +34981,18 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
+      <c r="G4" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="6">
+        <f>COUNTIF(E4:F4,TRUE)/COLUMNS(E4:F4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/administrative-gender</v>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -34939,15 +35009,18 @@
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" si="1"/>
+      <c r="G5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="7">
+        <f>COUNTIF(E5:F5,TRUE)/COLUMNS(E5:F5)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/BRSexo</v>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
@@ -34964,15 +35037,18 @@
       <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
+      <c r="G6" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="6">
+        <f>COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/BRSexo-1.0</v>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -34989,15 +35065,18 @@
       <c r="F7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="1"/>
+      <c r="G7" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H7" s="7">
+        <f>COUNTIF(E7:F7,TRUE)/COLUMNS(E7:F7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/languages</v>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
@@ -35014,15 +35093,18 @@
       <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
+      <c r="G8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="6">
+        <f>COUNTIF(E8:F8,TRUE)/COLUMNS(E8:F8)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ietf-bcp-47</v>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -35039,15 +35121,18 @@
       <c r="F9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
+      <c r="G9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="7">
+        <f>COUNTIF(E9:F9,TRUE)/COLUMNS(E9:F9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/v2-0360|2.7</v>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>34</v>
@@ -35064,15 +35149,18 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/v2-2.7-0360</v>
+      <c r="G10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="6">
+        <f>COUNTIF(E10:F10,TRUE)/COLUMNS(E10:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>35</v>
@@ -35089,15 +35177,18 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/BRCBO</v>
+      <c r="G11" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H11" s="16">
+        <f>COUNTIF(E11:F11,TRUE)/COLUMNS(E11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
@@ -35114,15 +35205,18 @@
       <c r="F12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
+      <c r="G12" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" s="6">
+        <f>COUNTIF(E12:F12,TRUE)/COLUMNS(E12:F12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/BRCBO-1.0</v>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>37</v>
@@ -35139,15 +35233,18 @@
       <c r="F13" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
+      <c r="G13" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H13" s="7">
+        <f>COUNTIF(E13:F13,TRUE)/COLUMNS(E13:F13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>ConceptMap/BRCBO</v>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>33</v>
@@ -35164,12 +35261,13 @@
       <c r="F14" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" ref="G14:G17" si="2">COUNTIF(E14:F14,TRUE)/COLUMNS(E14:F14)</f>
+      <c r="G14" s="31"/>
+      <c r="H14" s="10">
+        <f>COUNTIF(E14:F14,TRUE)/COLUMNS(E14:F14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="str">
         <f>CONCATENATE(C15,"/",B15)</f>
         <v>ConceptMap/Sexo</v>
@@ -35189,12 +35287,12 @@
       <c r="F15" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G15" s="11">
-        <f t="shared" si="2"/>
+      <c r="H15" s="11">
+        <f>COUNTIF(E15:F15,TRUE)/COLUMNS(E15:F15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f>CONCATENATE(C16,"/",B16)</f>
         <v>ConceptMap/administrative-gender</v>
@@ -35214,14 +35312,14 @@
       <c r="F16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="2"/>
+      <c r="H16" s="10">
+        <f>COUNTIF(E16:F16,TRUE)/COLUMNS(E16:F16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="11">
-        <f t="shared" si="2"/>
+    <row r="17" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="11">
+        <f>COUNTIF(E17:F17,TRUE)/COLUMNS(E17:F17)</f>
         <v>0</v>
       </c>
     </row>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olusegun\Documents\GitHub\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3516BDB-5515-4049-8421-2CE069CF4152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="Composition" sheetId="11" r:id="rId15"/>
     <sheet name="Bundle" sheetId="12" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="214">
   <si>
     <t>Artefato</t>
   </si>
@@ -691,12 +690,15 @@
   <si>
     <t>Mapeamento para SNOMED</t>
   </si>
+  <si>
+    <t>event-status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,10 +859,10 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25944,23 +25946,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25980,7 +25982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
@@ -26004,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
@@ -26028,7 +26030,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>103</v>
       </c>
@@ -26052,7 +26054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
@@ -26076,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -26100,7 +26102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="3" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>105</v>
       </c>
@@ -26124,7 +26126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>106</v>
       </c>
@@ -26148,7 +26150,7 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="3" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>107</v>
       </c>
@@ -26172,7 +26174,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="2" customFormat="1">
       <c r="A10" s="5" t="s">
         <v>108</v>
       </c>
@@ -26196,7 +26198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="3" customFormat="1">
       <c r="A11" s="4" t="s">
         <v>109</v>
       </c>
@@ -26220,7 +26222,7 @@
         <v>0.39393939393939387</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>110</v>
       </c>
@@ -26244,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="3" customFormat="1">
       <c r="A13" s="4" t="s">
         <v>111</v>
       </c>
@@ -26268,7 +26270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="5" t="s">
         <v>112</v>
       </c>
@@ -26292,7 +26294,7 @@
         <v>0.4102564102564103</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="3" customFormat="1">
       <c r="A15" s="4" t="s">
         <v>113</v>
       </c>
@@ -26316,7 +26318,7 @@
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -26340,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -26351,20 +26353,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A16" r:id="rId9" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A15" r:id="rId10" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A7" r:id="rId11" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A8" r:id="rId12" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A10" r:id="rId13" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId1" tooltip="Condition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Condition-uv-ips.html"/>
+    <hyperlink ref="A11" r:id="rId2" tooltip="Medication (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Medication-uv-ips.html"/>
+    <hyperlink ref="A12" r:id="rId3" tooltip="Observation Results (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-uv-ips.html"/>
+    <hyperlink ref="A13" r:id="rId4" tooltip="Observation Results: laboratory (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Observation-results-laboratory-uv-ips.html"/>
+    <hyperlink ref="A2" r:id="rId5" tooltip="Patient (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Patient-uv-ips.html"/>
+    <hyperlink ref="A3" r:id="rId6" tooltip="Organization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Organization-uv-ips.html"/>
+    <hyperlink ref="A4" r:id="rId7" tooltip="Practitioner (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Practitioner-uv-ips.html"/>
+    <hyperlink ref="A5" r:id="rId8" tooltip="PractitionerRole (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-PractitionerRole-uv-ips.html"/>
+    <hyperlink ref="A16" r:id="rId9" tooltip="Bundle - IPS" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Bundle-uv-ips.html"/>
+    <hyperlink ref="A15" r:id="rId10" tooltip="Composition (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Composition-uv-ips.html"/>
+    <hyperlink ref="A7" r:id="rId11" tooltip="Allergy Intolerance (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-AllergyIntolerance-uv-ips.html"/>
+    <hyperlink ref="A8" r:id="rId12" tooltip="Immunization (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Immunization-uv-ips.html"/>
+    <hyperlink ref="A10" r:id="rId13" tooltip="Medication Statement (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-MedicationStatement-uv-ips.html"/>
+    <hyperlink ref="A14" r:id="rId14" tooltip="Specimen (IPS)" display="https://build.fhir.org/ig/HL7/fhir-ips/StructureDefinition-Specimen-uv-ips.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId15"/>
@@ -26373,23 +26375,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -26412,7 +26414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26435,7 +26437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26458,7 +26460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26481,7 +26483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26504,7 +26506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26526,7 +26528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26548,7 +26550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
@@ -26570,7 +26572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
@@ -26592,7 +26594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26614,7 +26616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26636,7 +26638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -26658,7 +26660,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -26680,7 +26682,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
@@ -26702,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
@@ -26724,7 +26726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26746,7 +26748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26768,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26790,7 +26792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26812,7 +26814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26834,7 +26836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26856,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
@@ -26878,7 +26880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
@@ -26900,7 +26902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
@@ -26922,7 +26924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DoseAndRateType</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DoseAndRateType</v>
@@ -26994,23 +26996,23 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -27033,7 +27035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27056,7 +27058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -27079,7 +27081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -27102,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -27125,7 +27127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
@@ -27147,7 +27149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -27191,7 +27193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -27213,7 +27215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
@@ -27235,7 +27237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
@@ -27257,7 +27259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -27279,7 +27281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -27301,7 +27303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
@@ -27323,7 +27325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
@@ -27345,7 +27347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
@@ -27367,7 +27369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
@@ -27389,7 +27391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27408,7 +27410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27446,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27465,7 +27467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27484,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27509,23 +27511,23 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -27548,7 +27550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27571,7 +27573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27594,7 +27596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27617,7 +27619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27640,7 +27642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
@@ -27662,7 +27664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27684,7 +27686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -27706,7 +27708,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -27728,7 +27730,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -27750,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -27772,7 +27774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
@@ -27794,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTBodyStructures</v>
@@ -27838,7 +27840,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -27860,7 +27862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationMethods</v>
@@ -27882,7 +27884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -27926,7 +27928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
@@ -27948,7 +27950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27970,7 +27972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27992,7 +27994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINCCodes</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -28036,7 +28038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A25" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -28058,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/DataAbsentReason</v>
@@ -28080,7 +28082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" ref="A26:A27" si="4">CONCATENATE(C26,"/",B26)</f>
         <v>CodeSystem/</v>
@@ -28100,7 +28102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -28126,23 +28128,23 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -28165,7 +28167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A39" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
@@ -28188,7 +28190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -28211,7 +28213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -28234,7 +28236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -28257,7 +28259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/observation-category</v>
@@ -28279,7 +28281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ValueSet/observation-category </v>
@@ -28301,7 +28303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINC.ORG</v>
@@ -28323,7 +28325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/results-laboratory-observations-uv-ips</v>
@@ -28345,7 +28347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/resource-types</v>
@@ -28367,7 +28369,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/resource-types</v>
@@ -28389,7 +28391,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28411,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResultsCodedValuesLaboratoryUvIps</v>
@@ -28433,7 +28435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28455,7 +28457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Blood Group - SNOMED CT IPS Free Set</v>
@@ -28477,7 +28479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/http://snomed.info/sct </v>
@@ -28499,7 +28501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Presence Absence - SNOMED CT IPS Free Se</v>
@@ -28521,7 +28523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28543,7 +28545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Microorganism - SNOMED CT IPS Free Set</v>
@@ -28565,7 +28567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DataAbsentReason</v>
@@ -28587,7 +28589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28609,7 +28611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.ObservationInterpretation</v>
@@ -28631,7 +28633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -28653,7 +28655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28675,7 +28677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -28697,7 +28699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28719,7 +28721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -28741,7 +28743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -28763,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationReferenceRangeMeaningCodes</v>
@@ -28785,7 +28787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -28829,7 +28831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -28851,7 +28853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -28873,7 +28875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org OU ObservationCodes</v>
@@ -28895,7 +28897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ LOINCCodes OU http://loinc.org</v>
@@ -28917,7 +28919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -28939,7 +28941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28961,7 +28963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3.ObservationInterpretation</v>
@@ -28983,7 +28985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -29007,37 +29009,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
-    <hyperlink ref="B16" r:id="rId3" xr:uid="{00000000-0004-0000-0C00-000002000000}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{00000000-0004-0000-0C00-000003000000}"/>
-    <hyperlink ref="B24" r:id="rId5" xr:uid="{00000000-0004-0000-0C00-000004000000}"/>
-    <hyperlink ref="B26" r:id="rId6" xr:uid="{00000000-0004-0000-0C00-000005000000}"/>
-    <hyperlink ref="B30" r:id="rId7" xr:uid="{00000000-0004-0000-0C00-000006000000}"/>
-    <hyperlink ref="B34" r:id="rId8" display="http://loinc.org" xr:uid="{00000000-0004-0000-0C00-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B18" r:id="rId4"/>
+    <hyperlink ref="B24" r:id="rId5"/>
+    <hyperlink ref="B26" r:id="rId6"/>
+    <hyperlink ref="B30" r:id="rId7"/>
+    <hyperlink ref="B34" r:id="rId8" display="http://loinc.org"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -29060,7 +29062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -29083,7 +29085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -29106,7 +29108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SpecimenStatus</v>
@@ -29129,7 +29131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenStatus</v>
@@ -29152,7 +29154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29174,7 +29176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResultsSpecimenTypeUvIps</v>
@@ -29196,7 +29198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29218,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Specimen Type - SNOMED CT IPS Free Set</v>
@@ -29240,7 +29242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -29262,7 +29264,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -29284,7 +29286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29306,7 +29308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/FHIRSpecimenCollectionMethod</v>
@@ -29328,7 +29330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29350,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BodySiteUvIps</v>
@@ -29372,7 +29374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/v2-0916 </v>
@@ -29394,7 +29396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Hl7VSRelevantClincialInformation</v>
@@ -29416,7 +29418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v2.0373</v>
@@ -29438,7 +29440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenProcessingProcedure</v>
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29482,7 +29484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenContainerType</v>
@@ -29504,7 +29506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ Hl7VSAdditivePreservative ou v2-0371</v>
@@ -29526,7 +29528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ Hl7VSAdditivePreservative</v>
@@ -29548,7 +29550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A27" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/specimenCondition ou v2-0493</v>
@@ -29570,7 +29572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/Hl7VSSpecimenCondition</v>
@@ -29592,7 +29594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/</v>
@@ -29611,7 +29613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/</v>
@@ -29632,11 +29634,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{00000000-0004-0000-0D00-000002000000}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{00000000-0004-0000-0D00-000003000000}"/>
-    <hyperlink ref="B20" r:id="rId5" xr:uid="{00000000-0004-0000-0D00-000004000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B20" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -29644,23 +29646,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -29683,7 +29685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -29706,7 +29708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -29729,7 +29731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionStatus</v>
@@ -29752,7 +29754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CompositionStatus</v>
@@ -29775,7 +29777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentClassValueSet</v>
@@ -29819,7 +29821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -29841,7 +29843,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -29863,7 +29865,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.Confidentiality</v>
@@ -29885,7 +29887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3.ConfidentialityClassification</v>
@@ -29907,7 +29909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionAttestationMode</v>
@@ -29929,7 +29931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CompositionAttestationMode</v>
@@ -29951,7 +29953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DocumentRelationshipType</v>
@@ -29973,7 +29975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentRelationshipType</v>
@@ -29995,7 +29997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActCode</v>
@@ -30017,7 +30019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3-ActCode</v>
@@ -30039,7 +30041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActClass</v>
@@ -30061,7 +30063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ 112 ValueSet</v>
@@ -30083,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -30105,7 +30107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentSectionCodes</v>
@@ -30127,7 +30129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ListMode</v>
@@ -30150,7 +30152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ListMode</v>
@@ -30173,7 +30175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A39" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30196,7 +30198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30219,7 +30221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30242,7 +30244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30265,7 +30267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30287,7 +30289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30309,7 +30311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30331,7 +30333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30353,7 +30355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30375,7 +30377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30397,7 +30399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30419,7 +30421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30441,7 +30443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30463,7 +30465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30485,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30507,7 +30509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30529,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" ref="A40:A59" si="4">CONCATENATE(C40,"/",B40)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30551,7 +30553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30573,7 +30575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30595,7 +30597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30617,7 +30619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30639,7 +30641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30661,7 +30663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30683,7 +30685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30705,7 +30707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30727,7 +30729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30749,7 +30751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30771,7 +30773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30793,7 +30795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30815,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30837,7 +30839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30859,7 +30861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30881,7 +30883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30903,7 +30905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30925,7 +30927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30947,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30969,7 +30971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" ref="A60:A65" si="6">CONCATENATE(C60,"/",B60)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30991,7 +30993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31013,7 +31015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListMode</v>
@@ -31035,7 +31037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListMode</v>
@@ -31057,7 +31059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31079,7 +31081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31101,7 +31103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" ref="A66:A97" si="8">CONCATENATE(C66,"/",B66)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31123,7 +31125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31145,7 +31147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31167,7 +31169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31189,7 +31191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31211,7 +31213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31233,7 +31235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31255,7 +31257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31277,7 +31279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31299,7 +31301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31321,7 +31323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31343,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31365,7 +31367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31387,7 +31389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31409,7 +31411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31431,7 +31433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31453,7 +31455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31475,7 +31477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31497,7 +31499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31519,7 +31521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31541,7 +31543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31563,7 +31565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31585,7 +31587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31607,7 +31609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31629,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31651,7 +31653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31673,7 +31675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31695,7 +31697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31717,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31739,7 +31741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31761,7 +31763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31783,7 +31785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31805,7 +31807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A103" si="10">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/ListMode</v>
@@ -31827,7 +31829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListMode</v>
@@ -31849,7 +31851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31871,7 +31873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31893,7 +31895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="2" customFormat="1">
       <c r="A102" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31915,7 +31917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="3" customFormat="1">
       <c r="A103" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31939,9 +31941,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" location="v3-ActClass-PCPR" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId2" location="v3-ActClass-PCPR"/>
+    <hyperlink ref="B20" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -31949,22 +31951,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -31987,7 +31989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32010,7 +32012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32033,7 +32035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32056,7 +32058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32079,7 +32081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32101,7 +32103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32123,7 +32125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32145,7 +32147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32167,7 +32169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32189,7 +32191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32211,7 +32213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32233,7 +32235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32255,7 +32257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32277,7 +32279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32299,7 +32301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32321,7 +32323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32343,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32365,7 +32367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32387,7 +32389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32409,7 +32411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32431,7 +32433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32453,7 +32455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32475,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A51" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -32498,7 +32500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32521,7 +32523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32544,7 +32546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32567,7 +32569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32589,7 +32591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32611,7 +32613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32633,7 +32635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32655,7 +32657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32677,7 +32679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32699,7 +32701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32721,7 +32723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32743,7 +32745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32765,7 +32767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32787,7 +32789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32809,7 +32811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32831,7 +32833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32853,7 +32855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32875,7 +32877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32897,7 +32899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32919,7 +32921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32941,7 +32943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32963,7 +32965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32985,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33007,7 +33009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33029,7 +33031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33051,7 +33053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33073,7 +33075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33095,7 +33097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" ref="A52:A75" si="4">CONCATENATE(C52,"/",B52)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -33118,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33141,7 +33143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33164,7 +33166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33187,7 +33189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33209,7 +33211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33231,7 +33233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33253,7 +33255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33275,7 +33277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33297,7 +33299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33319,7 +33321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33341,7 +33343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33363,7 +33365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33385,7 +33387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33407,7 +33409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33429,7 +33431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33451,7 +33453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33473,7 +33475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33495,7 +33497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33517,7 +33519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33539,7 +33541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33561,7 +33563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33583,7 +33585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33605,7 +33607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33627,7 +33629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" ref="A76:A97" si="6">CONCATENATE(C76,"/",B76)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -33650,7 +33652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33673,7 +33675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33696,7 +33698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33719,7 +33721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33741,7 +33743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33763,7 +33765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33785,7 +33787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33807,7 +33809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33829,7 +33831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33851,7 +33853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33873,7 +33875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33895,7 +33897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33917,7 +33919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33939,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33961,7 +33963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33983,7 +33985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -34005,7 +34007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34027,7 +34029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -34049,7 +34051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -34071,7 +34073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -34093,7 +34095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34115,7 +34117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A101" si="8">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -34137,7 +34139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34159,7 +34161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/</v>
@@ -34179,7 +34181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/</v>
@@ -34205,25 +34207,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -34255,7 +34257,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -34289,7 +34291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -34323,7 +34325,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -34357,7 +34359,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -34391,7 +34393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -34425,7 +34427,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -34459,7 +34461,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -34493,7 +34495,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>190</v>
       </c>
@@ -34526,7 +34528,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(C10,"/",B10)</f>
         <v>ValueSet/patient-contactrelationship</v>
@@ -34560,7 +34562,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="2" customFormat="1">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -34594,7 +34596,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(C12,"/",B12)</f>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -34622,7 +34624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="2" customFormat="1">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -34656,7 +34658,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(C14,"/",B14)</f>
         <v>CodeSystem/link-type</v>
@@ -34690,7 +34692,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="2" t="s">
         <v>186</v>
       </c>
@@ -34720,19 +34722,19 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" s="2" customFormat="1">
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8" s="3" customFormat="1">
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8" s="2" customFormat="1">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8" s="3" customFormat="1">
       <c r="H20" s="7"/>
     </row>
   </sheetData>
@@ -34741,23 +34743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -34786,7 +34788,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -34817,7 +34819,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -34848,7 +34850,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -34879,7 +34881,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -34910,55 +34912,55 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="2" customFormat="1">
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1">
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1">
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1">
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="3" customFormat="1">
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" s="2" customFormat="1">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" s="3" customFormat="1">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" s="2" customFormat="1">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" s="3" customFormat="1">
       <c r="G21" s="7"/>
     </row>
   </sheetData>
@@ -34967,25 +34969,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -35017,7 +35019,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
@@ -35048,7 +35050,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>200</v>
       </c>
@@ -35078,7 +35080,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -35106,7 +35108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -35134,7 +35136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -35166,7 +35168,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35180,31 +35182,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{BDC997FC-B3C1-E943-B6EC-F3612E28F370}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -35236,7 +35238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1">
       <c r="A2" s="12" t="str">
         <f t="shared" ref="A2:A4" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
@@ -35270,7 +35272,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="14" customFormat="1">
       <c r="A3" s="28" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -35304,7 +35306,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
@@ -35336,37 +35338,37 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="25" t="s">
         <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{464CE3BE-6228-7A41-9F74-6CCFA7ED5BCE}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{CDD38AC3-F268-4E43-AC55-B84A0377C203}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -35389,7 +35391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -35400,7 +35402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -35411,7 +35413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -35423,7 +35425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -35435,7 +35437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -35444,7 +35446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>37</v>
       </c>
@@ -35453,76 +35455,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" s="2" customFormat="1">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" s="3" customFormat="1">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" s="2" customFormat="1">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" s="3" customFormat="1">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" s="2" customFormat="1">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" s="3" customFormat="1">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -35531,23 +35533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -35582,7 +35584,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A30" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/AllergyIntoleranceClinicalStatusCodes</v>
@@ -35617,7 +35619,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceClinicalStatusCodes</v>
@@ -35652,7 +35654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceVerificationStatusCodes</v>
@@ -35686,7 +35688,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceVerificationStatusCodes</v>
@@ -35720,7 +35722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceType</v>
@@ -35754,7 +35756,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceType</v>
@@ -35788,7 +35790,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCategory</v>
@@ -35822,7 +35824,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCategory</v>
@@ -35856,7 +35858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCriticality</v>
@@ -35890,7 +35892,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="38" customFormat="1">
       <c r="A11" s="36" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCriticality</v>
@@ -35924,7 +35926,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceUvIps</v>
@@ -35946,7 +35948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceUvIps</v>
@@ -35968,7 +35970,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -35990,7 +35992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -36012,7 +36014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -36034,7 +36036,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -36056,7 +36058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
@@ -36078,7 +36080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="14" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
@@ -36102,7 +36104,7 @@
       </c>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" ref="A20:A21" si="2">CONCATENATE(C20,"/",B20)</f>
         <v>CodeSystem/ResourceType</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ResourceType</v>
@@ -36146,7 +36148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
         <f t="shared" ref="A22:A28" si="4">CONCATENATE(C22,"/",B22)</f>
         <v>CodeSystem/http://snomed.info/sct where concept is-a 105590001 (Substance)</v>
@@ -36168,7 +36170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="2" customFormat="1">
       <c r="A23" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/http://snomed.info/sct  where concept is-a 373873005 (Pharmaceutical / biologic product)</v>
@@ -36183,7 +36185,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="3" customFormat="1">
       <c r="A24" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SubstanceCode</v>
@@ -36205,7 +36207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="2" customFormat="1">
       <c r="A25" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ http://snomed.info/sct version http://snomed.info/sct/900000000000207008</v>
@@ -36227,7 +36229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="3" customFormat="1">
       <c r="A26" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
@@ -36249,7 +36251,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="2" customFormat="1">
       <c r="A27" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
@@ -36271,7 +36273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="3" customFormat="1">
       <c r="A28" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/AllergyIntoleranceSeverity</v>
@@ -36293,7 +36295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="15" customFormat="1">
       <c r="A29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct  where concept is-a 284009009 (Route of administration values)</v>
@@ -36317,7 +36319,7 @@
       </c>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="28" customFormat="1">
       <c r="A30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ SNOMEDCTRouteCodes</v>
@@ -36339,7 +36341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="2" customFormat="1">
       <c r="A31" s="5" t="s">
         <v>128</v>
       </c>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="3" customFormat="1">
       <c r="A32" s="13" t="s">
         <v>128</v>
       </c>
@@ -36376,7 +36378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="2" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>128</v>
       </c>
@@ -36395,7 +36397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="3" customFormat="1">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
@@ -36413,39 +36415,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="27" customFormat="1">
       <c r="A35" s="26" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="B29" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId2"/>
+    <hyperlink ref="B29" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -36468,13 +36470,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/ImmunizationStatusCodes</v>
+        <v>CodeSystem/event-status</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -36491,7 +36493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A23" si="0">CONCATENATE(C3,"/",B3)</f>
         <v>ValueSet/ImmunizationStatusCodes</v>
@@ -36514,7 +36516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ImmunizationStatusReasonCodes</v>
@@ -36537,7 +36539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationStatusReasonCodes</v>
@@ -36560,7 +36562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines - SNOMED CT IPS Free Set</v>
@@ -36582,7 +36584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines - SNOMED CT IPS Free Set</v>
@@ -36604,7 +36606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines WHO ATC - IPS</v>
@@ -36626,7 +36628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
@@ -36648,7 +36650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
@@ -36670,7 +36672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Immunization - IPS</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -36714,7 +36716,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -36736,7 +36738,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ImmunizationOriginCodes</v>
@@ -36758,7 +36760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ImmunizationOriginCodes</v>
@@ -36780,7 +36782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
@@ -36802,7 +36804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -36824,7 +36826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://standardterms.edqm.eu</v>
@@ -36846,7 +36848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
@@ -36868,7 +36870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v2.0443</v>
@@ -36890,7 +36892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationFunctionCodes</v>
@@ -36912,7 +36914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -36934,7 +36936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationReasonCodes</v>
@@ -36956,7 +36958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A33" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ImmunizationSubpotentReason</v>
@@ -36978,7 +36980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationSubpotentReason</v>
@@ -37000,7 +37002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationProgramEligibility</v>
@@ -37022,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationProgramEligibility</v>
@@ -37044,7 +37046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationFundingSource</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationFundingSource</v>
@@ -37088,7 +37090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37110,7 +37112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
@@ -37132,7 +37134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
@@ -37176,7 +37178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="2" customFormat="1">
       <c r="A34" s="2" t="str">
         <f t="shared" ref="A34:A39" si="4">CONCATENATE(C34,"/",B34)</f>
         <v>CodeSystem/</v>
@@ -37195,7 +37197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37214,7 +37216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="A36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -37233,7 +37235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37252,7 +37254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="2" customFormat="1">
       <c r="A38" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -37271,7 +37273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37292,33 +37294,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B30" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B32" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+    <hyperlink ref="B30" r:id="rId3"/>
+    <hyperlink ref="B32" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -37341,7 +37343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -37364,7 +37366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -37387,7 +37389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
@@ -37410,7 +37412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
@@ -37433,7 +37435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionVerificationStatus</v>
@@ -37455,7 +37457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionVerificationStatus</v>
@@ -37477,7 +37479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ProblemTypeUvIps</v>
@@ -37499,7 +37501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ProblemTypeUvIps</v>
@@ -37521,7 +37523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Type (LOINC)</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Type (LOINC)</v>
@@ -37565,7 +37567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
@@ -37587,7 +37589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/DiagnosisSeverity</v>
@@ -37609,7 +37611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Severity - IPS</v>
@@ -37631,7 +37633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Severity - IPS</v>
@@ -37653,7 +37655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -37675,7 +37677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -37697,7 +37699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
@@ -37719,7 +37721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
@@ -37741,7 +37743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
@@ -37763,7 +37765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
@@ -37785,7 +37787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37807,7 +37809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -37829,7 +37831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A29" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ResourceType</v>
@@ -37851,7 +37853,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ResourceType</v>
@@ -37873,7 +37875,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="2" customFormat="1">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37895,7 +37897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ ConditionStage</v>
@@ -37917,7 +37919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37939,7 +37941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ConditionStageType</v>
@@ -37961,7 +37963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="2" customFormat="1">
       <c r="A30" s="2" t="str">
         <f t="shared" ref="A30:A33" si="4">CONCATENATE(C30,"/",B30)</f>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37983,7 +37985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ManifestationAndSymptomCodes</v>
@@ -38005,7 +38007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="2" customFormat="1">
       <c r="A32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -38024,7 +38026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -38045,10 +38047,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3"/>
+    <hyperlink ref="B30" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="215">
   <si>
     <t>Artefato</t>
   </si>
@@ -538,9 +538,6 @@
     <t>ImmunizationFunctionCodes</t>
   </si>
   <si>
-    <t xml:space="preserve"> v2.0443</t>
-  </si>
-  <si>
     <t>ImmunizationReasonCodes</t>
   </si>
   <si>
@@ -692,6 +689,12 @@
   </si>
   <si>
     <t>event-status</t>
+  </si>
+  <si>
+    <t>v3.ActReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v2.0443 (v2 Provider role)</t>
   </si>
 </sst>
 </file>
@@ -26135,7 +26138,7 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6315789473684209E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
@@ -26147,7 +26150,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36842105263157898</v>
+        <v>0.37719298245614036</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
@@ -26348,7 +26351,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.40587053555319813</v>
+        <v>0.40645533087483549</v>
       </c>
     </row>
   </sheetData>
@@ -26512,7 +26515,7 @@
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26534,7 +26537,7 @@
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26732,7 +26735,7 @@
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26754,7 +26757,7 @@
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26820,7 +26823,7 @@
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26842,7 +26845,7 @@
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26908,7 +26911,7 @@
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26930,7 +26933,7 @@
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26952,7 +26955,7 @@
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26974,7 +26977,7 @@
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -34245,16 +34248,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -34278,17 +34281,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
@@ -34312,17 +34315,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H14" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -34346,17 +34349,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -34380,17 +34383,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
@@ -34414,17 +34417,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -34448,17 +34451,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
@@ -34482,31 +34485,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
@@ -34515,17 +34518,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
@@ -34549,17 +34552,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1">
@@ -34583,17 +34586,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1">
@@ -34617,7 +34620,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -34645,17 +34648,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1">
@@ -34679,31 +34682,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>186</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>187</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -34712,14 +34715,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
@@ -34782,10 +34785,10 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
@@ -34813,10 +34816,10 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1">
@@ -34844,10 +34847,10 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1">
@@ -34875,10 +34878,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1">
@@ -34906,10 +34909,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1">
@@ -35007,16 +35010,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -35025,13 +35028,13 @@
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -35040,28 +35043,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H7" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>0</v>
@@ -35070,14 +35073,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -35101,7 +35104,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
@@ -35129,7 +35132,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
@@ -35162,10 +35165,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -35174,10 +35177,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -35226,16 +35229,16 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1">
@@ -35244,13 +35247,13 @@
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
@@ -35259,17 +35262,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H2" s="10">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1">
@@ -35293,17 +35296,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H3" s="11">
         <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1">
@@ -35312,13 +35315,13 @@
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="15" t="b">
         <v>0</v>
@@ -35332,10 +35335,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -35572,16 +35575,16 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1">
@@ -35607,16 +35610,16 @@
         <v>0.5</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1">
@@ -35642,16 +35645,16 @@
         <v>0.5</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
@@ -35676,16 +35679,16 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1">
@@ -35710,16 +35713,16 @@
         <v>0.5</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
@@ -35744,16 +35747,16 @@
         <v>0.5</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1">
@@ -35778,16 +35781,16 @@
         <v>0.5</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
@@ -35812,16 +35815,16 @@
         <v>0.5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1">
@@ -35846,16 +35849,16 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
@@ -35880,16 +35883,16 @@
         <v>0.5</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="38" customFormat="1">
@@ -35914,16 +35917,16 @@
         <v>0.5</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1">
@@ -36435,7 +36438,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -36476,7 +36479,7 @@
         <v>CodeSystem/event-status</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -36519,10 +36522,10 @@
     <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ImmunizationStatusReasonCodes</v>
+        <v>CodeSystem/v3.ActReason</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -36838,14 +36841,14 @@
         <v>3</v>
       </c>
       <c r="E18" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G18" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1">
@@ -36873,10 +36876,10 @@
     <row r="20" spans="1:7" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ v2.0443</v>
+        <v>CodeSystem/ v2.0443 (v2 Provider role)</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -36942,7 +36945,7 @@
         <v>ValueSet/ImmunizationReasonCodes</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -36964,7 +36967,7 @@
         <v>CodeSystem/ImmunizationSubpotentReason</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -36986,7 +36989,7 @@
         <v>ValueSet/ImmunizationSubpotentReason</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -37008,7 +37011,7 @@
         <v>CodeSystem/ImmunizationProgramEligibility</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -37030,7 +37033,7 @@
         <v>ValueSet/ImmunizationProgramEligibility</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -37052,7 +37055,7 @@
         <v>CodeSystem/ImmunizationFundingSource</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -37074,7 +37077,7 @@
         <v>ValueSet/ImmunizationFundingSource</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -37118,7 +37121,7 @@
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -37162,7 +37165,7 @@
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -37903,7 +37906,7 @@
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -37947,7 +37950,7 @@
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -37991,7 +37994,7 @@
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="756" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="215">
   <si>
     <t>Artefato</t>
   </si>
@@ -25952,7 +25952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -26016,13 +26016,13 @@
       <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="16" t="str">
         <f t="shared" ref="C3:E16" ca="1" si="0">IFERROR(AVERAGEIFS(INDIRECT($A3 &amp; "!G:G"),INDIRECT($A3 &amp; "!C:C"), C$1),"")</f>
-        <v>0.75</v>
-      </c>
-      <c r="D3" s="16">
+        <v/>
+      </c>
+      <c r="D3" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75</v>
+        <v/>
       </c>
       <c r="E3" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26030,7 +26030,7 @@
       </c>
       <c r="F3" s="23">
         <f ca="1">AVERAGE(B3:E3)</f>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
@@ -26136,13 +26136,13 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="D8" s="6">
+        <v/>
+      </c>
+      <c r="D8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8947368421052627E-2</v>
+        <v/>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26150,7 +26150,7 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37719298245614036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1">
@@ -26160,13 +26160,13 @@
       <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375E-2</v>
-      </c>
-      <c r="D9" s="16">
+        <v/>
+      </c>
+      <c r="D9" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375E-2</v>
+        <v/>
       </c>
       <c r="E9" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26174,7 +26174,7 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1">
@@ -26208,13 +26208,13 @@
       <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="D11" s="16">
+        <v/>
+      </c>
+      <c r="D11" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v/>
       </c>
       <c r="E11" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26222,7 +26222,7 @@
       </c>
       <c r="F11" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39393939393939387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1">
@@ -26280,13 +26280,13 @@
       <c r="B14" s="24">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="D14" s="6">
+        <v/>
+      </c>
+      <c r="D14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11538461538461539</v>
+        <v/>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26294,7 +26294,7 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4102564102564103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1">
@@ -26304,13 +26304,13 @@
       <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="D15" s="16">
+        <v/>
+      </c>
+      <c r="D15" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <v/>
       </c>
       <c r="E15" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26318,7 +26318,7 @@
       </c>
       <c r="F15" s="23">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9607843137254902E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
@@ -26351,7 +26351,7 @@
       </c>
       <c r="F17" s="22">
         <f ca="1">AVERAGE(F2:F16)</f>
-        <v>0.40645533087483549</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -26379,10 +26379,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -26392,9 +26392,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -26414,10 +26415,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26435,12 +26439,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26458,12 +26462,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26481,12 +26486,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26504,12 +26509,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26526,12 +26532,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26548,12 +26554,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
@@ -26570,12 +26577,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
@@ -26592,12 +26599,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26614,12 +26622,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26636,12 +26644,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -26658,12 +26667,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -26680,12 +26689,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
@@ -26702,12 +26712,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
@@ -26724,12 +26734,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26746,12 +26757,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26768,12 +26779,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26790,12 +26802,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26812,12 +26824,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26834,12 +26847,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26856,12 +26869,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
@@ -26878,12 +26892,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
@@ -26900,12 +26914,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="14"/>
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
@@ -26922,12 +26937,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G27" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H27" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
@@ -26944,12 +26959,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="14"/>
+      <c r="H25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DoseAndRateType</v>
@@ -26966,12 +26982,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DoseAndRateType</v>
@@ -26988,7 +27004,8 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="14"/>
+      <c r="H27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -27000,10 +27017,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -27013,9 +27030,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -27035,10 +27053,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27056,12 +27077,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -27079,12 +27100,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -27102,12 +27124,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -27125,12 +27147,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
@@ -27147,12 +27170,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
@@ -27169,12 +27192,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -27191,12 +27215,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -27213,12 +27237,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
@@ -27235,12 +27260,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
@@ -27257,12 +27282,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -27279,12 +27305,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -27301,12 +27327,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
@@ -27323,12 +27350,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
@@ -27345,12 +27372,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
@@ -27367,12 +27395,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
@@ -27389,12 +27417,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27408,12 +27437,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27427,12 +27456,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27446,12 +27476,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27465,12 +27495,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27484,12 +27515,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27503,7 +27534,8 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="14"/>
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27515,10 +27547,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -27528,9 +27560,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -27550,10 +27583,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27571,12 +27607,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27594,12 +27630,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27617,12 +27654,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27640,12 +27677,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
@@ -27662,12 +27700,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27684,12 +27722,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -27706,12 +27745,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -27728,12 +27767,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -27750,12 +27790,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -27772,12 +27812,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
@@ -27794,12 +27835,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
@@ -27816,12 +27857,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTBodyStructures</v>
@@ -27838,12 +27880,12 @@
       <c r="F14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -27860,12 +27902,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationMethods</v>
@@ -27882,12 +27925,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -27904,12 +27947,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -27926,12 +27970,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
@@ -27948,12 +27992,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27970,12 +28015,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -27992,12 +28037,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINCCodes</v>
@@ -28014,12 +28060,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -28036,12 +28082,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A25" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -28058,12 +28105,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G25" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H25" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/DataAbsentReason</v>
@@ -28080,12 +28127,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14"/>
+      <c r="H25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" ref="A26:A27" si="4">CONCATENATE(C26,"/",B26)</f>
         <v>CodeSystem/</v>
@@ -28100,12 +28148,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
-        <f t="shared" ref="G26:G27" si="5">COUNTIF(E26:F26,TRUE)/COLUMNS(E26:F26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="H26" s="10">
+        <f t="shared" ref="H26:H27" si="5">COUNTIF(E26:F26,TRUE)/COLUMNS(E26:F26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -28120,7 +28168,8 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -28132,10 +28181,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -28145,9 +28194,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -28167,10 +28217,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A39" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/ CommonLanguages</v>
@@ -28188,12 +28241,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -28211,12 +28264,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -28234,12 +28288,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -28257,12 +28311,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/observation-category</v>
@@ -28279,12 +28334,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">ValueSet/observation-category </v>
@@ -28301,12 +28356,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/LOINC.ORG</v>
@@ -28323,12 +28379,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/results-laboratory-observations-uv-ips</v>
@@ -28345,12 +28401,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/resource-types</v>
@@ -28367,12 +28424,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/resource-types</v>
@@ -28389,12 +28446,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28411,12 +28469,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResultsCodedValuesLaboratoryUvIps</v>
@@ -28433,12 +28491,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28455,12 +28514,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Blood Group - SNOMED CT IPS Free Set</v>
@@ -28477,12 +28536,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/http://snomed.info/sct </v>
@@ -28499,12 +28559,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Presence Absence - SNOMED CT IPS Free Se</v>
@@ -28521,12 +28581,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28543,12 +28604,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Microorganism - SNOMED CT IPS Free Set</v>
@@ -28565,12 +28626,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DataAbsentReason</v>
@@ -28587,12 +28649,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28609,12 +28671,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.ObservationInterpretation</v>
@@ -28631,12 +28694,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -28653,12 +28716,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28675,12 +28739,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G33" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H33" si="2">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -28697,12 +28761,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14"/>
+      <c r="H25" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28719,12 +28784,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationMethods</v>
@@ -28741,12 +28806,13 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -28763,12 +28829,12 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationReferenceRangeMeaningCodes</v>
@@ -28785,12 +28851,13 @@
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="14"/>
+      <c r="H29" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -28807,12 +28874,12 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeAppliesToCodes</v>
@@ -28829,12 +28896,13 @@
       <c r="F31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="14"/>
+      <c r="H31" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -28851,12 +28919,12 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -28873,12 +28941,13 @@
       <c r="F33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="14"/>
+      <c r="H33" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org OU ObservationCodes</v>
@@ -28895,12 +28964,12 @@
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" ref="G34:G39" si="3">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H39" si="3">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ LOINCCodes OU http://loinc.org</v>
@@ -28917,12 +28986,13 @@
       <c r="F35" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="14"/>
+      <c r="H35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -28939,12 +29009,12 @@
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -28961,12 +29031,13 @@
       <c r="F37" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="14"/>
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3.ObservationInterpretation</v>
@@ -28983,12 +29054,12 @@
       <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationInterpretationCodes</v>
@@ -29005,7 +29076,8 @@
       <c r="F39" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="14"/>
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29027,10 +29099,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -29040,9 +29112,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -29062,10 +29135,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -29083,12 +29159,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -29106,12 +29182,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SpecimenStatus</v>
@@ -29129,12 +29206,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenStatus</v>
@@ -29152,12 +29229,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29174,12 +29252,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResultsSpecimenTypeUvIps</v>
@@ -29196,12 +29274,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29218,12 +29297,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Results Specimen Type - SNOMED CT IPS Free Set</v>
@@ -29240,12 +29319,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -29262,12 +29342,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -29284,12 +29364,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29306,12 +29387,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/FHIRSpecimenCollectionMethod</v>
@@ -29328,12 +29409,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29350,12 +29432,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BodySiteUvIps</v>
@@ -29372,12 +29454,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">CodeSystem/v2-0916 </v>
@@ -29394,12 +29477,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Hl7VSRelevantClincialInformation</v>
@@ -29416,12 +29499,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v2.0373</v>
@@ -29438,12 +29522,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenProcessingProcedure</v>
@@ -29460,12 +29544,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -29482,12 +29567,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SpecimenContainerType</v>
@@ -29504,12 +29589,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ Hl7VSAdditivePreservative ou v2-0371</v>
@@ -29526,12 +29612,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ Hl7VSAdditivePreservative</v>
@@ -29548,12 +29634,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A27" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/specimenCondition ou v2-0493</v>
@@ -29570,12 +29657,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G27" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H27" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/Hl7VSSpecimenCondition</v>
@@ -29592,12 +29679,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14"/>
+      <c r="H25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/</v>
@@ -29611,12 +29699,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/</v>
@@ -29630,7 +29718,8 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -29650,10 +29739,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -29663,9 +29752,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -29685,10 +29775,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -29706,12 +29799,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -29729,12 +29822,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionStatus</v>
@@ -29752,12 +29846,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CompositionStatus</v>
@@ -29775,12 +29869,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -29797,12 +29892,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentClassValueSet</v>
@@ -29819,12 +29914,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -29841,12 +29937,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -29863,12 +29959,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.Confidentiality</v>
@@ -29885,12 +29982,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3.ConfidentialityClassification</v>
@@ -29907,12 +30004,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionAttestationMode</v>
@@ -29929,12 +30027,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CompositionAttestationMode</v>
@@ -29951,12 +30049,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DocumentRelationshipType</v>
@@ -29973,12 +30072,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentRelationshipType</v>
@@ -29995,12 +30094,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActCode</v>
@@ -30017,12 +30117,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3-ActCode</v>
@@ -30039,12 +30139,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActClass</v>
@@ -30061,12 +30162,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ 112 ValueSet</v>
@@ -30083,12 +30184,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -30105,12 +30207,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentSectionCodes</v>
@@ -30127,12 +30229,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ListMode</v>
@@ -30150,12 +30253,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ListMode</v>
@@ -30173,12 +30276,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A39" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30196,12 +30300,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G39" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H39" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30219,12 +30323,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="14"/>
+      <c r="H25" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30242,12 +30347,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30265,12 +30370,13 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30287,12 +30393,12 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30309,12 +30415,13 @@
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="14"/>
+      <c r="H29" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30331,12 +30438,12 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30353,12 +30460,13 @@
       <c r="F31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="14"/>
+      <c r="H31" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30375,12 +30483,12 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30397,12 +30505,13 @@
       <c r="F33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="14"/>
+      <c r="H33" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30419,12 +30528,12 @@
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30441,12 +30550,13 @@
       <c r="F35" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="14"/>
+      <c r="H35" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30463,12 +30573,12 @@
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30485,12 +30595,13 @@
       <c r="F37" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="14"/>
+      <c r="H37" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -30507,12 +30618,12 @@
       <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -30529,12 +30640,13 @@
       <c r="F39" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="14"/>
+      <c r="H39" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1">
+    <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" ref="A40:A59" si="4">CONCATENATE(C40,"/",B40)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30551,12 +30663,12 @@
       <c r="F40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="10">
-        <f t="shared" ref="G40:G59" si="5">COUNTIF(E40:F40,TRUE)/COLUMNS(E40:F40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="3" customFormat="1">
+      <c r="H40" s="10">
+        <f t="shared" ref="H40:H59" si="5">COUNTIF(E40:F40,TRUE)/COLUMNS(E40:F40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30573,12 +30685,13 @@
       <c r="F41" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="14"/>
+      <c r="H41" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1">
+    <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30595,12 +30708,12 @@
       <c r="F42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1">
+    <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30617,12 +30730,13 @@
       <c r="F43" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="14"/>
+      <c r="H43" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1">
+    <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30639,12 +30753,12 @@
       <c r="F44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1">
+    <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30661,12 +30775,13 @@
       <c r="F45" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="14"/>
+      <c r="H45" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1">
+    <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30683,12 +30798,12 @@
       <c r="F46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1">
+    <row r="47" spans="1:8" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30705,12 +30820,13 @@
       <c r="F47" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="14"/>
+      <c r="H47" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1">
+    <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30727,12 +30843,12 @@
       <c r="F48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1">
+    <row r="49" spans="1:8" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30749,12 +30865,13 @@
       <c r="F49" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="14"/>
+      <c r="H49" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1">
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30771,12 +30888,12 @@
       <c r="F50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1">
+    <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30793,12 +30910,13 @@
       <c r="F51" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="14"/>
+      <c r="H51" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1">
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30815,12 +30933,12 @@
       <c r="F52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="10">
+      <c r="H52" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1">
+    <row r="53" spans="1:8" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30837,12 +30955,13 @@
       <c r="F53" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="14"/>
+      <c r="H53" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="2" customFormat="1">
+    <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30859,12 +30978,12 @@
       <c r="F54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1">
+    <row r="55" spans="1:8" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -30881,12 +31000,13 @@
       <c r="F55" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="14"/>
+      <c r="H55" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1">
+    <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -30903,12 +31023,12 @@
       <c r="F56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G56" s="10">
+      <c r="H56" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1">
+    <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -30925,12 +31045,13 @@
       <c r="F57" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="14"/>
+      <c r="H57" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1">
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -30947,12 +31068,12 @@
       <c r="F58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1">
+    <row r="59" spans="1:8" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -30969,12 +31090,13 @@
       <c r="F59" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="14"/>
+      <c r="H59" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1">
+    <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" ref="A60:A65" si="6">CONCATENATE(C60,"/",B60)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -30991,12 +31113,12 @@
       <c r="F60" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G60" s="10">
-        <f t="shared" ref="G60:G65" si="7">COUNTIF(E60:F60,TRUE)/COLUMNS(E60:F60)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="3" customFormat="1">
+      <c r="H60" s="10">
+        <f t="shared" ref="H60:H65" si="7">COUNTIF(E60:F60,TRUE)/COLUMNS(E60:F60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31013,12 +31135,13 @@
       <c r="F61" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="14"/>
+      <c r="H61" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1">
+    <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListMode</v>
@@ -31035,12 +31158,12 @@
       <c r="F62" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G62" s="10">
+      <c r="H62" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListMode</v>
@@ -31057,12 +31180,13 @@
       <c r="F63" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="14"/>
+      <c r="H63" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1">
+    <row r="64" spans="1:8" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31079,12 +31203,12 @@
       <c r="F64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1">
+    <row r="65" spans="1:8" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31101,12 +31225,13 @@
       <c r="F65" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="14"/>
+      <c r="H65" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1">
+    <row r="66" spans="1:8" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" ref="A66:A97" si="8">CONCATENATE(C66,"/",B66)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31123,12 +31248,12 @@
       <c r="F66" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="10">
-        <f t="shared" ref="G66:G97" si="9">COUNTIF(E66:F66,TRUE)/COLUMNS(E66:F66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="3" customFormat="1">
+      <c r="H66" s="10">
+        <f t="shared" ref="H66:H97" si="9">COUNTIF(E66:F66,TRUE)/COLUMNS(E66:F66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31145,12 +31270,13 @@
       <c r="F67" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="14"/>
+      <c r="H67" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1">
+    <row r="68" spans="1:8" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31167,12 +31293,12 @@
       <c r="F68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1">
+    <row r="69" spans="1:8" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31189,12 +31315,13 @@
       <c r="F69" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="14"/>
+      <c r="H69" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1">
+    <row r="70" spans="1:8" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31211,12 +31338,12 @@
       <c r="F70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1">
+    <row r="71" spans="1:8" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31233,12 +31360,13 @@
       <c r="F71" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="14"/>
+      <c r="H71" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1">
+    <row r="72" spans="1:8" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31255,12 +31383,12 @@
       <c r="F72" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="10">
+      <c r="H72" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1">
+    <row r="73" spans="1:8" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31277,12 +31405,13 @@
       <c r="F73" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="14"/>
+      <c r="H73" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1">
+    <row r="74" spans="1:8" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31299,12 +31428,12 @@
       <c r="F74" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G74" s="10">
+      <c r="H74" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1">
+    <row r="75" spans="1:8" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31321,12 +31450,13 @@
       <c r="F75" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="14"/>
+      <c r="H75" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1">
+    <row r="76" spans="1:8" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31343,12 +31473,12 @@
       <c r="F76" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="10">
+      <c r="H76" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1">
+    <row r="77" spans="1:8" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31365,12 +31495,13 @@
       <c r="F77" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G77" s="14"/>
+      <c r="H77" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="2" customFormat="1">
+    <row r="78" spans="1:8" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31387,12 +31518,12 @@
       <c r="F78" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="10">
+      <c r="H78" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1">
+    <row r="79" spans="1:8" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31409,12 +31540,13 @@
       <c r="F79" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G79" s="14"/>
+      <c r="H79" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1">
+    <row r="80" spans="1:8" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31431,12 +31563,12 @@
       <c r="F80" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="10">
+      <c r="H80" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1">
+    <row r="81" spans="1:8" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31453,12 +31585,13 @@
       <c r="F81" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="14"/>
+      <c r="H81" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1">
+    <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31475,12 +31608,12 @@
       <c r="F82" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G82" s="10">
+      <c r="H82" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1">
+    <row r="83" spans="1:8" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31497,12 +31630,13 @@
       <c r="F83" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="14"/>
+      <c r="H83" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1">
+    <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31519,12 +31653,12 @@
       <c r="F84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G84" s="10">
+      <c r="H84" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1">
+    <row r="85" spans="1:8" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31541,12 +31675,13 @@
       <c r="F85" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="14"/>
+      <c r="H85" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1">
+    <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31563,12 +31698,12 @@
       <c r="F86" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="10">
+      <c r="H86" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1">
+    <row r="87" spans="1:8" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31585,12 +31720,13 @@
       <c r="F87" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="14"/>
+      <c r="H87" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1">
+    <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31607,12 +31743,12 @@
       <c r="F88" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G88" s="10">
+      <c r="H88" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1">
+    <row r="89" spans="1:8" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31629,12 +31765,13 @@
       <c r="F89" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="14"/>
+      <c r="H89" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1">
+    <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31651,12 +31788,12 @@
       <c r="F90" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G90" s="10">
+      <c r="H90" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1">
+    <row r="91" spans="1:8" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31673,12 +31810,13 @@
       <c r="F91" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="14"/>
+      <c r="H91" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1">
+    <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -31695,12 +31833,12 @@
       <c r="F92" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G92" s="10">
+      <c r="H92" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1">
+    <row r="93" spans="1:8" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -31717,12 +31855,13 @@
       <c r="F93" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="14"/>
+      <c r="H93" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1">
+    <row r="94" spans="1:8" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31739,12 +31878,12 @@
       <c r="F94" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G94" s="10">
+      <c r="H94" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1">
+    <row r="95" spans="1:8" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31761,12 +31900,13 @@
       <c r="F95" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="14"/>
+      <c r="H95" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1">
+    <row r="96" spans="1:8" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31783,12 +31923,12 @@
       <c r="F96" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G96" s="10">
+      <c r="H96" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1">
+    <row r="97" spans="1:8" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31805,12 +31945,13 @@
       <c r="F97" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="14"/>
+      <c r="H97" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1">
+    <row r="98" spans="1:8" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A103" si="10">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/ListMode</v>
@@ -31827,12 +31968,12 @@
       <c r="F98" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G98" s="10">
-        <f t="shared" ref="G98:G103" si="11">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1">
+      <c r="H98" s="10">
+        <f t="shared" ref="H98:H103" si="11">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListMode</v>
@@ -31849,12 +31990,13 @@
       <c r="F99" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="14"/>
+      <c r="H99" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1">
+    <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -31871,12 +32013,12 @@
       <c r="F100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="10">
+      <c r="H100" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="3" customFormat="1">
+    <row r="101" spans="1:8" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -31893,12 +32035,13 @@
       <c r="F101" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="14"/>
+      <c r="H101" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1">
+    <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -31915,12 +32058,12 @@
       <c r="F102" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G102" s="10">
+      <c r="H102" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="3" customFormat="1">
+    <row r="103" spans="1:8" s="3" customFormat="1">
       <c r="A103" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -31937,7 +32080,8 @@
       <c r="F103" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="14"/>
+      <c r="H103" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -31955,10 +32099,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -31969,7 +32113,7 @@
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -31989,10 +32133,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32010,12 +32157,12 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32033,12 +32180,13 @@
       <c r="F3" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32056,12 +32204,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32079,12 +32227,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32101,12 +32250,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32123,12 +32272,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32145,12 +32295,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32167,12 +32317,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32189,12 +32340,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32211,12 +32362,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32233,12 +32385,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32255,12 +32407,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32277,12 +32430,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32299,12 +32452,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32321,12 +32475,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32343,12 +32497,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32365,12 +32520,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32387,12 +32542,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32409,12 +32565,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32431,12 +32587,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32453,12 +32610,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32475,12 +32632,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A51" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -32498,12 +32656,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f>COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32521,12 +32679,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
-        <f t="shared" ref="G25:G51" si="3">COUNTIF(E25:F25,TRUE)/COLUMNS(E25:F25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="G25" s="14"/>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:H51" si="3">COUNTIF(E25:F25,TRUE)/COLUMNS(E25:F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32544,12 +32703,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32567,12 +32726,13 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="14"/>
+      <c r="H27" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32589,12 +32749,12 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32611,12 +32771,13 @@
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="14"/>
+      <c r="H29" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32633,12 +32794,12 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32655,12 +32816,13 @@
       <c r="F31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="14"/>
+      <c r="H31" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32677,12 +32839,12 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32699,12 +32861,13 @@
       <c r="F33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="14"/>
+      <c r="H33" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32721,12 +32884,12 @@
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
+      <c r="H34" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32743,12 +32906,13 @@
       <c r="F35" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="14"/>
+      <c r="H35" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32765,12 +32929,12 @@
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32787,12 +32951,13 @@
       <c r="F37" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="14"/>
+      <c r="H37" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32809,12 +32974,12 @@
       <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32831,12 +32996,13 @@
       <c r="F39" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="14"/>
+      <c r="H39" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="2" customFormat="1">
+    <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32853,12 +33019,12 @@
       <c r="F40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G40" s="10">
+      <c r="H40" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1">
+    <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32875,12 +33041,13 @@
       <c r="F41" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="14"/>
+      <c r="H41" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="2" customFormat="1">
+    <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32897,12 +33064,12 @@
       <c r="F42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G42" s="10">
+      <c r="H42" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1">
+    <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32919,12 +33086,13 @@
       <c r="F43" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="14"/>
+      <c r="H43" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="2" customFormat="1">
+    <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32941,12 +33109,12 @@
       <c r="F44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G44" s="10">
+      <c r="H44" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1">
+    <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32963,12 +33131,13 @@
       <c r="F45" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="14"/>
+      <c r="H45" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="2" customFormat="1">
+    <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32985,12 +33154,12 @@
       <c r="F46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G46" s="10">
+      <c r="H46" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1">
+    <row r="47" spans="1:8" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33007,12 +33176,13 @@
       <c r="F47" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="14"/>
+      <c r="H47" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="2" customFormat="1">
+    <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33029,12 +33199,12 @@
       <c r="F48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G48" s="10">
+      <c r="H48" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1">
+    <row r="49" spans="1:8" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33051,12 +33221,13 @@
       <c r="F49" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="14"/>
+      <c r="H49" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="2" customFormat="1">
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33073,12 +33244,12 @@
       <c r="F50" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G50" s="10">
+      <c r="H50" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1">
+    <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33095,12 +33266,13 @@
       <c r="F51" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="14"/>
+      <c r="H51" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="2" customFormat="1">
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" ref="A52:A75" si="4">CONCATENATE(C52,"/",B52)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -33118,12 +33290,12 @@
       <c r="F52" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G52" s="6">
+      <c r="H52" s="6">
         <f>COUNTIF(E52:F52,TRUE)/COLUMNS(E52:F52)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1">
+    <row r="53" spans="1:8" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33141,12 +33313,13 @@
       <c r="F53" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G53" s="7">
-        <f t="shared" ref="G53:G75" si="5">COUNTIF(E53:F53,TRUE)/COLUMNS(E53:F53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="2" customFormat="1">
+      <c r="G53" s="14"/>
+      <c r="H53" s="7">
+        <f t="shared" ref="H53:H75" si="5">COUNTIF(E53:F53,TRUE)/COLUMNS(E53:F53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33164,12 +33337,12 @@
       <c r="F54" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G54" s="10">
+      <c r="H54" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1">
+    <row r="55" spans="1:8" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33187,12 +33360,13 @@
       <c r="F55" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="14"/>
+      <c r="H55" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="2" customFormat="1">
+    <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33209,12 +33383,12 @@
       <c r="F56" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G56" s="6">
+      <c r="H56" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1">
+    <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33231,12 +33405,13 @@
       <c r="F57" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="14"/>
+      <c r="H57" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1">
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33253,12 +33428,12 @@
       <c r="F58" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G58" s="10">
+      <c r="H58" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1">
+    <row r="59" spans="1:8" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33275,12 +33450,13 @@
       <c r="F59" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="14"/>
+      <c r="H59" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1">
+    <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33297,12 +33473,12 @@
       <c r="F60" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G60" s="10">
+      <c r="H60" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1">
+    <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33319,12 +33495,13 @@
       <c r="F61" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="14"/>
+      <c r="H61" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1">
+    <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33341,12 +33518,12 @@
       <c r="F62" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G62" s="10">
+      <c r="H62" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33363,12 +33540,13 @@
       <c r="F63" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="14"/>
+      <c r="H63" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1">
+    <row r="64" spans="1:8" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33385,12 +33563,12 @@
       <c r="F64" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G64" s="10">
+      <c r="H64" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1">
+    <row r="65" spans="1:8" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33407,12 +33585,13 @@
       <c r="F65" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="14"/>
+      <c r="H65" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1">
+    <row r="66" spans="1:8" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33429,12 +33608,12 @@
       <c r="F66" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G66" s="10">
+      <c r="H66" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1">
+    <row r="67" spans="1:8" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33451,12 +33630,13 @@
       <c r="F67" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="14"/>
+      <c r="H67" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1">
+    <row r="68" spans="1:8" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33473,12 +33653,12 @@
       <c r="F68" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G68" s="10">
+      <c r="H68" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1">
+    <row r="69" spans="1:8" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33495,12 +33675,13 @@
       <c r="F69" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="14"/>
+      <c r="H69" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1">
+    <row r="70" spans="1:8" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33517,12 +33698,12 @@
       <c r="F70" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G70" s="10">
+      <c r="H70" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1">
+    <row r="71" spans="1:8" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33539,12 +33720,13 @@
       <c r="F71" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="14"/>
+      <c r="H71" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1">
+    <row r="72" spans="1:8" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33561,12 +33743,12 @@
       <c r="F72" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G72" s="10">
+      <c r="H72" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1">
+    <row r="73" spans="1:8" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33583,12 +33765,13 @@
       <c r="F73" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="14"/>
+      <c r="H73" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="2" customFormat="1">
+    <row r="74" spans="1:8" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33605,12 +33788,12 @@
       <c r="F74" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G74" s="10">
+      <c r="H74" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1">
+    <row r="75" spans="1:8" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33627,12 +33810,13 @@
       <c r="F75" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="14"/>
+      <c r="H75" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="2" customFormat="1">
+    <row r="76" spans="1:8" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" ref="A76:A97" si="6">CONCATENATE(C76,"/",B76)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -33650,12 +33834,12 @@
       <c r="F76" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G76" s="6">
+      <c r="H76" s="6">
         <f>COUNTIF(E76:F76,TRUE)/COLUMNS(E76:F76)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1">
+    <row r="77" spans="1:8" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33673,12 +33857,13 @@
       <c r="F77" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G77" s="7">
-        <f t="shared" ref="G77:G97" si="7">COUNTIF(E77:F77,TRUE)/COLUMNS(E77:F77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="2" customFormat="1">
+      <c r="G77" s="14"/>
+      <c r="H77" s="7">
+        <f t="shared" ref="H77:H97" si="7">COUNTIF(E77:F77,TRUE)/COLUMNS(E77:F77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33696,12 +33881,12 @@
       <c r="F78" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G78" s="10">
+      <c r="H78" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="3" customFormat="1">
+    <row r="79" spans="1:8" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33719,12 +33904,13 @@
       <c r="F79" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="14"/>
+      <c r="H79" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1">
+    <row r="80" spans="1:8" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33741,12 +33927,12 @@
       <c r="F80" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G80" s="6">
+      <c r="H80" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="3" customFormat="1">
+    <row r="81" spans="1:8" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33763,12 +33949,13 @@
       <c r="F81" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="14"/>
+      <c r="H81" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1">
+    <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33785,12 +33972,12 @@
       <c r="F82" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G82" s="10">
+      <c r="H82" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="3" customFormat="1">
+    <row r="83" spans="1:8" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33807,12 +33994,13 @@
       <c r="F83" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="14"/>
+      <c r="H83" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1">
+    <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33829,12 +34017,12 @@
       <c r="F84" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G84" s="10">
+      <c r="H84" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1">
+    <row r="85" spans="1:8" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33851,12 +34039,13 @@
       <c r="F85" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="14"/>
+      <c r="H85" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="2" customFormat="1">
+    <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33873,12 +34062,12 @@
       <c r="F86" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G86" s="10">
+      <c r="H86" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="3" customFormat="1">
+    <row r="87" spans="1:8" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33895,12 +34084,13 @@
       <c r="F87" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="14"/>
+      <c r="H87" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="2" customFormat="1">
+    <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -33917,12 +34107,12 @@
       <c r="F88" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G88" s="10">
+      <c r="H88" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="3" customFormat="1">
+    <row r="89" spans="1:8" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -33939,12 +34129,13 @@
       <c r="F89" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="14"/>
+      <c r="H89" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="2" customFormat="1">
+    <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -33961,12 +34152,12 @@
       <c r="F90" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G90" s="10">
+      <c r="H90" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="3" customFormat="1">
+    <row r="91" spans="1:8" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -33983,12 +34174,13 @@
       <c r="F91" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="14"/>
+      <c r="H91" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="2" customFormat="1">
+    <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -34005,12 +34197,12 @@
       <c r="F92" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G92" s="10">
+      <c r="H92" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="3" customFormat="1">
+    <row r="93" spans="1:8" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34027,12 +34219,13 @@
       <c r="F93" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="14"/>
+      <c r="H93" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="2" customFormat="1">
+    <row r="94" spans="1:8" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -34049,12 +34242,12 @@
       <c r="F94" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G94" s="10">
+      <c r="H94" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="3" customFormat="1">
+    <row r="95" spans="1:8" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -34071,12 +34264,13 @@
       <c r="F95" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="14"/>
+      <c r="H95" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="2" customFormat="1">
+    <row r="96" spans="1:8" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -34093,12 +34287,12 @@
       <c r="F96" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G96" s="10">
+      <c r="H96" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="3" customFormat="1">
+    <row r="97" spans="1:8" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34115,12 +34309,13 @@
       <c r="F97" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="14"/>
+      <c r="H97" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1">
+    <row r="98" spans="1:8" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A101" si="8">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -34137,12 +34332,12 @@
       <c r="F98" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G98" s="10">
-        <f t="shared" ref="G98:G101" si="9">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="3" customFormat="1">
+      <c r="H98" s="10">
+        <f t="shared" ref="H98:H101" si="9">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/HTTPVerb</v>
@@ -34159,12 +34354,13 @@
       <c r="F99" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="14"/>
+      <c r="H99" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1">
+    <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/</v>
@@ -34179,12 +34375,12 @@
       <c r="F100" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G100" s="10">
+      <c r="H100" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="3" customFormat="1">
+    <row r="101" spans="1:8" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/</v>
@@ -34199,7 +34395,8 @@
       <c r="F101" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="14"/>
+      <c r="H101" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -34213,7 +34410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -34747,10 +34944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -34760,9 +34957,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -34782,16 +34980,19 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -34811,18 +35012,21 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -34842,18 +35046,21 @@
       <c r="F3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -34873,18 +35080,21 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -34904,67 +35114,70 @@
       <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="2" customFormat="1">
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1">
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1">
+    <row r="6" spans="1:10" s="2" customFormat="1">
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1">
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1">
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1">
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1">
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1">
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1">
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="7:7" s="3" customFormat="1">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="7:7" s="2" customFormat="1">
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="7:7" s="3" customFormat="1">
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="7:7" s="2" customFormat="1">
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="7:7" s="3" customFormat="1">
-      <c r="G21" s="7"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="2" customFormat="1">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="8:8" s="3" customFormat="1">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="8:8" s="2" customFormat="1">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8" s="3" customFormat="1">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="8:8" s="2" customFormat="1">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8" s="3" customFormat="1">
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35195,7 +35408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -35539,7 +35752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -36435,10 +36648,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -36448,9 +36661,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -36470,10 +36684,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/event-status</v>
@@ -36491,12 +36708,12 @@
       <c r="F2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A23" si="0">CONCATENATE(C3,"/",B3)</f>
         <v>ValueSet/ImmunizationStatusCodes</v>
@@ -36514,12 +36731,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3.ActReason</v>
@@ -36537,12 +36755,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationStatusReasonCodes</v>
@@ -36560,12 +36778,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines - SNOMED CT IPS Free Set</v>
@@ -36582,12 +36801,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines - SNOMED CT IPS Free Set</v>
@@ -36604,12 +36823,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines WHO ATC - IPS</v>
@@ -36626,12 +36846,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
@@ -36648,12 +36868,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
@@ -36670,12 +36891,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Immunization - IPS</v>
@@ -36692,12 +36913,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -36714,12 +36936,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -36736,12 +36958,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ImmunizationOriginCodes</v>
@@ -36758,12 +36981,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ImmunizationOriginCodes</v>
@@ -36780,12 +37003,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
@@ -36802,12 +37026,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -36824,12 +37048,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://standardterms.edqm.eu</v>
@@ -36846,12 +37071,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
@@ -36868,12 +37093,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v2.0443 (v2 Provider role)</v>
@@ -36890,12 +37116,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationFunctionCodes</v>
@@ -36912,12 +37138,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -36934,12 +37161,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationReasonCodes</v>
@@ -36956,12 +37183,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="14"/>
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A33" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ImmunizationSubpotentReason</v>
@@ -36978,12 +37206,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G33" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H33" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationSubpotentReason</v>
@@ -37000,12 +37228,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="14"/>
+      <c r="H25" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationProgramEligibility</v>
@@ -37022,12 +37251,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationProgramEligibility</v>
@@ -37044,12 +37273,13 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="14"/>
+      <c r="H27" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationFundingSource</v>
@@ -37066,12 +37296,12 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationFundingSource</v>
@@ -37088,12 +37318,13 @@
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="14"/>
+      <c r="H29" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37110,12 +37341,12 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
@@ -37132,12 +37363,13 @@
       <c r="F31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="14"/>
+      <c r="H31" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37154,12 +37386,12 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
@@ -37176,12 +37408,13 @@
       <c r="F33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="14"/>
+      <c r="H33" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="2" t="str">
         <f t="shared" ref="A34:A39" si="4">CONCATENATE(C34,"/",B34)</f>
         <v>CodeSystem/</v>
@@ -37195,12 +37428,12 @@
       <c r="F34" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
-        <f t="shared" ref="G34:G39" si="5">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1">
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H39" si="5">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37214,12 +37447,13 @@
       <c r="F35" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="14"/>
+      <c r="H35" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -37233,12 +37467,12 @@
       <c r="F36" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G36" s="10">
+      <c r="H36" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37252,12 +37486,13 @@
       <c r="F37" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="14"/>
+      <c r="H37" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -37271,12 +37506,12 @@
       <c r="F38" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G38" s="10">
+      <c r="H38" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -37290,7 +37525,8 @@
       <c r="F39" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="14"/>
+      <c r="H39" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -37308,10 +37544,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -37321,9 +37557,10 @@
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -37343,10 +37580,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -37364,12 +37604,12 @@
       <c r="F2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -37387,12 +37627,13 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
@@ -37410,12 +37651,12 @@
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
@@ -37433,12 +37674,13 @@
       <c r="F5" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14"/>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionVerificationStatus</v>
@@ -37455,12 +37697,12 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionVerificationStatus</v>
@@ -37477,12 +37719,13 @@
       <c r="F7" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14"/>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ProblemTypeUvIps</v>
@@ -37499,12 +37742,12 @@
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ProblemTypeUvIps</v>
@@ -37521,12 +37764,13 @@
       <c r="F9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14"/>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Type (LOINC)</v>
@@ -37543,12 +37787,12 @@
       <c r="F10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Type (LOINC)</v>
@@ -37565,12 +37809,13 @@
       <c r="F11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
@@ -37587,12 +37832,12 @@
       <c r="F12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/DiagnosisSeverity</v>
@@ -37609,12 +37854,13 @@
       <c r="F13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Severity - IPS</v>
@@ -37631,12 +37877,12 @@
       <c r="F14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Severity - IPS</v>
@@ -37653,12 +37899,13 @@
       <c r="F15" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -37675,12 +37922,12 @@
       <c r="F16" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -37697,12 +37944,13 @@
       <c r="F17" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
@@ -37719,12 +37967,12 @@
       <c r="F18" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
@@ -37741,12 +37989,13 @@
       <c r="F19" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
@@ -37763,12 +38012,12 @@
       <c r="F20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
@@ -37785,12 +38034,13 @@
       <c r="F21" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37807,12 +38057,12 @@
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -37829,12 +38079,13 @@
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="14"/>
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A29" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ResourceType</v>
@@ -37851,12 +38102,12 @@
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" ref="G24:G29" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H29" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ResourceType</v>
@@ -37873,12 +38124,13 @@
       <c r="F25" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="14"/>
+      <c r="H25" s="7">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37895,12 +38147,12 @@
       <c r="F26" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ ConditionStage</v>
@@ -37917,12 +38169,13 @@
       <c r="F27" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="14"/>
+      <c r="H27" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37939,12 +38192,12 @@
       <c r="F28" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ConditionStageType</v>
@@ -37961,12 +38214,13 @@
       <c r="F29" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="14"/>
+      <c r="H29" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="2" t="str">
         <f t="shared" ref="A30:A33" si="4">CONCATENATE(C30,"/",B30)</f>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -37983,12 +38237,12 @@
       <c r="F30" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G30" s="10">
-        <f t="shared" ref="G30:G33" si="5">COUNTIF(E30:F30,TRUE)/COLUMNS(E30:F30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1">
+      <c r="H30" s="10">
+        <f t="shared" ref="H30:H33" si="5">COUNTIF(E30:F30,TRUE)/COLUMNS(E30:F30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ManifestationAndSymptomCodes</v>
@@ -38005,12 +38259,13 @@
       <c r="F31" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="14"/>
+      <c r="H31" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -38024,12 +38279,12 @@
       <c r="F32" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="G32" s="10">
+      <c r="H32" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -38043,7 +38298,8 @@
       <c r="F33" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="14"/>
+      <c r="H33" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1E7F50-EDBA-4D7C-8DB6-26C83D1EC682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DBA57-2D1B-4C80-9F9A-78A08DE31913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -28,28 +28,17 @@
     <sheet name="Composition" sheetId="11" r:id="rId13"/>
     <sheet name="Bundle" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="163">
   <si>
     <t>Artefato</t>
   </si>
@@ -321,12 +310,6 @@
     <t>CompositionStatus</t>
   </si>
   <si>
-    <t>DocumentClassValueSet</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
     <t>v3.ConfidentialityClassification</t>
   </si>
   <si>
@@ -339,15 +322,6 @@
     <t>DocumentRelationshipType</t>
   </si>
   <si>
-    <t>v3-ActClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 112 ValueSet</t>
-  </si>
-  <si>
-    <t>DocumentSectionCodes</t>
-  </si>
-  <si>
     <t>ListMode</t>
   </si>
   <si>
@@ -355,9 +329,6 @@
   </si>
   <si>
     <t>ListEmptyReasons</t>
-  </si>
-  <si>
-    <t>v3-ActCode</t>
   </si>
   <si>
     <t>HTTPVerb</t>
@@ -25801,17 +25772,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -25932,7 +25903,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -25998,7 +25969,7 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B9" s="23">
         <v>1</v>
@@ -26040,7 +26011,7 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -26068,11 +26039,11 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26080,12 +26051,12 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9607843137254902E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -26113,7 +26084,7 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">AVERAGE(F2:F13)</f>
-        <v>0.50432136817908224</v>
+        <v>0.50268738125097767</v>
       </c>
     </row>
   </sheetData>
@@ -26145,14 +26116,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -26175,7 +26146,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26281,7 +26252,7 @@
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26303,7 +26274,7 @@
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26506,7 +26477,7 @@
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26528,7 +26499,7 @@
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26596,7 +26567,7 @@
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26618,7 +26589,7 @@
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26641,7 +26612,7 @@
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26663,7 +26634,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26686,7 +26657,7 @@
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26708,7 +26679,7 @@
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26731,7 +26702,7 @@
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26753,7 +26724,7 @@
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26783,14 +26754,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -26813,7 +26784,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27313,14 +27284,14 @@
       <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -27343,7 +27314,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27630,20 +27601,20 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -27666,7 +27637,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27674,63 +27645,62 @@
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
-        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/urn:ietf:bcp:47</v>
+        <f t="shared" ref="A2:A11" si="0">CONCATENATE(C2,"/",B2)</f>
+        <v>CodeSystem/CompositionStatus</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H11" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/CommonLanguages</v>
+        <v>ValueSet/ CompositionStatus</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/CompositionStatus</v>
+        <v>CodeSystem/ v3.Confidentiality</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
@@ -27745,15 +27715,14 @@
     <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ CompositionStatus</v>
+        <v>ValueSet/v3.ConfidentialityClassification</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="14" t="b">
         <v>0</v>
       </c>
@@ -27769,12 +27738,12 @@
     <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/http://loinc.org</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>CodeSystem/CompositionAttestationMode</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="b">
@@ -27783,7 +27752,7 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -27791,12 +27760,12 @@
     <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/DocumentClassValueSet</v>
+        <v>ValueSet/CompositionAttestationMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="14" t="b">
@@ -27814,38 +27783,38 @@
     <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ResourceType</v>
+        <v>CodeSystem/DocumentRelationshipType</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ResourceType</v>
+        <v>ValueSet/DocumentRelationshipType</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14" t="b">
         <v>0</v>
@@ -27853,20 +27822,21 @@
       <c r="G9" s="14"/>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ v3.Confidentiality</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="5"/>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
@@ -27881,14 +27851,15 @@
     <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/v3.ConfidentialityClassification</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="14" t="b">
         <v>0</v>
       </c>
@@ -27896,22 +27867,23 @@
         <v>0</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="7">
+      <c r="H11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/CompositionAttestationMode</v>
+        <f t="shared" ref="A12:A25" si="2">CONCATENATE(C12,"/",B12)</f>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
@@ -27919,21 +27891,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H12:H25" si="3">COUNTIF(E12:F12,TRUE)/COLUMNS(E12:F12)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/CompositionAttestationMode</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="14" t="b">
         <v>0</v>
       </c>
@@ -27941,22 +27914,23 @@
         <v>0</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/DocumentRelationshipType</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
@@ -27964,21 +27938,22 @@
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/DocumentRelationshipType</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>4</v>
       </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="14" t="b">
         <v>0</v>
       </c>
@@ -27986,20 +27961,20 @@
         <v>0</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="7">
-        <f t="shared" si="1"/>
+      <c r="H15" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/v3-ActCode</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="2" t="b">
@@ -28009,19 +27984,19 @@
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/v3-ActCode</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="14" t="b">
@@ -28031,18 +28006,18 @@
         <v>0</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="7">
-        <f t="shared" si="1"/>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/v3-ActClass</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -28054,17 +28029,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ 112 ValueSet</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>97</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -28076,18 +28051,18 @@
         <v>0</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="7">
-        <f t="shared" si="1"/>
+      <c r="H19" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/http://loinc.org</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>91</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -28099,19 +28074,19 @@
         <v>0</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/DocumentSectionCodes</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="14" t="b">
@@ -28121,23 +28096,22 @@
         <v>0</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="7">
-        <f t="shared" si="1"/>
+      <c r="H21" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5"/>
       <c r="E22" s="2" t="b">
         <v>0</v>
       </c>
@@ -28145,22 +28119,21 @@
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4"/>
       <c r="E23" s="14" t="b">
         <v>0</v>
       </c>
@@ -28169,22 +28142,21 @@
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
-        <f t="shared" ref="A24:A39" si="2">CONCATENATE(C24,"/",B24)</f>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5"/>
       <c r="E24" s="2" t="b">
         <v>0</v>
       </c>
@@ -28192,22 +28164,21 @@
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" ref="H24:H39" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="4"/>
       <c r="E25" s="14" t="b">
         <v>0</v>
       </c>
@@ -28222,16 +28193,15 @@
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" ref="A26:A45" si="4">CONCATENATE(C26,"/",B26)</f>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="5"/>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
@@ -28239,22 +28209,21 @@
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H26:H45" si="5">COUNTIF(E26:F26,TRUE)/COLUMNS(E26:F26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="4"/>
       <c r="E27" s="14" t="b">
         <v>0</v>
       </c>
@@ -28263,17 +28232,17 @@
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -28285,17 +28254,17 @@
         <v>0</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -28308,17 +28277,17 @@
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -28330,17 +28299,17 @@
         <v>0</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -28353,17 +28322,17 @@
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -28375,17 +28344,17 @@
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -28398,17 +28367,17 @@
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -28420,17 +28389,17 @@
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -28443,17 +28412,17 @@
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -28465,17 +28434,17 @@
         <v>0</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -28488,17 +28457,17 @@
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -28510,17 +28479,17 @@
         <v>0</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -28533,17 +28502,17 @@
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
-        <f t="shared" ref="A40:A59" si="4">CONCATENATE(C40,"/",B40)</f>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -28555,17 +28524,17 @@
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <f t="shared" ref="H40:H59" si="5">COUNTIF(E40:F40,TRUE)/COLUMNS(E40:F40)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -28585,10 +28554,10 @@
     <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -28607,10 +28576,10 @@
     <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -28630,10 +28599,10 @@
     <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -28652,10 +28621,10 @@
     <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -28674,11 +28643,11 @@
     </row>
     <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" ref="A46:A51" si="6">CONCATENATE(C46,"/",B46)</f>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -28690,17 +28659,17 @@
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H46:H51" si="7">COUNTIF(E46:F46,TRUE)/COLUMNS(E46:F46)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="6"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -28713,17 +28682,17 @@
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="6"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -28735,17 +28704,17 @@
         <v>0</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="6"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -28758,17 +28727,17 @@
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="6"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -28780,17 +28749,17 @@
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="6"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -28803,17 +28772,17 @@
       </c>
       <c r="G51" s="14"/>
       <c r="H51" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" ref="A52:A83" si="8">CONCATENATE(C52,"/",B52)</f>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -28825,17 +28794,17 @@
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H52:H83" si="9">COUNTIF(E52:F52,TRUE)/COLUMNS(E52:F52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
@@ -28848,17 +28817,17 @@
       </c>
       <c r="G53" s="14"/>
       <c r="H53" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
@@ -28870,17 +28839,17 @@
         <v>0</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -28893,17 +28862,17 @@
       </c>
       <c r="G55" s="14"/>
       <c r="H55" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -28915,17 +28884,17 @@
         <v>0</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -28938,17 +28907,17 @@
       </c>
       <c r="G57" s="14"/>
       <c r="H57" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -28960,17 +28929,17 @@
         <v>0</v>
       </c>
       <c r="H58" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -28983,17 +28952,17 @@
       </c>
       <c r="G59" s="14"/>
       <c r="H59" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
-        <f t="shared" ref="A60:A65" si="6">CONCATENATE(C60,"/",B60)</f>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -29005,17 +28974,17 @@
         <v>0</v>
       </c>
       <c r="H60" s="10">
-        <f t="shared" ref="H60:H65" si="7">COUNTIF(E60:F60,TRUE)/COLUMNS(E60:F60)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -29028,17 +28997,17 @@
       </c>
       <c r="G61" s="14"/>
       <c r="H61" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -29050,17 +29019,17 @@
         <v>0</v>
       </c>
       <c r="H62" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
@@ -29073,17 +29042,17 @@
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -29095,17 +29064,17 @@
         <v>0</v>
       </c>
       <c r="H64" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -29118,17 +29087,17 @@
       </c>
       <c r="G65" s="14"/>
       <c r="H65" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
-        <f t="shared" ref="A66:A97" si="8">CONCATENATE(C66,"/",B66)</f>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -29140,17 +29109,17 @@
         <v>0</v>
       </c>
       <c r="H66" s="10">
-        <f t="shared" ref="H66:H97" si="9">COUNTIF(E66:F66,TRUE)/COLUMNS(E66:F66)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -29170,10 +29139,10 @@
     <row r="68" spans="1:8" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -29192,10 +29161,10 @@
     <row r="69" spans="1:8" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -29215,10 +29184,10 @@
     <row r="70" spans="1:8" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -29237,10 +29206,10 @@
     <row r="71" spans="1:8" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
@@ -29260,10 +29229,10 @@
     <row r="72" spans="1:8" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -29282,10 +29251,10 @@
     <row r="73" spans="1:8" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -29305,10 +29274,10 @@
     <row r="74" spans="1:8" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -29327,10 +29296,10 @@
     <row r="75" spans="1:8" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -29350,10 +29319,10 @@
     <row r="76" spans="1:8" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -29372,10 +29341,10 @@
     <row r="77" spans="1:8" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -29395,10 +29364,10 @@
     <row r="78" spans="1:8" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -29417,10 +29386,10 @@
     <row r="79" spans="1:8" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -29440,10 +29409,10 @@
     <row r="80" spans="1:8" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -29462,10 +29431,10 @@
     <row r="81" spans="1:8" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -29485,10 +29454,10 @@
     <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -29507,10 +29476,10 @@
     <row r="83" spans="1:8" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
@@ -29529,11 +29498,11 @@
     </row>
     <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" ref="A84:A89" si="10">CONCATENATE(C84,"/",B84)</f>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -29545,17 +29514,17 @@
         <v>0</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H84:H89" si="11">COUNTIF(E84:F84,TRUE)/COLUMNS(E84:F84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <f t="shared" si="10"/>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -29568,17 +29537,17 @@
       </c>
       <c r="G85" s="14"/>
       <c r="H85" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="10"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -29590,17 +29559,17 @@
         <v>0</v>
       </c>
       <c r="H86" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <f t="shared" si="10"/>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>4</v>
@@ -29613,17 +29582,17 @@
       </c>
       <c r="G87" s="14"/>
       <c r="H87" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="10"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -29635,17 +29604,17 @@
         <v>0</v>
       </c>
       <c r="H88" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <f t="shared" si="10"/>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -29658,333 +29627,31 @@
       </c>
       <c r="G89" s="14"/>
       <c r="H89" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="2" customFormat="1">
-      <c r="A90" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="3" customFormat="1">
-      <c r="A91" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" s="14"/>
-      <c r="H91" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="2" customFormat="1">
-      <c r="A92" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" s="3" customFormat="1">
-      <c r="A93" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="2" customFormat="1">
-      <c r="A94" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F94" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="3" customFormat="1">
-      <c r="A95" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" s="14"/>
-      <c r="H95" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="2" customFormat="1">
-      <c r="A96" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F96" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="3" customFormat="1">
-      <c r="A97" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" s="14"/>
-      <c r="H97" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="2" customFormat="1">
-      <c r="A98" s="15" t="str">
-        <f t="shared" ref="A98:A103" si="10">CONCATENATE(C98,"/",B98)</f>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" s="10">
-        <f t="shared" ref="H98:H103" si="11">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="3" customFormat="1">
-      <c r="A99" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E99" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G99" s="14"/>
-      <c r="H99" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" s="2" customFormat="1">
-      <c r="A100" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F100" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" s="3" customFormat="1">
-      <c r="A101" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F101" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" s="14"/>
-      <c r="H101" s="11">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" s="2" customFormat="1">
-      <c r="A102" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1">
-      <c r="A103" s="14" t="str">
-        <f t="shared" si="10"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E103" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F103" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" s="14"/>
-      <c r="H103" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B19" r:id="rId2" location="v3-ActClass-PCPR" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{48593F97-8E2E-4BA0-92EF-61FAAA8070C1}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{011ACEE0-405B-45AC-AEFC-670C33F3C8E9}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{6F7BFCC0-38D7-42CF-BC60-007DA5BE7365}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{FE0FD969-4CA3-4306-84D6-810AECB364DC}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{F33C8475-D3E5-4E9A-A873-3B80828609B4}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{C50DFA6A-2846-42FD-B250-594EBE36D227}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{E4157DF9-5FA0-406F-9D84-665945224282}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{A98B523A-A21F-418F-8CF1-F7FA06794612}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{4898D301-0FB9-4E78-9D83-677CDE91A034}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{B6724892-6B78-436B-BA29-18AAF7C22E12}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{BB222026-EF1C-4959-A22F-BD6BDCA8B0AA}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{6F04DB8F-4324-47FA-955F-C5C53958F8AE}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{F31EBEE7-68FA-4604-8B35-144EEBC80E72}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{2801515F-5B74-4B43-AD51-D8628DBEF0BC}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{1AB79817-65EB-4A5B-BB1A-F03A6D3A5A07}"/>
+    <hyperlink ref="C16" r:id="rId16" xr:uid="{18408D19-FE1C-4457-A791-A23722F493F2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -29992,16 +29659,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -30024,7 +29691,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -30036,7 +29703,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -30059,7 +29726,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -30083,7 +29750,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -30106,7 +29773,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -30130,7 +29797,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -30152,7 +29819,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -30175,7 +29842,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -30197,7 +29864,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -30220,7 +29887,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -30242,7 +29909,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -30265,7 +29932,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -30287,7 +29954,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -30310,7 +29977,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -30332,7 +29999,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -30355,7 +30022,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -30377,7 +30044,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -30400,7 +30067,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -30422,7 +30089,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -30445,7 +30112,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -30467,7 +30134,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -30490,7 +30157,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -30512,7 +30179,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -30535,7 +30202,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -30558,7 +30225,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -30582,7 +30249,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -30605,7 +30272,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -30629,7 +30296,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -30651,7 +30318,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -30674,7 +30341,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -30696,7 +30363,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -30719,7 +30386,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -30741,7 +30408,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -30764,7 +30431,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -30786,7 +30453,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -30809,7 +30476,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -30831,7 +30498,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -30854,7 +30521,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -30876,7 +30543,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -30899,7 +30566,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -30921,7 +30588,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -30944,7 +30611,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -30966,7 +30633,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -30989,7 +30656,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -31011,7 +30678,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -31034,7 +30701,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -31056,7 +30723,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -31079,7 +30746,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -31101,7 +30768,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -31124,7 +30791,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -31146,7 +30813,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -31169,7 +30836,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>3</v>
@@ -31192,7 +30859,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -31216,7 +30883,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -31239,7 +30906,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -31263,7 +30930,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -31285,7 +30952,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -31308,7 +30975,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -31330,7 +30997,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -31353,7 +31020,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -31375,7 +31042,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -31398,7 +31065,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -31420,7 +31087,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -31443,7 +31110,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -31465,7 +31132,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -31488,7 +31155,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -31510,7 +31177,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -31533,7 +31200,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -31555,7 +31222,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -31578,7 +31245,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -31600,7 +31267,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -31623,7 +31290,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -31645,7 +31312,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -31668,7 +31335,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -31690,7 +31357,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -31713,7 +31380,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -31736,7 +31403,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -31760,7 +31427,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -31783,7 +31450,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -31807,7 +31474,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -31829,7 +31496,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -31852,7 +31519,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -31874,7 +31541,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -31897,7 +31564,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>3</v>
@@ -31919,7 +31586,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -31942,7 +31609,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>3</v>
@@ -31964,7 +31631,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -31987,7 +31654,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -32009,7 +31676,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -32032,7 +31699,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -32054,7 +31721,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -32077,7 +31744,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -32099,7 +31766,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -32122,7 +31789,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -32144,7 +31811,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -32167,7 +31834,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -32189,7 +31856,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -32212,7 +31879,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -32234,7 +31901,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -32305,15 +31972,15 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -32336,16 +32003,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -32369,17 +32036,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
@@ -32403,17 +32070,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H14" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -32437,17 +32104,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -32471,17 +32138,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
@@ -32505,17 +32172,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -32539,17 +32206,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
@@ -32573,31 +32240,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
@@ -32606,17 +32273,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
@@ -32640,17 +32307,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1">
@@ -32674,17 +32341,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1">
@@ -32708,7 +32375,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -32736,17 +32403,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1">
@@ -32770,31 +32437,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15.75">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -32803,14 +32470,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="30" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
@@ -32841,14 +32508,14 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -32871,16 +32538,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -32904,17 +32571,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
@@ -32938,17 +32605,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -32972,17 +32639,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -33006,17 +32673,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
@@ -33083,15 +32750,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -33114,16 +32781,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -33132,13 +32799,13 @@
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -33147,28 +32814,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H7" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>0</v>
@@ -33177,14 +32844,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -33208,7 +32875,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
@@ -33236,7 +32903,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
@@ -33269,10 +32936,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -33281,10 +32948,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -33303,14 +32970,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -33333,16 +33000,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1">
@@ -33351,13 +33018,13 @@
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
@@ -33366,17 +33033,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H2" s="10">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1">
@@ -33400,17 +33067,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H3" s="11">
         <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1">
@@ -33419,13 +33086,13 @@
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E4" s="15" t="b">
         <v>0</v>
@@ -33439,10 +33106,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -33467,12 +33134,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -33647,13 +33314,13 @@
       <selection activeCell="A18" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -33679,13 +33346,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -33714,16 +33381,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1">
@@ -33749,16 +33416,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
@@ -33783,16 +33450,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1">
@@ -33817,16 +33484,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
@@ -33851,16 +33518,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1">
@@ -33885,16 +33552,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
@@ -33919,16 +33586,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1">
@@ -33953,16 +33620,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
@@ -33987,16 +33654,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1">
@@ -34021,16 +33688,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1">
@@ -34107,7 +33774,7 @@
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34129,7 +33796,7 @@
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34151,7 +33818,7 @@
         <v>ValueSet/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -34180,14 +33847,14 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="53.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -34210,7 +33877,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -34222,7 +33889,7 @@
         <v>CodeSystem/event-status</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -34269,7 +33936,7 @@
         <v>CodeSystem/v3.ActReason</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -34496,7 +34163,7 @@
         <v>CodeSystem/ImmunizationOriginCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -34518,7 +34185,7 @@
         <v>ValueSet/ ImmunizationOriginCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34541,7 +34208,7 @@
         <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34586,7 +34253,7 @@
         <v>CodeSystem/http://standardterms.edqm.eu</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -34608,7 +34275,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -34631,7 +34298,7 @@
         <v>CodeSystem/ v2.0443 (v2 Provider role)</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -34653,7 +34320,7 @@
         <v>ValueSet/ImmunizationFunctionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -34698,7 +34365,7 @@
         <v>ValueSet/ImmunizationReasonCodes</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -34721,7 +34388,7 @@
         <v>CodeSystem/ImmunizationSubpotentReason</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -34743,7 +34410,7 @@
         <v>ValueSet/ImmunizationSubpotentReason</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -34766,7 +34433,7 @@
         <v>CodeSystem/ImmunizationProgramEligibility</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -34788,7 +34455,7 @@
         <v>ValueSet/ImmunizationProgramEligibility</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -34811,7 +34478,7 @@
         <v>CodeSystem/ImmunizationFundingSource</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -34833,7 +34500,7 @@
         <v>ValueSet/ImmunizationFundingSource</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -34878,7 +34545,7 @@
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -34923,7 +34590,7 @@
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -35076,14 +34743,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -35106,7 +34773,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -35684,7 +35351,7 @@
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -35729,7 +35396,7 @@
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -35774,7 +35441,7 @@
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7DBA57-2D1B-4C80-9F9A-78A08DE31913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BFE55-0950-2D4F-A770-C8D310710ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -28,17 +28,28 @@
     <sheet name="Composition" sheetId="11" r:id="rId13"/>
     <sheet name="Bundle" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="169">
   <si>
     <t>Artefato</t>
   </si>
@@ -310,6 +321,12 @@
     <t>CompositionStatus</t>
   </si>
   <si>
+    <t>DocumentClassValueSet</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
     <t>v3.ConfidentialityClassification</t>
   </si>
   <si>
@@ -322,6 +339,15 @@
     <t>DocumentRelationshipType</t>
   </si>
   <si>
+    <t>v3-ActClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 112 ValueSet</t>
+  </si>
+  <si>
+    <t>DocumentSectionCodes</t>
+  </si>
+  <si>
     <t>ListMode</t>
   </si>
   <si>
@@ -329,6 +355,9 @@
   </si>
   <si>
     <t>ListEmptyReasons</t>
+  </si>
+  <si>
+    <t>v3-ActCode</t>
   </si>
   <si>
     <t>HTTPVerb</t>
@@ -533,7 +562,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,10 +711,10 @@
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
-    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25474,7 +25503,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -25773,19 +25802,19 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25805,7 +25834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>78</v>
       </c>
@@ -25829,7 +25858,7 @@
         <v>0.79365079365079361</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1">
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
@@ -25853,7 +25882,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
@@ -25877,7 +25906,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
@@ -25901,9 +25930,9 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -25922,7 +25951,7 @@
         <v>0.93915343915343907</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -25943,7 +25972,7 @@
         <v>0.37719298245614036</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
@@ -25967,9 +25996,9 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B9" s="23">
         <v>1</v>
@@ -25988,7 +26017,7 @@
         <v>0.4102564102564103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1">
+    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -26009,9 +26038,9 @@
         <v>0.39393939393939387</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1">
+    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -26030,7 +26059,7 @@
         <v>0.55555555555555547</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1">
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -26039,11 +26068,11 @@
       </c>
       <c r="C12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="D12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -26051,12 +26080,12 @@
       </c>
       <c r="F12" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1">
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -26078,13 +26107,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="21">
         <f ca="1">AVERAGE(F2:F13)</f>
-        <v>0.50268738125097767</v>
+        <v>0.50432136817908224</v>
       </c>
     </row>
   </sheetData>
@@ -26116,17 +26145,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -26146,13 +26175,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26175,7 +26204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26199,7 +26228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26222,7 +26251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26246,13 +26275,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26268,13 +26297,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26291,7 +26320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
@@ -26313,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
@@ -26336,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26358,7 +26387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26381,7 +26410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -26403,7 +26432,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -26426,7 +26455,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
@@ -26448,7 +26477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
@@ -26471,13 +26500,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26493,13 +26522,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26516,7 +26545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26538,7 +26567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26561,13 +26590,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26583,13 +26612,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26606,13 +26635,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26628,13 +26657,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26651,13 +26680,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26673,13 +26702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26696,13 +26725,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26718,13 +26747,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26754,17 +26783,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -26784,13 +26813,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26813,7 +26842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26837,7 +26866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26860,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26884,7 +26913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
@@ -26906,7 +26935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
@@ -26929,7 +26958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -26951,7 +26980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -26974,7 +27003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
@@ -26996,7 +27025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
@@ -27019,7 +27048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -27041,7 +27070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -27064,7 +27093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
@@ -27086,7 +27115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
@@ -27109,7 +27138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
@@ -27131,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
@@ -27154,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27173,7 +27202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27193,7 +27222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27212,7 +27241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27232,7 +27261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27251,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27284,17 +27313,17 @@
       <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -27314,13 +27343,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A13" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27343,7 +27372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27367,7 +27396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27390,7 +27419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27414,7 +27443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
@@ -27436,7 +27465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27459,7 +27488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -27481,7 +27510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -27504,7 +27533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
@@ -27526,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
@@ -27549,7 +27578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -27571,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
@@ -27601,23 +27630,23 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -27637,70 +27666,71 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="str">
-        <f t="shared" ref="A2:A11" si="0">CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/CompositionStatus</v>
+        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
+        <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="10">
-        <f t="shared" ref="H2:H11" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ CompositionStatus</v>
+        <v>ValueSet/CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ v3.Confidentiality</v>
+        <v>CodeSystem/CompositionStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
@@ -27712,17 +27742,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/v3.ConfidentialityClassification</v>
+        <v>ValueSet/ CompositionStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="14" t="b">
         <v>0</v>
       </c>
@@ -27735,15 +27766,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/CompositionAttestationMode</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="20" t="s">
+        <v>CodeSystem/http://loinc.org</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2" t="b">
@@ -27752,20 +27783,20 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/CompositionAttestationMode</v>
+        <v>ValueSet/DocumentClassValueSet</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="14" t="b">
@@ -27780,41 +27811,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/DocumentRelationshipType</v>
+        <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/DocumentRelationshipType</v>
+        <v>ValueSet/ResourceType</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="14" t="b">
         <v>0</v>
@@ -27822,21 +27853,20 @@
       <c r="G9" s="14"/>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ v3.Confidentiality</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
       <c r="E10" s="2" t="b">
         <v>0</v>
       </c>
@@ -27848,337 +27878,336 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
+        <v>ValueSet/v3.ConfidentialityClassification</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/CompositionAttestationMode</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/CompositionAttestationMode</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/DocumentRelationshipType</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/DocumentRelationshipType</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/v3-ActCode</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/v3-ActCode</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/v3-ActClass</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/ 112 ValueSet</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/http://loinc.org</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>ValueSet/DocumentSectionCodes</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>ValueSet/ListMode</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="B23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="11">
+      <c r="D23" s="4"/>
+      <c r="E23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
-      <c r="A12" s="15" t="str">
-        <f t="shared" ref="A12:A25" si="2">CONCATENATE(C12,"/",B12)</f>
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="str">
+        <f t="shared" ref="A24:A39" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ListOrderCodes</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="B24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" ref="H12:H25" si="3">COUNTIF(E12:F12,TRUE)/COLUMNS(E12:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
-      <c r="A13" s="14" t="str">
+      <c r="D24" s="5"/>
+      <c r="E24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" ref="H24:H39" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
-      <c r="A14" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
-      <c r="A15" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
-      <c r="A16" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
-      <c r="A17" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
-      <c r="A18" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
-      <c r="A19" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
-      <c r="A21" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
-      <c r="A23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
-      <c r="A24" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
-      <c r="A25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ListMode</v>
-      </c>
       <c r="B25" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D25" s="4"/>
       <c r="E25" s="14" t="b">
         <v>0</v>
       </c>
@@ -28191,17 +28220,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="str">
-        <f t="shared" ref="A26:A45" si="4">CONCATENATE(C26,"/",B26)</f>
-        <v>CodeSystem/ListOrderCodes</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="2" t="b">
         <v>0</v>
       </c>
@@ -28209,332 +28239,333 @@
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" ref="H26:H45" si="5">COUNTIF(E26:F26,TRUE)/COLUMNS(E26:F26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="str">
+        <f t="shared" ref="A40:A59" si="4">CONCATENATE(C40,"/",B40)</f>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" ref="H40:H59" si="5">COUNTIF(E40:F40,TRUE)/COLUMNS(E40:F40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
-      <c r="A28" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
-      <c r="A29" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
-      <c r="A30" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
-      <c r="A31" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
-      <c r="A32" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1">
-      <c r="A33" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1">
-      <c r="A35" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
-      <c r="A36" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1">
-      <c r="A37" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
-      <c r="A38" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
-      <c r="A39" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
-      <c r="A40" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1">
-      <c r="A41" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
       <c r="B41" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -28551,13 +28582,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -28573,13 +28604,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1">
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -28596,13 +28627,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="str">
         <f t="shared" si="4"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -28618,13 +28649,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1">
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -28641,13 +28672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
+    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="str">
-        <f t="shared" ref="A46:A51" si="6">CONCATENATE(C46,"/",B46)</f>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -28659,467 +28690,467 @@
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" ref="H46:H51" si="7">COUNTIF(E46:F46,TRUE)/COLUMNS(E46:F46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="3" customFormat="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="str">
+        <f t="shared" ref="A60:A65" si="6">CONCATENATE(C60,"/",B60)</f>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" ref="H60:H65" si="7">COUNTIF(E60:F60,TRUE)/COLUMNS(E60:F60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListEmptyReasons</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="11">
+      <c r="E61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1">
-      <c r="A48" s="15" t="str">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListMode</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="B62" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10">
+      <c r="E62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1">
-      <c r="A49" s="14" t="str">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListMode</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B63" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="11">
+      <c r="E63" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
-      <c r="A50" s="15" t="str">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListOrderCodes</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B64" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
+      <c r="E64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1">
-      <c r="A51" s="14" t="str">
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListOrderCodes</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B65" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="11">
+      <c r="E65" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1">
-      <c r="A52" s="15" t="str">
-        <f t="shared" ref="A52:A83" si="8">CONCATENATE(C52,"/",B52)</f>
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="str">
+        <f t="shared" ref="A66:A97" si="8">CONCATENATE(C66,"/",B66)</f>
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="B66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <f t="shared" ref="H52:H83" si="9">COUNTIF(E52:F52,TRUE)/COLUMNS(E52:F52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="3" customFormat="1">
-      <c r="A53" s="14" t="str">
+      <c r="E66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" ref="H66:H97" si="9">COUNTIF(E66:F66,TRUE)/COLUMNS(E66:F66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="2" customFormat="1">
-      <c r="A54" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="3" customFormat="1">
-      <c r="A55" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F55" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="2" customFormat="1">
-      <c r="A56" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="3" customFormat="1">
-      <c r="A57" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" s="14"/>
-      <c r="H57" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="2" customFormat="1">
-      <c r="A58" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="3" customFormat="1">
-      <c r="A59" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F59" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="2" customFormat="1">
-      <c r="A60" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="3" customFormat="1">
-      <c r="A61" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" s="2" customFormat="1">
-      <c r="A62" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
-      <c r="A63" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F63" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="2" customFormat="1">
-      <c r="A64" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="3" customFormat="1">
-      <c r="A65" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="2" customFormat="1">
-      <c r="A66" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="3" customFormat="1">
-      <c r="A67" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
-      </c>
       <c r="B67" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -29136,13 +29167,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -29158,13 +29189,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1">
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -29181,13 +29212,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -29203,13 +29234,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1">
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
@@ -29226,13 +29257,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -29248,13 +29279,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1">
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -29271,13 +29302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -29293,13 +29324,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -29316,13 +29347,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -29338,13 +29369,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1">
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -29361,13 +29392,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListMode</v>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -29383,13 +29414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1">
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListMode</v>
+        <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -29406,13 +29437,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListOrderCodes</v>
+        <v>CodeSystem/ListMode</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -29428,13 +29459,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1">
+    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListOrderCodes</v>
+        <v>ValueSet/ListMode</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -29451,13 +29482,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="str">
         <f t="shared" si="8"/>
-        <v>CodeSystem/ListEmptyReasons</v>
+        <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -29473,13 +29504,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1">
+    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>ValueSet/ListEmptyReasons</v>
+        <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
@@ -29496,13 +29527,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="str">
-        <f t="shared" ref="A84:A89" si="10">CONCATENATE(C84,"/",B84)</f>
-        <v>CodeSystem/ListMode</v>
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -29514,144 +29545,446 @@
         <v>0</v>
       </c>
       <c r="H84" s="10">
-        <f t="shared" ref="H84:H89" si="11">COUNTIF(E84:F84,TRUE)/COLUMNS(E84:F84)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" s="3" customFormat="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" s="14"/>
+      <c r="H87" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" s="14"/>
+      <c r="H89" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" s="14"/>
+      <c r="H91" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListMode</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" s="14"/>
+      <c r="H93" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListOrderCodes</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListOrderCodes</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" s="14"/>
+      <c r="H95" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>CodeSystem/ListEmptyReasons</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>ValueSet/ListEmptyReasons</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" s="14"/>
+      <c r="H97" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="str">
+        <f t="shared" ref="A98:A103" si="10">CONCATENATE(C98,"/",B98)</f>
+        <v>CodeSystem/ListMode</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <f t="shared" ref="H98:H103" si="11">COUNTIF(E98:F98,TRUE)/COLUMNS(E98:F98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListMode</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="11">
+      <c r="E99" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" s="14"/>
+      <c r="H99" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1">
-      <c r="A86" s="15" t="str">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListOrderCodes</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" s="10">
+      <c r="E100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1">
-      <c r="A87" s="14" t="str">
+    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListOrderCodes</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B101" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" s="14"/>
-      <c r="H87" s="11">
+      <c r="E101" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" s="14"/>
+      <c r="H101" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1">
-      <c r="A88" s="15" t="str">
+    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B102" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" s="10">
+      <c r="E102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1">
-      <c r="A89" s="14" t="str">
+    <row r="103" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListEmptyReasons</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B103" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" s="14"/>
-      <c r="H89" s="11">
+      <c r="E103" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" s="14"/>
+      <c r="H103" s="11">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{48593F97-8E2E-4BA0-92EF-61FAAA8070C1}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{011ACEE0-405B-45AC-AEFC-670C33F3C8E9}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{6F7BFCC0-38D7-42CF-BC60-007DA5BE7365}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{FE0FD969-4CA3-4306-84D6-810AECB364DC}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{F33C8475-D3E5-4E9A-A873-3B80828609B4}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{C50DFA6A-2846-42FD-B250-594EBE36D227}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{E4157DF9-5FA0-406F-9D84-665945224282}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{A98B523A-A21F-418F-8CF1-F7FA06794612}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{4898D301-0FB9-4E78-9D83-677CDE91A034}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{B6724892-6B78-436B-BA29-18AAF7C22E12}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{BB222026-EF1C-4959-A22F-BD6BDCA8B0AA}"/>
-    <hyperlink ref="C12" r:id="rId12" xr:uid="{6F04DB8F-4324-47FA-955F-C5C53958F8AE}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{F31EBEE7-68FA-4604-8B35-144EEBC80E72}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{2801515F-5B74-4B43-AD51-D8628DBEF0BC}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{1AB79817-65EB-4A5B-BB1A-F03A6D3A5A07}"/>
-    <hyperlink ref="C16" r:id="rId16" xr:uid="{18408D19-FE1C-4457-A791-A23722F493F2}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B19" r:id="rId2" location="v3-ActClass-PCPR" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId3" xr:uid="{00000000-0004-0000-0E00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -29659,19 +29992,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B49" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -29691,19 +30024,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -29720,13 +30053,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -29744,13 +30077,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -29767,13 +30100,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -29791,13 +30124,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -29813,13 +30146,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -29836,13 +30169,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -29858,13 +30191,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -29881,13 +30214,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -29903,13 +30236,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -29926,13 +30259,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -29948,13 +30281,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -29971,13 +30304,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -29993,13 +30326,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -30016,13 +30349,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -30038,13 +30371,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -30061,13 +30394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -30083,13 +30416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -30106,13 +30439,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -30128,13 +30461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -30151,13 +30484,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -30173,13 +30506,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -30196,13 +30529,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A51" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -30219,13 +30552,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -30243,13 +30576,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -30266,13 +30599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -30290,13 +30623,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -30312,13 +30645,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -30335,13 +30668,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -30357,13 +30690,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -30380,13 +30713,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -30402,13 +30735,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -30425,13 +30758,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -30447,13 +30780,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1">
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -30470,13 +30803,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -30492,13 +30825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -30515,13 +30848,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -30537,13 +30870,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -30560,13 +30893,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1">
+    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -30582,13 +30915,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1">
+    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -30605,13 +30938,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1">
+    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -30627,13 +30960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1">
+    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -30650,13 +30983,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1">
+    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -30672,13 +31005,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1">
+    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -30695,13 +31028,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1">
+    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -30717,13 +31050,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1">
+    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -30740,13 +31073,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1">
+    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -30762,13 +31095,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1">
+    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -30785,13 +31118,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1">
+    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -30807,13 +31140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1">
+    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -30830,13 +31163,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1">
+    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="str">
         <f t="shared" ref="A52:A75" si="4">CONCATENATE(C52,"/",B52)</f>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>3</v>
@@ -30853,13 +31186,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1">
+    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -30877,13 +31210,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1">
+    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -30900,13 +31233,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1">
+    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -30924,13 +31257,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1">
+    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -30946,13 +31279,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1">
+    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -30969,13 +31302,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1">
+    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -30991,13 +31324,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1">
+    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -31014,13 +31347,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1">
+    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -31036,13 +31369,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1">
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -31059,13 +31392,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1">
+    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -31081,13 +31414,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1">
+    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -31104,13 +31437,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1">
+    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -31126,13 +31459,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1">
+    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -31149,13 +31482,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1">
+    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -31171,13 +31504,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1">
+    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -31194,13 +31527,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1">
+    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -31216,13 +31549,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1">
+    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -31239,13 +31572,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1">
+    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -31261,13 +31594,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1">
+    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -31284,13 +31617,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1">
+    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -31306,13 +31639,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1">
+    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -31329,13 +31662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1">
+    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -31351,13 +31684,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1">
+    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -31374,13 +31707,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1">
+    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="str">
         <f t="shared" ref="A76:A97" si="6">CONCATENATE(C76,"/",B76)</f>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -31397,13 +31730,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1">
+    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -31421,13 +31754,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1">
+    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -31444,13 +31777,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1">
+    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -31468,13 +31801,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1">
+    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -31490,13 +31823,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1">
+    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -31513,13 +31846,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
+    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -31535,13 +31868,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1">
+    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -31558,13 +31891,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
+    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>3</v>
@@ -31580,13 +31913,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1">
+    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -31603,13 +31936,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1">
+    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>3</v>
@@ -31625,13 +31958,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1">
+    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -31648,13 +31981,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1">
+    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -31670,13 +32003,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1">
+    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -31693,13 +32026,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1">
+    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -31715,13 +32048,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1">
+    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -31738,13 +32071,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1">
+    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -31760,13 +32093,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1">
+    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -31783,13 +32116,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1">
+    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -31805,13 +32138,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1">
+    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -31828,13 +32161,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1">
+    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -31850,13 +32183,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1">
+    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -31873,13 +32206,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1">
+    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A101" si="8">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -31895,13 +32228,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1">
+    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -31918,7 +32251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1">
+    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/</v>
@@ -31938,7 +32271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1">
+    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/</v>
@@ -31972,18 +32305,18 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -32003,19 +32336,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -32036,20 +32369,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -32070,20 +32403,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H14" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -32104,20 +32437,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -32138,20 +32471,20 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -32172,20 +32505,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -32206,20 +32539,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -32240,31 +32573,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
@@ -32273,20 +32606,20 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(C10,"/",B10)</f>
         <v>ValueSet/patient-contactrelationship</v>
@@ -32307,20 +32640,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -32341,20 +32674,20 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(C12,"/",B12)</f>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -32375,14 +32708,14 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -32403,20 +32736,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(C14,"/",B14)</f>
         <v>CodeSystem/link-type</v>
@@ -32437,31 +32770,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -32470,29 +32803,29 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1">
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" s="2" customFormat="1">
+    <row r="17" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="8:8" s="3" customFormat="1">
+    <row r="18" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="8:8" s="2" customFormat="1">
+    <row r="19" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="8:8" s="3" customFormat="1">
+    <row r="20" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H20" s="7"/>
     </row>
   </sheetData>
@@ -32508,17 +32841,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -32538,19 +32871,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -32571,20 +32904,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -32605,20 +32938,20 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -32639,20 +32972,20 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -32673,68 +33006,68 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1">
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1">
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="8:8" s="3" customFormat="1">
+    <row r="17" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="8:8" s="2" customFormat="1">
+    <row r="18" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="8:8" s="3" customFormat="1">
+    <row r="19" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="8:8" s="2" customFormat="1">
+    <row r="20" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="8:8" s="3" customFormat="1">
+    <row r="21" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H21" s="7"/>
     </row>
   </sheetData>
@@ -32750,18 +33083,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -32781,31 +33114,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -32814,28 +33147,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H7" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="3" customFormat="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>0</v>
@@ -32844,17 +33177,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -32875,14 +33208,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -32903,14 +33236,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -32936,22 +33269,22 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -32970,17 +33303,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33000,31 +33333,31 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="12" customFormat="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="str">
         <f t="shared" ref="A2:A4" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
@@ -33033,20 +33366,20 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H2" s="10">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="14" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -33067,32 +33400,32 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H3" s="11">
         <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E4" s="15" t="b">
         <v>0</v>
@@ -33106,13 +33439,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>86</v>
       </c>
@@ -33134,15 +33467,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33165,7 +33498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -33176,7 +33509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -33187,7 +33520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -33199,7 +33532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1">
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -33211,7 +33544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -33220,7 +33553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1">
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -33229,76 +33562,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1">
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1">
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1">
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1">
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1">
+    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1">
+    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1">
+    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1">
+    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1">
+    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1">
+    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1">
+    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -33310,20 +33643,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33346,19 +33679,19 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A14" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/AllergyIntoleranceClinicalStatusCodes</v>
@@ -33381,19 +33714,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceClinicalStatusCodes</v>
@@ -33416,19 +33749,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceVerificationStatusCodes</v>
@@ -33450,19 +33783,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceVerificationStatusCodes</v>
@@ -33484,19 +33817,19 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceType</v>
@@ -33518,19 +33851,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="3" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceType</v>
@@ -33552,19 +33885,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCategory</v>
@@ -33586,19 +33919,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCategory</v>
@@ -33620,19 +33953,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCriticality</v>
@@ -33654,19 +33987,19 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="34" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCriticality</v>
@@ -33688,19 +34021,19 @@
         <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -33722,7 +34055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
@@ -33744,7 +34077,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1">
+    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
@@ -33768,13 +34101,13 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" ref="A15:A17" si="2">CONCATENATE(C15,"/",B15)</f>
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -33790,13 +34123,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -33812,13 +34145,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1">
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -33847,17 +34180,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33877,19 +34210,19 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/event-status</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -33906,7 +34239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A23" si="0">CONCATENATE(C3,"/",B3)</f>
         <v>ValueSet/ImmunizationStatusCodes</v>
@@ -33930,13 +34263,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3.ActReason</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -33953,7 +34286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationStatusReasonCodes</v>
@@ -33977,7 +34310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines - SNOMED CT IPS Free Set</v>
@@ -33999,7 +34332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines - SNOMED CT IPS Free Set</v>
@@ -34022,7 +34355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Vaccines WHO ATC - IPS</v>
@@ -34044,7 +34377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
@@ -34067,7 +34400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
@@ -34089,7 +34422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Immunization - IPS</v>
@@ -34112,7 +34445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -34134,7 +34467,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -34157,13 +34490,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ImmunizationOriginCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -34179,13 +34512,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ImmunizationOriginCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34202,13 +34535,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34224,7 +34557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -34247,13 +34580,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://standardterms.edqm.eu</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -34269,13 +34602,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -34292,13 +34625,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v2.0443 (v2 Provider role)</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -34314,13 +34647,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationFunctionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -34337,7 +34670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -34359,13 +34692,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ImmunizationReasonCodes</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -34382,13 +34715,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A33" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ImmunizationSubpotentReason</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -34404,13 +34737,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationSubpotentReason</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -34427,13 +34760,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationProgramEligibility</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -34449,13 +34782,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationProgramEligibility</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -34472,13 +34805,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ImmunizationFundingSource</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -34494,13 +34827,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ImmunizationFundingSource</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -34517,7 +34850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -34539,13 +34872,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -34562,7 +34895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -34584,13 +34917,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -34607,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1">
+    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
         <f t="shared" ref="A34:A39" si="4">CONCATENATE(C34,"/",B34)</f>
         <v>CodeSystem/</v>
@@ -34626,7 +34959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1">
+    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -34646,7 +34979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1">
+    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -34665,7 +34998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1">
+    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -34685,7 +35018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1">
+    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -34704,7 +35037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1">
+    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>
@@ -34743,17 +35076,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -34773,13 +35106,13 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -34802,7 +35135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -34826,7 +35159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
@@ -34849,7 +35182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
@@ -34873,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ConditionVerificationStatus</v>
@@ -34895,7 +35228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionVerificationStatus</v>
@@ -34918,7 +35251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ProblemTypeUvIps</v>
@@ -34940,7 +35273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ProblemTypeUvIps</v>
@@ -34963,7 +35296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Type (LOINC)</v>
@@ -34985,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Type (LOINC)</v>
@@ -35008,7 +35341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
@@ -35030,7 +35363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/DiagnosisSeverity</v>
@@ -35053,7 +35386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problem Severity - IPS</v>
@@ -35075,7 +35408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problem Severity - IPS</v>
@@ -35098,7 +35431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -35120,7 +35453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1">
+    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
@@ -35143,7 +35476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1">
+    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
@@ -35165,7 +35498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1">
+    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
@@ -35188,7 +35521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1">
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
@@ -35210,7 +35543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1">
+    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
@@ -35233,7 +35566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -35255,7 +35588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1">
+    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTBodyStructures</v>
@@ -35278,7 +35611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1">
+    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f t="shared" ref="A24:A29" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ResourceType</v>
@@ -35300,7 +35633,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1">
+    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ResourceType</v>
@@ -35323,7 +35656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1">
+    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -35345,13 +35678,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1">
+    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -35368,7 +35701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -35390,13 +35723,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1">
+    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -35413,7 +35746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1">
+    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f t="shared" ref="A30:A33" si="4">CONCATENATE(C30,"/",B30)</f>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -35435,13 +35768,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1">
+    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -35458,7 +35791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1">
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/</v>
@@ -35477,7 +35810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1">
+    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530BFE55-0950-2D4F-A770-C8D310710ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716AE5A-9D1F-3445-AFB8-23029A1F094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20740" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2360" yWindow="2160" windowWidth="25320" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="165">
   <si>
     <t>Artefato</t>
   </si>
@@ -175,15 +175,6 @@
   </si>
   <si>
     <t>AllergyIntoleranceCriticality</t>
-  </si>
-  <si>
-    <t>ImmunizationStatusCodes</t>
-  </si>
-  <si>
-    <t>ImmunizationStatusReasonCodes</t>
-  </si>
-  <si>
-    <t>Vaccines - SNOMED CT IPS Free Set</t>
   </si>
   <si>
     <t>Vaccines WHO ATC - IPS</t>
@@ -372,40 +363,13 @@
     <t>AllergyIntoleranceSeverity</t>
   </si>
   <si>
-    <t xml:space="preserve"> ImmunizationOriginCodes</t>
-  </si>
-  <si>
-    <t>ImmunizationOriginCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</t>
-  </si>
-  <si>
     <t>MedicineRouteOfAdministrationUvIps</t>
   </si>
   <si>
     <t>http://standardterms.edqm.eu</t>
   </si>
   <si>
-    <t>ImmunizationFunctionCodes</t>
-  </si>
-  <si>
-    <t>ImmunizationReasonCodes</t>
-  </si>
-  <si>
-    <t>ImmunizationSubpotentReason</t>
-  </si>
-  <si>
-    <t>ImmunizationProgramEligibility</t>
-  </si>
-  <si>
-    <t>ImmunizationFundingSource</t>
-  </si>
-  <si>
     <t>VaccineTargetDiseasesUvIps</t>
-  </si>
-  <si>
-    <t>VaccineTargetDiseasesSnomedCtIpsFreeSet</t>
   </si>
   <si>
     <t xml:space="preserve"> ConditionStage</t>
@@ -537,15 +501,6 @@
     <t>RDNS</t>
   </si>
   <si>
-    <t>event-status</t>
-  </si>
-  <si>
-    <t>v3.ActReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> v2.0443 (v2 Provider role)</t>
-  </si>
-  <si>
     <t>MedicationStatement</t>
   </si>
   <si>
@@ -556,6 +511,39 @@
   </si>
   <si>
     <t>AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>HL7 event-status</t>
+  </si>
+  <si>
+    <t>Mapa de Conceitos RNDS-&gt;</t>
+  </si>
+  <si>
+    <t>Nome (URL)</t>
+  </si>
+  <si>
+    <t>SIM/Prórpio Value Set</t>
+  </si>
+  <si>
+    <t>HL7 ImmunizationStatusCodes</t>
+  </si>
+  <si>
+    <t>HL7 Vaccines - SNOMED CT IPS Free Set</t>
+  </si>
+  <si>
+    <t>ATC Vaccines WHO ATC - IPS</t>
+  </si>
+  <si>
+    <t>Tradução</t>
+  </si>
+  <si>
+    <t>HL7 body_site</t>
+  </si>
+  <si>
+    <t>Refazer mapeamento</t>
+  </si>
+  <si>
+    <t>Traduzir</t>
   </si>
 </sst>
 </file>
@@ -671,7 +659,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -709,6 +697,18 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -25836,7 +25836,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -25860,7 +25860,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -25884,7 +25884,7 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -25908,7 +25908,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -25932,7 +25932,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -25953,28 +25953,28 @@
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="D7" s="6">
+        <v/>
+      </c>
+      <c r="D7" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8947368421052627E-2</v>
+        <v/>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.37719298245614036</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -25998,7 +25998,7 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B9" s="23">
         <v>1</v>
@@ -26019,7 +26019,7 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -26040,7 +26040,7 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -26061,7 +26061,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -26085,7 +26085,7 @@
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -26113,7 +26113,7 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">AVERAGE(F2:F13)</f>
-        <v>0.50432136817908224</v>
+        <v>0.55622195297440391</v>
       </c>
     </row>
   </sheetData>
@@ -26175,7 +26175,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26187,7 +26187,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26234,7 +26234,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26257,7 +26257,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26281,7 +26281,7 @@
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26303,7 +26303,7 @@
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26326,7 +26326,7 @@
         <v>CodeSystem/Medication usage category codes</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -26348,7 +26348,7 @@
         <v>ValueSet/Medication usage category codes</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -26371,7 +26371,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -26393,7 +26393,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -26416,7 +26416,7 @@
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -26438,7 +26438,7 @@
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -26461,7 +26461,7 @@
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -26483,7 +26483,7 @@
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -26506,7 +26506,7 @@
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26528,7 +26528,7 @@
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26551,7 +26551,7 @@
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -26573,7 +26573,7 @@
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -26596,7 +26596,7 @@
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26618,7 +26618,7 @@
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26641,7 +26641,7 @@
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26663,7 +26663,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26686,7 +26686,7 @@
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26708,7 +26708,7 @@
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26731,7 +26731,7 @@
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26753,7 +26753,7 @@
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26813,7 +26813,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26825,7 +26825,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26872,7 +26872,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26895,7 +26895,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26919,7 +26919,7 @@
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26941,7 +26941,7 @@
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26964,7 +26964,7 @@
         <v>CodeSystem/WHO ATC - IPS</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -26986,7 +26986,7 @@
         <v>ValueSet/WHO ATC - IPS</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -27009,7 +27009,7 @@
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27031,7 +27031,7 @@
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27054,7 +27054,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27076,7 +27076,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27099,7 +27099,7 @@
         <v>CodeSystem/MedicineDoseFormUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27121,7 +27121,7 @@
         <v>ValueSet/MedicineDoseFormUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27144,7 +27144,7 @@
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -27166,7 +27166,7 @@
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -27343,7 +27343,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27355,7 +27355,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27378,7 +27378,7 @@
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -27402,7 +27402,7 @@
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27425,7 +27425,7 @@
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27449,7 +27449,7 @@
         <v>CodeSystem/loinc.org</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27471,7 +27471,7 @@
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27494,7 +27494,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -27516,7 +27516,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -27539,7 +27539,7 @@
         <v>CodeSystem/ ObservationInterpretationCodes</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27561,7 +27561,7 @@
         <v>ValueSet/ ObservationInterpretationCodes</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -27584,7 +27584,7 @@
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -27606,7 +27606,7 @@
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -27666,7 +27666,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27678,7 +27678,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27725,7 +27725,7 @@
         <v>CodeSystem/CompositionStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27748,7 +27748,7 @@
         <v>ValueSet/ CompositionStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27772,7 +27772,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27794,7 +27794,7 @@
         <v>ValueSet/DocumentClassValueSet</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27817,7 +27817,7 @@
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -27839,7 +27839,7 @@
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -27862,7 +27862,7 @@
         <v>CodeSystem/ v3.Confidentiality</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27884,7 +27884,7 @@
         <v>ValueSet/v3.ConfidentialityClassification</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27907,7 +27907,7 @@
         <v>CodeSystem/CompositionAttestationMode</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27929,7 +27929,7 @@
         <v>ValueSet/CompositionAttestationMode</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27952,7 +27952,7 @@
         <v>CodeSystem/DocumentRelationshipType</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27974,7 +27974,7 @@
         <v>ValueSet/DocumentRelationshipType</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27997,7 +27997,7 @@
         <v>CodeSystem/v3-ActCode</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -28019,7 +28019,7 @@
         <v>ValueSet/v3-ActCode</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -28042,7 +28042,7 @@
         <v>CodeSystem/v3-ActClass</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -28064,7 +28064,7 @@
         <v>ValueSet/ 112 ValueSet</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -28087,7 +28087,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -28109,7 +28109,7 @@
         <v>ValueSet/DocumentSectionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -28132,7 +28132,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -28155,7 +28155,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -28179,7 +28179,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -28202,7 +28202,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -28226,7 +28226,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -28249,7 +28249,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -28273,7 +28273,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -28295,7 +28295,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -28318,7 +28318,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -28340,7 +28340,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -28363,7 +28363,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -28385,7 +28385,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -28408,7 +28408,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -28430,7 +28430,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -28453,7 +28453,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -28475,7 +28475,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -28498,7 +28498,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -28520,7 +28520,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -28543,7 +28543,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -28565,7 +28565,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -28588,7 +28588,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -28610,7 +28610,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -28633,7 +28633,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -28655,7 +28655,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -28678,7 +28678,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -28700,7 +28700,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -28723,7 +28723,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -28745,7 +28745,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -28768,7 +28768,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -28790,7 +28790,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -28813,7 +28813,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -28835,7 +28835,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
@@ -28858,7 +28858,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
@@ -28880,7 +28880,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -28903,7 +28903,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -28925,7 +28925,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -28948,7 +28948,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -28970,7 +28970,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -28993,7 +28993,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -29015,7 +29015,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -29038,7 +29038,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -29060,7 +29060,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
@@ -29083,7 +29083,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -29105,7 +29105,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -29128,7 +29128,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -29150,7 +29150,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -29173,7 +29173,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -29195,7 +29195,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -29218,7 +29218,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -29240,7 +29240,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
@@ -29263,7 +29263,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -29285,7 +29285,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -29308,7 +29308,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -29330,7 +29330,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -29353,7 +29353,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -29375,7 +29375,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -29398,7 +29398,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -29420,7 +29420,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -29443,7 +29443,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -29465,7 +29465,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -29488,7 +29488,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -29510,7 +29510,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
@@ -29533,7 +29533,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -29555,7 +29555,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -29578,7 +29578,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -29600,7 +29600,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>4</v>
@@ -29623,7 +29623,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -29645,7 +29645,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -29668,7 +29668,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -29690,7 +29690,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -29713,7 +29713,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -29735,7 +29735,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -29758,7 +29758,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -29780,7 +29780,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>4</v>
@@ -29803,7 +29803,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -29825,7 +29825,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -29848,7 +29848,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -29870,7 +29870,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -29893,7 +29893,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>3</v>
@@ -29915,7 +29915,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>4</v>
@@ -29938,7 +29938,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
@@ -29960,7 +29960,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
@@ -30024,7 +30024,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -30036,7 +30036,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -30059,7 +30059,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -30083,7 +30083,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -30106,7 +30106,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -30130,7 +30130,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -30152,7 +30152,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -30175,7 +30175,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -30197,7 +30197,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -30220,7 +30220,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -30242,7 +30242,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -30265,7 +30265,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -30287,7 +30287,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -30310,7 +30310,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -30332,7 +30332,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -30355,7 +30355,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -30377,7 +30377,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -30400,7 +30400,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -30422,7 +30422,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -30445,7 +30445,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -30467,7 +30467,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -30490,7 +30490,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -30512,7 +30512,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -30535,7 +30535,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -30558,7 +30558,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -30582,7 +30582,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -30605,7 +30605,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -30629,7 +30629,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -30651,7 +30651,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -30674,7 +30674,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -30696,7 +30696,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -30719,7 +30719,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -30741,7 +30741,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -30764,7 +30764,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -30786,7 +30786,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -30809,7 +30809,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -30831,7 +30831,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -30854,7 +30854,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -30876,7 +30876,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -30899,7 +30899,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -30921,7 +30921,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -30944,7 +30944,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -30966,7 +30966,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -30989,7 +30989,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -31011,7 +31011,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -31034,7 +31034,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -31056,7 +31056,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -31079,7 +31079,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -31101,7 +31101,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -31124,7 +31124,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -31146,7 +31146,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -31169,7 +31169,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>3</v>
@@ -31192,7 +31192,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -31216,7 +31216,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -31239,7 +31239,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -31263,7 +31263,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -31285,7 +31285,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -31308,7 +31308,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -31330,7 +31330,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -31353,7 +31353,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -31375,7 +31375,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -31398,7 +31398,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -31420,7 +31420,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -31443,7 +31443,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -31465,7 +31465,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -31488,7 +31488,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -31510,7 +31510,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -31533,7 +31533,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -31555,7 +31555,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -31578,7 +31578,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -31600,7 +31600,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -31623,7 +31623,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -31645,7 +31645,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -31668,7 +31668,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -31690,7 +31690,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -31713,7 +31713,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -31736,7 +31736,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -31760,7 +31760,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -31783,7 +31783,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -31807,7 +31807,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -31829,7 +31829,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -31852,7 +31852,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -31874,7 +31874,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -31897,7 +31897,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>3</v>
@@ -31919,7 +31919,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -31942,7 +31942,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>3</v>
@@ -31964,7 +31964,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -31987,7 +31987,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -32009,7 +32009,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -32032,7 +32032,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -32054,7 +32054,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -32077,7 +32077,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -32099,7 +32099,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -32122,7 +32122,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -32144,7 +32144,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -32167,7 +32167,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -32189,7 +32189,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -32212,7 +32212,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -32234,7 +32234,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -32336,16 +32336,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32369,17 +32369,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32403,17 +32403,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H14" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32437,17 +32437,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32471,17 +32471,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32505,17 +32505,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32539,17 +32539,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32573,31 +32573,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
@@ -32606,17 +32606,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32640,17 +32640,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32674,17 +32674,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32708,7 +32708,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -32736,17 +32736,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32770,31 +32770,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -32803,14 +32803,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="30" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32871,16 +32871,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32904,17 +32904,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -32938,17 +32938,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -32972,17 +32972,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33006,17 +33006,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33027,7 +33027,7 @@
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -33114,16 +33114,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33132,13 +33132,13 @@
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -33147,28 +33147,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H7" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>0</v>
@@ -33177,14 +33177,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33208,7 +33208,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
@@ -33236,7 +33236,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
@@ -33269,10 +33269,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33281,10 +33281,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -33333,16 +33333,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -33351,13 +33351,13 @@
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
@@ -33366,17 +33366,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H2" s="10">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
@@ -33400,17 +33400,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="H3" s="11">
         <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -33419,13 +33419,13 @@
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E4" s="15" t="b">
         <v>0</v>
@@ -33439,15 +33439,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -33679,13 +33679,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -33714,16 +33714,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33749,16 +33749,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33783,16 +33783,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33817,16 +33817,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33851,16 +33851,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33885,16 +33885,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33919,16 +33919,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -33953,16 +33953,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -33987,16 +33987,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -34021,16 +34021,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -34039,7 +34039,7 @@
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
@@ -34061,7 +34061,7 @@
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -34083,7 +34083,7 @@
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>4</v>
@@ -34107,7 +34107,7 @@
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34129,7 +34129,7 @@
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34151,7 +34151,7 @@
         <v>ValueSet/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -34174,23 +34174,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
     <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -34201,7 +34202,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -34209,43 +34210,52 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>127</v>
+      <c r="G1" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/event-status</v>
+        <v>CodeSystem/HL7 event-status</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="H2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="str">
-        <f t="shared" ref="A3:A23" si="0">CONCATENATE(C3,"/",B3)</f>
-        <v>ValueSet/ImmunizationStatusCodes</v>
+        <f t="shared" ref="A3:A10" si="0">CONCATENATE(C3,"/",B3)</f>
+        <v>ValueSet/HL7 ImmunizationStatusCodes</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -34257,812 +34267,265 @@
       <c r="F3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
+      <c r="G3" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="7">
+        <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
+        <f>CONCATENATE(C4,"/",B4)</f>
+        <v>ValueSet/HL7 Vaccines - SNOMED CT IPS Free Set</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="I4" s="6">
+        <f>COUNTIF(E4:F4,TRUE)/COLUMNS(E4:F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/v3.ActReason</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>CodeSystem/ATC Vaccines WHO ATC - IPS</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ImmunizationStatusReasonCodes</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/Vaccines - SNOMED CT IPS Free Set</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/Vaccines - SNOMED CT IPS Free Set</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/Vaccines WHO ATC - IPS</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="str">
+      <c r="E5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="I5" s="10">
+        <f>COUNTIF(E5:F5,TRUE)/COLUMNS(E5:F5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="str">
+      <c r="E6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="H6" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f>COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="str">
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f>COUNTIF(E7:F7,TRUE)/COLUMNS(E7:F7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Absent or Unknown Immunization - IPS</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>ValueSet/HL7 body_site</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ResourceType</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2" t="b">
+      <c r="E8" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ResourceType</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="14" t="b">
+      <c r="F8" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ImmunizationOriginCodes</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ ImmunizationOriginCodes</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ http://snomed.info/sct  where concept is-a 442083009 (Anatomical or acquired body structure)</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/SNOMEDCTBodyStructures</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="str">
+      <c r="G8" s="39"/>
+      <c r="H8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <f>COUNTIF(E8:F8,TRUE)/COLUMNS(E8:F8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://standardterms.edqm.eu</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B9" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="b">
+      <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="str">
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <f>COUNTIF(E9:F9,TRUE)/COLUMNS(E9:F9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/ v2.0443 (v2 Provider role)</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="E10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <f>COUNTIF(E10:F10,TRUE)/COLUMNS(E10:F10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="str">
+        <f t="shared" ref="A11" si="1">CONCATENATE(C11,"/",B11)</f>
+        <v>ValueSet/VaccineTargetDiseasesUvIps</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11" si="2">COUNTIF(E11:F11,TRUE)/COLUMNS(E11:F11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="str">
+        <f t="shared" ref="A12:A13" si="3">CONCATENATE(C12,"/",B12)</f>
+        <v>CodeSystem/</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ImmunizationFunctionCodes</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="E12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="38"/>
+      <c r="I12" s="10">
+        <f t="shared" ref="I12:I13" si="4">COUNTIF(E12:F12,TRUE)/COLUMNS(E12:F12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>ValueSet/</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/http://snomed.info/sct</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/ImmunizationReasonCodes</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="str">
-        <f t="shared" ref="A24:A33" si="2">CONCATENATE(C24,"/",B24)</f>
-        <v>CodeSystem/ImmunizationSubpotentReason</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" ref="H24:H33" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ImmunizationSubpotentReason</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ImmunizationProgramEligibility</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ImmunizationProgramEligibility</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/ImmunizationFundingSource</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ImmunizationFundingSource</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/http://snomed.info/sct</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/VaccineTargetDiseasesUvIps</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>CodeSystem/http://snomed.info/sct</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/VaccineTargetDiseasesSnomedCtIpsFreeSet</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="str">
-        <f t="shared" ref="A34:A39" si="4">CONCATENATE(C34,"/",B34)</f>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <f t="shared" ref="H34:H39" si="5">COUNTIF(E34:F34,TRUE)/COLUMNS(E34:F34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="str">
+      <c r="E13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="7">
         <f t="shared" si="4"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
-    <hyperlink ref="B30" r:id="rId3" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
-    <hyperlink ref="B32" r:id="rId4" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -35106,7 +34569,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -35118,7 +34581,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -35165,7 +34628,7 @@
         <v>CodeSystem/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -35188,7 +34651,7 @@
         <v>ValueSet/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -35212,7 +34675,7 @@
         <v>CodeSystem/ConditionVerificationStatus</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -35234,7 +34697,7 @@
         <v>ValueSet/ConditionVerificationStatus</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -35257,7 +34720,7 @@
         <v>CodeSystem/ ProblemTypeUvIps</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -35279,7 +34742,7 @@
         <v>ValueSet/ ProblemTypeUvIps</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -35302,7 +34765,7 @@
         <v>CodeSystem/Problem Type (LOINC)</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -35324,7 +34787,7 @@
         <v>ValueSet/Problem Type (LOINC)</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -35347,7 +34810,7 @@
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -35369,7 +34832,7 @@
         <v>ValueSet/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -35392,7 +34855,7 @@
         <v>CodeSystem/Problem Severity - IPS</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -35414,7 +34877,7 @@
         <v>ValueSet/Problem Severity - IPS</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -35437,7 +34900,7 @@
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -35459,7 +34922,7 @@
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -35482,7 +34945,7 @@
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -35504,7 +34967,7 @@
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -35527,7 +34990,7 @@
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -35549,7 +35012,7 @@
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -35572,7 +35035,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -35594,7 +35057,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -35617,7 +35080,7 @@
         <v>CodeSystem/ResourceType</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -35639,7 +35102,7 @@
         <v>ValueSet/ResourceType</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -35662,7 +35125,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -35684,7 +35147,7 @@
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -35707,7 +35170,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -35729,7 +35192,7 @@
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -35752,7 +35215,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -35774,7 +35237,7 @@
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/Indicadores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5716AE5A-9D1F-3445-AFB8-23029A1F094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCB4585-3812-4603-9B9D-5CB3F98B2121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="2160" windowWidth="25320" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -28,28 +28,17 @@
     <sheet name="Composition" sheetId="11" r:id="rId13"/>
     <sheet name="Bundle" sheetId="12" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="164">
   <si>
     <t>Artefato</t>
   </si>
@@ -519,9 +508,6 @@
     <t>Mapa de Conceitos RNDS-&gt;</t>
   </si>
   <si>
-    <t>Nome (URL)</t>
-  </si>
-  <si>
     <t>SIM/Prórpio Value Set</t>
   </si>
   <si>
@@ -550,7 +536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,7 +645,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -709,12 +695,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+    <cellStyle name="20% - Ênfase1" xfId="2" builtinId="30"/>
+    <cellStyle name="40% - Ênfase1" xfId="3" builtinId="31"/>
+    <cellStyle name="Ênfase1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -25503,7 +25492,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -25805,16 +25794,16 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25834,7 +25823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>75</v>
       </c>
@@ -25858,7 +25847,7 @@
         <v>0.79365079365079361</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -25882,7 +25871,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>77</v>
       </c>
@@ -25906,7 +25895,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -25930,7 +25919,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>153</v>
       </c>
@@ -25951,28 +25940,28 @@
         <v>0.93915343915343907</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="D7" s="6" t="str">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.67619047619047612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -25981,11 +25970,11 @@
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25993,10 +25982,10 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39583333333333331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.35555555555555562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>150</v>
       </c>
@@ -26017,7 +26006,7 @@
         <v>0.4102564102564103</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
@@ -26038,7 +26027,7 @@
         <v>0.39393939393939387</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="5" t="s">
         <v>151</v>
       </c>
@@ -26059,7 +26048,7 @@
         <v>0.55555555555555547</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
@@ -26083,7 +26072,7 @@
         <v>1.9607843137254902E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="5" t="s">
         <v>152</v>
       </c>
@@ -26107,13 +26096,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="1" customFormat="1">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="21">
         <f ca="1">AVERAGE(F2:F13)</f>
-        <v>0.55622195297440391</v>
+        <v>0.52588134450879553</v>
       </c>
     </row>
   </sheetData>
@@ -26145,17 +26134,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -26181,7 +26170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A27" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26204,7 +26193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26228,7 +26217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -26251,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -26275,7 +26264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26297,7 +26286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
@@ -26320,7 +26309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication usage category codes</v>
@@ -26342,7 +26331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication usage category codes</v>
@@ -26365,7 +26354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26387,7 +26376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26410,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -26432,7 +26421,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -26455,7 +26444,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
@@ -26477,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
@@ -26500,7 +26489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26522,7 +26511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
@@ -26545,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26567,7 +26556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
@@ -26590,7 +26579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26612,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
@@ -26635,7 +26624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
@@ -26657,7 +26646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
@@ -26680,7 +26669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
@@ -26702,7 +26691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
@@ -26725,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DoseAndRateType</v>
@@ -26747,7 +26736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DoseAndRateType</v>
@@ -26783,17 +26772,17 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -26819,7 +26808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -26842,7 +26831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -26866,7 +26855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
@@ -26889,7 +26878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
@@ -26913,7 +26902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
@@ -26935,7 +26924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
@@ -26958,7 +26947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/WHO ATC - IPS</v>
@@ -26980,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/WHO ATC - IPS</v>
@@ -27003,7 +26992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
@@ -27025,7 +27014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
@@ -27048,7 +27037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Medication Status Codes</v>
@@ -27070,7 +27059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Medication Status Codes</v>
@@ -27093,7 +27082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineDoseFormUvIps</v>
@@ -27115,7 +27104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineDoseFormUvIps</v>
@@ -27138,7 +27127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
@@ -27160,7 +27149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
@@ -27183,7 +27172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27202,7 +27191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27222,7 +27211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27241,7 +27230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27261,7 +27250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/</v>
@@ -27280,7 +27269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/</v>
@@ -27313,17 +27302,17 @@
       <selection activeCell="A14" sqref="A14:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -27349,7 +27338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A13" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27372,7 +27361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CommonLanguages</v>
@@ -27396,7 +27385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ObservationCategoryCodes</v>
@@ -27419,7 +27408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ObservationCategoryCodes</v>
@@ -27443,7 +27432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/loinc.org</v>
@@ -27465,7 +27454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/observation-codes</v>
@@ -27488,7 +27477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ DataAbsentReason</v>
@@ -27510,7 +27499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ DataAbsentReason</v>
@@ -27533,7 +27522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationInterpretationCodes</v>
@@ -27555,7 +27544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationInterpretationCodes</v>
@@ -27578,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
@@ -27600,7 +27589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
@@ -27636,17 +27625,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -27672,7 +27661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/urn:ietf:bcp:47</v>
@@ -27695,7 +27684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CommonLanguages</v>
@@ -27719,7 +27708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionStatus</v>
@@ -27742,7 +27731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ CompositionStatus</v>
@@ -27766,7 +27755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -27788,7 +27777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentClassValueSet</v>
@@ -27811,7 +27800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ResourceType</v>
@@ -27833,7 +27822,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ResourceType</v>
@@ -27856,7 +27845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ v3.Confidentiality</v>
@@ -27878,7 +27867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3.ConfidentialityClassification</v>
@@ -27901,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/CompositionAttestationMode</v>
@@ -27923,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/CompositionAttestationMode</v>
@@ -27946,7 +27935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/DocumentRelationshipType</v>
@@ -27968,7 +27957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentRelationshipType</v>
@@ -27991,7 +27980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActCode</v>
@@ -28013,7 +28002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/v3-ActCode</v>
@@ -28036,7 +28025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/v3-ActClass</v>
@@ -28058,7 +28047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ 112 ValueSet</v>
@@ -28081,7 +28070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/http://loinc.org</v>
@@ -28103,7 +28092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/DocumentSectionCodes</v>
@@ -28126,7 +28115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/ListMode</v>
@@ -28149,7 +28138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/ListMode</v>
@@ -28173,7 +28162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A39" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28196,7 +28185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28220,7 +28209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -28243,7 +28232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -28267,7 +28256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28289,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28312,7 +28301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -28334,7 +28323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -28357,7 +28346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -28379,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -28402,7 +28391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28424,7 +28413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28447,7 +28436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -28469,7 +28458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -28492,7 +28481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/ListMode</v>
@@ -28514,7 +28503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/ListMode</v>
@@ -28537,7 +28526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" ref="A40:A59" si="4">CONCATENATE(C40,"/",B40)</f>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28559,7 +28548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28582,7 +28571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -28604,7 +28593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -28627,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -28649,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -28672,7 +28661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28694,7 +28683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28717,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -28739,7 +28728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -28762,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -28784,7 +28773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -28807,7 +28796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28829,7 +28818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28852,7 +28841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -28874,7 +28863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -28897,7 +28886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListMode</v>
@@ -28919,7 +28908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListMode</v>
@@ -28942,7 +28931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -28964,7 +28953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -28987,7 +28976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" ref="A60:A65" si="6">CONCATENATE(C60,"/",B60)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29009,7 +28998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29032,7 +29021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListMode</v>
@@ -29054,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListMode</v>
@@ -29077,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29099,7 +29088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29122,7 +29111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" ref="A66:A97" si="8">CONCATENATE(C66,"/",B66)</f>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29144,7 +29133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29167,7 +29156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -29189,7 +29178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -29212,7 +29201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29234,7 +29223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29257,7 +29246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29279,7 +29268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29302,7 +29291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -29324,7 +29313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -29347,7 +29336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29369,7 +29358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29392,7 +29381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29414,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29437,7 +29426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -29459,7 +29448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -29482,7 +29471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29504,7 +29493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29527,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29549,7 +29538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29572,7 +29561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -29594,7 +29583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -29617,7 +29606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29639,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29662,7 +29651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29684,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29707,7 +29696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListMode</v>
@@ -29729,7 +29718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListMode</v>
@@ -29752,7 +29741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29774,7 +29763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29797,7 +29786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29819,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29842,7 +29831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A103" si="10">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/ListMode</v>
@@ -29864,7 +29853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListMode</v>
@@ -29887,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListOrderCodes</v>
@@ -29909,7 +29898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListOrderCodes</v>
@@ -29932,7 +29921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="2" customFormat="1">
       <c r="A102" s="15" t="str">
         <f t="shared" si="10"/>
         <v>CodeSystem/ListEmptyReasons</v>
@@ -29954,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="3" customFormat="1">
       <c r="A103" s="14" t="str">
         <f t="shared" si="10"/>
         <v>ValueSet/ListEmptyReasons</v>
@@ -29996,15 +29985,15 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -30030,7 +30019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="15" t="str">
         <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30053,7 +30042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30077,7 +30066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30100,7 +30089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30124,7 +30113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30146,7 +30135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30169,7 +30158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30191,7 +30180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30214,7 +30203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30236,7 +30225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30259,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30281,7 +30270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30304,7 +30293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30326,7 +30315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30349,7 +30338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30371,7 +30360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30394,7 +30383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30416,7 +30405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30439,7 +30428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30461,7 +30450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30484,7 +30473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30506,7 +30495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30529,7 +30518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A51" si="2">CONCATENATE(C24,"/",B24)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -30552,7 +30541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30576,7 +30565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30599,7 +30588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30623,7 +30612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30645,7 +30634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30668,7 +30657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30690,7 +30679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30713,7 +30702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30735,7 +30724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="3" customFormat="1">
       <c r="A33" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30758,7 +30747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30780,7 +30769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="3" customFormat="1">
       <c r="A35" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30803,7 +30792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="2" customFormat="1">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30825,7 +30814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="3" customFormat="1">
       <c r="A37" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30848,7 +30837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="2" customFormat="1">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30870,7 +30859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="3" customFormat="1">
       <c r="A39" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30893,7 +30882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -30915,7 +30904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="3" customFormat="1">
       <c r="A41" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -30938,7 +30927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="2" customFormat="1">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -30960,7 +30949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="3" customFormat="1">
       <c r="A43" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -30983,7 +30972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="2" customFormat="1">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31005,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="3" customFormat="1">
       <c r="A45" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31028,7 +31017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="2" customFormat="1">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31050,7 +31039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="3" customFormat="1">
       <c r="A47" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31073,7 +31062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="2" customFormat="1">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31095,7 +31084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="3" customFormat="1">
       <c r="A49" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31118,7 +31107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="2" customFormat="1">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31140,7 +31129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="3" customFormat="1">
       <c r="A51" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31163,7 +31152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="2" customFormat="1">
       <c r="A52" s="15" t="str">
         <f t="shared" ref="A52:A75" si="4">CONCATENATE(C52,"/",B52)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -31186,7 +31175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="3" customFormat="1">
       <c r="A53" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31210,7 +31199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="2" customFormat="1">
       <c r="A54" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31233,7 +31222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="3" customFormat="1">
       <c r="A55" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31257,7 +31246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="2" customFormat="1">
       <c r="A56" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31279,7 +31268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="3" customFormat="1">
       <c r="A57" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31302,7 +31291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31324,7 +31313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="3" customFormat="1">
       <c r="A59" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31347,7 +31336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="2" customFormat="1">
       <c r="A60" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31369,7 +31358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="3" customFormat="1">
       <c r="A61" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31392,7 +31381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="2" customFormat="1">
       <c r="A62" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31414,7 +31403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="3" customFormat="1">
       <c r="A63" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31437,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="2" customFormat="1">
       <c r="A64" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31459,7 +31448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="3" customFormat="1">
       <c r="A65" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31482,7 +31471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="2" customFormat="1">
       <c r="A66" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31504,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="3" customFormat="1">
       <c r="A67" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31527,7 +31516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="2" customFormat="1">
       <c r="A68" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31549,7 +31538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="3" customFormat="1">
       <c r="A69" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31572,7 +31561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="2" customFormat="1">
       <c r="A70" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31594,7 +31583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="3" customFormat="1">
       <c r="A71" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31617,7 +31606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="2" customFormat="1">
       <c r="A72" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31639,7 +31628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="3" customFormat="1">
       <c r="A73" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31662,7 +31651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="2" customFormat="1">
       <c r="A74" s="15" t="str">
         <f t="shared" si="4"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31684,7 +31673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="3" customFormat="1">
       <c r="A75" s="14" t="str">
         <f t="shared" si="4"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31707,7 +31696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="2" customFormat="1">
       <c r="A76" s="15" t="str">
         <f t="shared" ref="A76:A97" si="6">CONCATENATE(C76,"/",B76)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -31730,7 +31719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="3" customFormat="1">
       <c r="A77" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31754,7 +31743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="2" customFormat="1">
       <c r="A78" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31777,7 +31766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="3" customFormat="1">
       <c r="A79" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31801,7 +31790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="2" customFormat="1">
       <c r="A80" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31823,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="3" customFormat="1">
       <c r="A81" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31846,7 +31835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="2" customFormat="1">
       <c r="A82" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31868,7 +31857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="3" customFormat="1">
       <c r="A83" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31891,7 +31880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="2" customFormat="1">
       <c r="A84" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -31913,7 +31902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="3" customFormat="1">
       <c r="A85" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -31936,7 +31925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="2" customFormat="1">
       <c r="A86" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -31958,7 +31947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="3" customFormat="1">
       <c r="A87" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -31981,7 +31970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="2" customFormat="1">
       <c r="A88" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32003,7 +31992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="3" customFormat="1">
       <c r="A89" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32026,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="2" customFormat="1">
       <c r="A90" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32048,7 +32037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="3" customFormat="1">
       <c r="A91" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32071,7 +32060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="2" customFormat="1">
       <c r="A92" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32093,7 +32082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="3" customFormat="1">
       <c r="A93" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32116,7 +32105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="2" customFormat="1">
       <c r="A94" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/SearchEntryMode</v>
@@ -32138,7 +32127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="3" customFormat="1">
       <c r="A95" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/SearchEntryMode</v>
@@ -32161,7 +32150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="2" customFormat="1">
       <c r="A96" s="15" t="str">
         <f t="shared" si="6"/>
         <v>CodeSystem/HTTPVerb</v>
@@ -32183,7 +32172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="3" customFormat="1">
       <c r="A97" s="14" t="str">
         <f t="shared" si="6"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32206,7 +32195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="2" customFormat="1">
       <c r="A98" s="15" t="str">
         <f t="shared" ref="A98:A101" si="8">CONCATENATE(C98,"/",B98)</f>
         <v>CodeSystem/HTTPVerb</v>
@@ -32228,7 +32217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="3" customFormat="1">
       <c r="A99" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/HTTPVerb</v>
@@ -32251,7 +32240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="2" customFormat="1">
       <c r="A100" s="15" t="str">
         <f t="shared" si="8"/>
         <v>CodeSystem/</v>
@@ -32271,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="3" customFormat="1">
       <c r="A101" s="14" t="str">
         <f t="shared" si="8"/>
         <v>ValueSet/</v>
@@ -32305,18 +32294,18 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -32348,7 +32337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/name-use</v>
@@ -32382,7 +32371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A13" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/name-use</v>
@@ -32416,7 +32405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/marital-status</v>
@@ -32450,7 +32439,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/marital-status</v>
@@ -32484,7 +32473,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/administrative-gender</v>
@@ -32518,7 +32507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/administrative-gender</v>
@@ -32552,7 +32541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="3" customFormat="1">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRSexo-1.0</v>
@@ -32586,7 +32575,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>128</v>
       </c>
@@ -32619,7 +32608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="3" customFormat="1">
       <c r="A10" s="3" t="str">
         <f>CONCATENATE(C10,"/",B10)</f>
         <v>ValueSet/patient-contactrelationship</v>
@@ -32653,7 +32642,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="2" customFormat="1">
       <c r="A11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/languages</v>
@@ -32687,7 +32676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="3" customFormat="1">
       <c r="A12" s="3" t="str">
         <f>CONCATENATE(C12,"/",B12)</f>
         <v>CodeSystem/ietf-bcp-47</v>
@@ -32715,7 +32704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="2" customFormat="1">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/link-type</v>
@@ -32749,7 +32738,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="3" customFormat="1">
       <c r="A14" s="3" t="str">
         <f>CONCATENATE(C14,"/",B14)</f>
         <v>CodeSystem/link-type</v>
@@ -32783,7 +32772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="2" t="s">
         <v>124</v>
       </c>
@@ -32813,19 +32802,19 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="3" customFormat="1">
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" s="2" customFormat="1">
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8" s="3" customFormat="1">
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8" s="2" customFormat="1">
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8" s="3" customFormat="1">
       <c r="H20" s="7"/>
     </row>
   </sheetData>
@@ -32841,17 +32830,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -32883,7 +32872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/organization-type</v>
@@ -32917,7 +32906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A5" si="0">_xlfn.CONCAT(C3,"/",B3)</f>
         <v>ValueSet/organization-type</v>
@@ -32951,7 +32940,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f>_xlfn.CONCAT(C4,"/",B4)</f>
         <v>CodeSystem/BRTipoEstabelecimento</v>
@@ -32985,7 +32974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRTipoEstabelecimento</v>
@@ -33019,55 +33008,55 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="3" customFormat="1">
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="2" customFormat="1">
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="3" customFormat="1">
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="2" customFormat="1">
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="3" customFormat="1">
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="2" customFormat="1">
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="3" customFormat="1">
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="2" customFormat="1">
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:8" s="3" customFormat="1">
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:8" s="2" customFormat="1">
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:8" s="3" customFormat="1">
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="8:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:8" s="2" customFormat="1">
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="8:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:8" s="3" customFormat="1">
       <c r="H21" s="7"/>
     </row>
   </sheetData>
@@ -33083,18 +33072,18 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33126,7 +33115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A6" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
@@ -33157,7 +33146,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>138</v>
       </c>
@@ -33187,7 +33176,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/BRCBO</v>
@@ -33215,7 +33204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="3" customFormat="1">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/BRCBO-1.0</v>
@@ -33243,7 +33232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>ConceptMap/BRCBO</v>
@@ -33275,7 +33264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="3" customFormat="1">
       <c r="H7" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33303,17 +33292,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33345,7 +33334,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="12" customFormat="1">
       <c r="A2" s="12" t="str">
         <f t="shared" ref="A2:A4" si="0">_xlfn.CONCAT(C2,"/",B2)</f>
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
@@ -33379,7 +33368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="14" customFormat="1">
       <c r="A3" s="25" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/2.16.840.1.113883.2.9.6.2.7</v>
@@ -33413,7 +33402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="12" customFormat="1">
       <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
@@ -33445,7 +33434,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="24" t="s">
         <v>83</v>
       </c>
@@ -33467,15 +33456,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33498,7 +33487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -33509,7 +33498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -33520,7 +33509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -33532,7 +33521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>35</v>
       </c>
@@ -33544,7 +33533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -33553,7 +33542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -33562,76 +33551,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="3" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="3" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="3" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="3" customFormat="1">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:7" s="3" customFormat="1">
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:7" s="2" customFormat="1">
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:7" s="3" customFormat="1">
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:7" s="2" customFormat="1">
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:7" s="3" customFormat="1">
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="7:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:7" s="2" customFormat="1">
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="7:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:7" s="3" customFormat="1">
       <c r="G23" s="7"/>
     </row>
   </sheetData>
@@ -33643,20 +33632,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -33691,7 +33680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A14" si="0">CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/AllergyIntoleranceClinicalStatusCodes</v>
@@ -33726,7 +33715,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceClinicalStatusCodes</v>
@@ -33761,7 +33750,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceVerificationStatusCodes</v>
@@ -33795,7 +33784,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceVerificationStatusCodes</v>
@@ -33829,7 +33818,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceType</v>
@@ -33863,7 +33852,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceType</v>
@@ -33897,7 +33886,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCategory</v>
@@ -33931,7 +33920,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCategory</v>
@@ -33965,7 +33954,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/AllergyIntoleranceCriticality</v>
@@ -33999,7 +33988,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="34" customFormat="1">
       <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/AllergyIntoleranceCriticality</v>
@@ -34033,7 +34022,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="3" customFormat="1">
       <c r="A12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Allergy Intolerance - SNOMED CT IPS Free Set</v>
@@ -34055,7 +34044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="2" customFormat="1">
       <c r="A13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>CodeSystem/Absent or Unknown Allergies - IPS</v>
@@ -34077,7 +34066,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="14" customFormat="1">
       <c r="A14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>ValueSet/Absent or Unknown Allergies - IPS</v>
@@ -34101,7 +34090,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" ref="A15:A17" si="2">CONCATENATE(C15,"/",B15)</f>
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
@@ -34123,7 +34112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
@@ -34145,7 +34134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="2"/>
         <v>ValueSet/AllergyIntoleranceSeverity</v>
@@ -34174,24 +34163,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="53.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="43.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -34202,263 +34190,258 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="37" t="s">
         <v>155</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="2" t="str">
         <f>CONCATENATE(C2,"/",B2)</f>
         <v>CodeSystem/HL7 event-status</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20" t="s">
         <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="E2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H10" si="0">COUNTIF(D2:E2,TRUE)/COLUMNS(D2:E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="14" t="str">
+        <f t="shared" ref="A3:A10" si="1">CONCATENATE(C3,"/",B3)</f>
+        <v>ValueSet/HL7 ImmunizationStatusCodes</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="H2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="str">
-        <f t="shared" ref="A3:A10" si="0">CONCATENATE(C3,"/",B3)</f>
-        <v>ValueSet/HL7 ImmunizationStatusCodes</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="E3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="14" t="b">
+      <c r="F3" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="7">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="7">
-        <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f>CONCATENATE(C4,"/",B4)</f>
         <v>ValueSet/HL7 Vaccines - SNOMED CT IPS Free Set</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>159</v>
+      <c r="B4" s="20" t="s">
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="I4" s="6">
-        <f>COUNTIF(E4:F4,TRUE)/COLUMNS(E4:F4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="str">
+      <c r="F4" s="38"/>
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="14" customFormat="1">
+      <c r="A5" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>CodeSystem/ATC Vaccines WHO ATC - IPS</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="H5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1">
+      <c r="A6" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>ValueSet/Vaccines WHO ATC - IPS</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="14" customFormat="1">
+      <c r="A7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1">
+      <c r="A8" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>ValueSet/HL7 body_site</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="14" customFormat="1">
+      <c r="A9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CodeSystem/http://standardterms.edqm.eu</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="I5" s="10">
-        <f>COUNTIF(E5:F5,TRUE)/COLUMNS(E5:F5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="str">
+      <c r="D9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
         <f t="shared" si="0"/>
-        <v>ValueSet/Vaccines WHO ATC - IPS</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A10" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <f>COUNTIF(E6:F6,TRUE)/COLUMNS(E6:F6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="str">
+      <c r="D10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <f>COUNTIF(E7:F7,TRUE)/COLUMNS(E7:F7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/HL7 body_site</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <f>COUNTIF(E8:F8,TRUE)/COLUMNS(E8:F8)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/http://standardterms.edqm.eu</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="38"/>
-      <c r="H9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <f>COUNTIF(E9:F9,TRUE)/COLUMNS(E9:F9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="H10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <f>COUNTIF(E10:F10,TRUE)/COLUMNS(E10:F10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
-        <f t="shared" ref="A11" si="1">CONCATENATE(C11,"/",B11)</f>
+        <f t="shared" ref="A11" si="2">CONCATENATE(C11,"/",B11)</f>
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -34467,65 +34450,68 @@
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D11" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="E11" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="7">
-        <f t="shared" ref="I11" si="2">COUNTIF(E11:F11,TRUE)/COLUMNS(E11:F11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11" si="3">COUNTIF(D11:E11,TRUE)/COLUMNS(D11:E11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
-        <f t="shared" ref="A12:A13" si="3">CONCATENATE(C12,"/",B12)</f>
+        <f t="shared" ref="A12:A13" si="4">CONCATENATE(C12,"/",B12)</f>
         <v>CodeSystem/</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D12" s="2" t="b">
+        <v>0</v>
+      </c>
       <c r="E12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="I12" s="10">
-        <f t="shared" ref="I12:I13" si="4">COUNTIF(E12:F12,TRUE)/COLUMNS(E12:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="38"/>
+      <c r="H12" s="10">
+        <f t="shared" ref="H12:H13" si="5">COUNTIF(D12:E12,TRUE)/COLUMNS(D12:E12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>ValueSet/</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D13" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="E13" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="F13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="7">
-        <f t="shared" si="4"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{50A2A781-3BB7-4D7B-B947-0269D4B0383E}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{B4191F2F-0ECF-4D7D-9187-6B12CC5C7E14}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{99409455-4B33-46C6-AE70-67F864A93199}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -34533,23 +34519,23 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="5" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -34575,88 +34561,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
-        <f t="shared" ref="A2:A23" si="0">CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/urn:ietf:bcp:47</v>
+        <f t="shared" ref="A2:A21" si="0">CONCATENATE(C2,"/",B2)</f>
+        <v>CodeSystem/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H21" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1">
       <c r="A3" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/CommonLanguages</v>
+        <v>ValueSet/ConditionClinicalStatusCodes</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H23" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ConditionClinicalStatusCodes</v>
+        <v>CodeSystem/ConditionVerificationStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5"/>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ConditionClinicalStatusCodes</v>
+        <v>ValueSet/ConditionVerificationStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="14" t="b">
         <v>0</v>
       </c>
@@ -34669,13 +34653,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ConditionVerificationStatus</v>
+        <v>CodeSystem/ ProblemTypeUvIps</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -34686,20 +34670,20 @@
       <c r="F6" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ConditionVerificationStatus</v>
+        <v>ValueSet/ ProblemTypeUvIps</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="14" t="b">
@@ -34714,15 +34698,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1">
       <c r="A8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ ProblemTypeUvIps</v>
+        <v>CodeSystem/Problem Type (LOINC)</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="b">
@@ -34736,15 +34720,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="3" customFormat="1">
       <c r="A9" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ ProblemTypeUvIps</v>
+        <v>ValueSet/Problem Type (LOINC)</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="14" t="b">
@@ -34759,13 +34743,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1">
       <c r="A10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Problem Type (LOINC)</v>
+        <v>CodeSystem/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -34781,15 +34765,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="3" customFormat="1">
       <c r="A11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Problem Type (LOINC)</v>
+        <v>ValueSet/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="14" t="b">
@@ -34804,15 +34788,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Condition/DiagnosisSeverity</v>
+        <v>CodeSystem/Problem Severity - IPS</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="2" t="b">
@@ -34826,15 +34810,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="3" customFormat="1">
       <c r="A13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Condition/DiagnosisSeverity</v>
+        <v>ValueSet/Problem Severity - IPS</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="14" t="b">
@@ -34849,13 +34833,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Problem Severity - IPS</v>
+        <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -34871,13 +34855,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="3" customFormat="1">
       <c r="A15" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Problem Severity - IPS</v>
+        <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34894,13 +34878,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="A16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
+        <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34916,13 +34900,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="3" customFormat="1">
       <c r="A17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
+        <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -34939,13 +34923,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="A18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
+        <v>CodeSystem/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -34961,15 +34945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="3" customFormat="1">
       <c r="A19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
+        <v>ValueSet/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="14" t="b">
@@ -34984,13 +34968,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/Absent or Unknown Problems - IPS</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -35006,15 +34990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="3" customFormat="1">
       <c r="A21" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/Absent or Unknown Problems - IPS</v>
+        <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="14" t="b">
@@ -35029,86 +35013,86 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>CodeSystem/http://snomed.info/sct</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>74</v>
+        <f t="shared" ref="A22:A27" si="2">CONCATENATE(C22,"/",B22)</f>
+        <v>CodeSystem/ResourceType</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H22:H27" si="3">COUNTIF(E22:F22,TRUE)/COLUMNS(E22:F22)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="3" customFormat="1">
       <c r="A23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>ValueSet/SNOMEDCTBodyStructures</v>
+        <f t="shared" si="2"/>
+        <v>ValueSet/ResourceType</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="14" t="b">
         <v>0</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="A24" s="2" t="str">
-        <f t="shared" ref="A24:A29" si="2">CONCATENATE(C24,"/",B24)</f>
-        <v>CodeSystem/ResourceType</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>CodeSystem/http://snomed.info/sct</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="b">
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" ref="H24:H29" si="3">COUNTIF(E24:F24,TRUE)/COLUMNS(E24:F24)</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1">
       <c r="A25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>ValueSet/ResourceType</v>
+        <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="14" t="b">
         <v>0</v>
@@ -35116,10 +35100,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>CodeSystem/http://snomed.info/sct</v>
@@ -35141,13 +35125,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="3" customFormat="1">
       <c r="A27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>ValueSet/ ConditionStage</v>
+        <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -35164,9 +35148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A28:A31" si="4">CONCATENATE(C28,"/",B28)</f>
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -35182,17 +35166,17 @@
         <v>0</v>
       </c>
       <c r="H28" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H28:H31" si="5">COUNTIF(E28:F28,TRUE)/COLUMNS(E28:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1">
       <c r="A29" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ValueSet/ConditionStageType</v>
+        <f t="shared" si="4"/>
+        <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -35205,17 +35189,14 @@
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="2" t="str">
-        <f t="shared" ref="A30:A33" si="4">CONCATENATE(C30,"/",B30)</f>
-        <v>CodeSystem/http://snomed.info/sct</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>CodeSystem/</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -35227,17 +35208,14 @@
         <v>0</v>
       </c>
       <c r="H30" s="10">
-        <f t="shared" ref="H30:H33" si="5">COUNTIF(E30:F30,TRUE)/COLUMNS(E30:F30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="3" customFormat="1">
       <c r="A31" s="14" t="str">
         <f t="shared" si="4"/>
-        <v>ValueSet/ManifestationAndSymptomCodes</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>109</v>
+        <v>ValueSet/</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -35254,51 +35232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>CodeSystem/</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>ValueSet/</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-    <hyperlink ref="B28" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
-    <hyperlink ref="B30" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCB4585-3812-4603-9B9D-5CB3F98B2121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA054C6-B61B-4159-8163-E3E08FEBA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA054C6-B61B-4159-8163-E3E08FEBA632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA972157-9B91-4A3C-8A6F-6DA66AE77E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sumario" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="165">
   <si>
     <t>Artefato</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>ConditionClinicalStatusCodes</t>
-  </si>
-  <si>
-    <t>ConditionVerificationStatus</t>
   </si>
   <si>
     <t xml:space="preserve"> ProblemTypeUvIps</t>
@@ -531,6 +528,12 @@
   <si>
     <t>Traduzir</t>
   </si>
+  <si>
+    <t>condition-clinical</t>
+  </si>
+  <si>
+    <t>condition-ver-status</t>
+  </si>
 </sst>
 </file>
 
@@ -645,7 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -697,6 +700,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -25825,7 +25831,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -25849,7 +25855,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -25873,7 +25879,7 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -25897,7 +25903,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -25921,7 +25927,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -25942,7 +25948,7 @@
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -25963,7 +25969,7 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
@@ -25987,7 +25993,7 @@
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B9" s="23">
         <v>1</v>
@@ -26008,7 +26014,7 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -26029,7 +26035,7 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -26050,7 +26056,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -26074,7 +26080,7 @@
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -26164,7 +26170,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26176,7 +26182,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26223,7 +26229,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26246,7 +26252,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26270,7 +26276,7 @@
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26292,7 +26298,7 @@
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26315,7 +26321,7 @@
         <v>CodeSystem/Medication usage category codes</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -26337,7 +26343,7 @@
         <v>ValueSet/Medication usage category codes</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -26360,7 +26366,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -26382,7 +26388,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -26450,7 +26456,7 @@
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -26472,7 +26478,7 @@
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -26495,7 +26501,7 @@
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26517,7 +26523,7 @@
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26540,7 +26546,7 @@
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -26562,7 +26568,7 @@
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -26585,7 +26591,7 @@
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26607,7 +26613,7 @@
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26630,7 +26636,7 @@
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26652,7 +26658,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26675,7 +26681,7 @@
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26697,7 +26703,7 @@
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26720,7 +26726,7 @@
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26742,7 +26748,7 @@
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26802,7 +26808,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26814,7 +26820,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26861,7 +26867,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26884,7 +26890,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26908,7 +26914,7 @@
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26930,7 +26936,7 @@
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26998,7 +27004,7 @@
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27020,7 +27026,7 @@
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27043,7 +27049,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27065,7 +27071,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27088,7 +27094,7 @@
         <v>CodeSystem/MedicineDoseFormUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27110,7 +27116,7 @@
         <v>ValueSet/MedicineDoseFormUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27133,7 +27139,7 @@
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -27155,7 +27161,7 @@
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -27332,7 +27338,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27344,7 +27350,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27367,7 +27373,7 @@
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -27391,7 +27397,7 @@
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27414,7 +27420,7 @@
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27438,7 +27444,7 @@
         <v>CodeSystem/loinc.org</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27460,7 +27466,7 @@
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27483,7 +27489,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -27505,7 +27511,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -27528,7 +27534,7 @@
         <v>CodeSystem/ ObservationInterpretationCodes</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27550,7 +27556,7 @@
         <v>ValueSet/ ObservationInterpretationCodes</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -27573,7 +27579,7 @@
         <v>CodeSystem/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -27595,7 +27601,7 @@
         <v>ValueSet/ ObservationReferenceRangeMeaningCodes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -27655,7 +27661,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27667,7 +27673,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27714,7 +27720,7 @@
         <v>CodeSystem/CompositionStatus</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27737,7 +27743,7 @@
         <v>ValueSet/ CompositionStatus</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27761,7 +27767,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27783,7 +27789,7 @@
         <v>ValueSet/DocumentClassValueSet</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27851,7 +27857,7 @@
         <v>CodeSystem/ v3.Confidentiality</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27873,7 +27879,7 @@
         <v>ValueSet/v3.ConfidentialityClassification</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27896,7 +27902,7 @@
         <v>CodeSystem/CompositionAttestationMode</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27918,7 +27924,7 @@
         <v>ValueSet/CompositionAttestationMode</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27941,7 +27947,7 @@
         <v>CodeSystem/DocumentRelationshipType</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27963,7 +27969,7 @@
         <v>ValueSet/DocumentRelationshipType</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27986,7 +27992,7 @@
         <v>CodeSystem/v3-ActCode</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -28008,7 +28014,7 @@
         <v>ValueSet/v3-ActCode</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -28031,7 +28037,7 @@
         <v>CodeSystem/v3-ActClass</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -28053,7 +28059,7 @@
         <v>ValueSet/ 112 ValueSet</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -28076,7 +28082,7 @@
         <v>CodeSystem/http://loinc.org</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -28098,7 +28104,7 @@
         <v>ValueSet/DocumentSectionCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -28121,7 +28127,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -28144,7 +28150,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -28168,7 +28174,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -28191,7 +28197,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -28215,7 +28221,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -28238,7 +28244,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -28262,7 +28268,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -28284,7 +28290,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -28307,7 +28313,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -28329,7 +28335,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>4</v>
@@ -28352,7 +28358,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>3</v>
@@ -28374,7 +28380,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -28397,7 +28403,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>3</v>
@@ -28419,7 +28425,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>4</v>
@@ -28442,7 +28448,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -28464,7 +28470,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -28487,7 +28493,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -28509,7 +28515,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -28532,7 +28538,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -28554,7 +28560,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -28577,7 +28583,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -28599,7 +28605,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>4</v>
@@ -28622,7 +28628,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -28644,7 +28650,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -28667,7 +28673,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -28689,7 +28695,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -28712,7 +28718,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -28734,7 +28740,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
@@ -28757,7 +28763,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -28779,7 +28785,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -28802,7 +28808,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -28824,7 +28830,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>4</v>
@@ -28847,7 +28853,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>3</v>
@@ -28869,7 +28875,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>4</v>
@@ -28892,7 +28898,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -28914,7 +28920,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -28937,7 +28943,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -28959,7 +28965,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>4</v>
@@ -28982,7 +28988,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>3</v>
@@ -29004,7 +29010,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -29027,7 +29033,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>3</v>
@@ -29049,7 +29055,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>4</v>
@@ -29072,7 +29078,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -29094,7 +29100,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -29117,7 +29123,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -29139,7 +29145,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -29162,7 +29168,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -29184,7 +29190,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -29207,7 +29213,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -29229,7 +29235,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>4</v>
@@ -29252,7 +29258,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -29274,7 +29280,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -29297,7 +29303,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -29319,7 +29325,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -29342,7 +29348,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>3</v>
@@ -29364,7 +29370,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>4</v>
@@ -29387,7 +29393,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>3</v>
@@ -29409,7 +29415,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>4</v>
@@ -29432,7 +29438,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -29454,7 +29460,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -29477,7 +29483,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -29499,7 +29505,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>4</v>
@@ -29522,7 +29528,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>3</v>
@@ -29544,7 +29550,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -29567,7 +29573,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>3</v>
@@ -29589,7 +29595,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>4</v>
@@ -29612,7 +29618,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -29634,7 +29640,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -29657,7 +29663,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -29679,7 +29685,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -29702,7 +29708,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -29724,7 +29730,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -29747,7 +29753,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -29769,7 +29775,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>4</v>
@@ -29792,7 +29798,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -29814,7 +29820,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -29837,7 +29843,7 @@
         <v>CodeSystem/ListMode</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -29859,7 +29865,7 @@
         <v>ValueSet/ListMode</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -29882,7 +29888,7 @@
         <v>CodeSystem/ListOrderCodes</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>3</v>
@@ -29904,7 +29910,7 @@
         <v>ValueSet/ListOrderCodes</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>4</v>
@@ -29927,7 +29933,7 @@
         <v>CodeSystem/ListEmptyReasons</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>3</v>
@@ -29949,7 +29955,7 @@
         <v>ValueSet/ListEmptyReasons</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>4</v>
@@ -30013,7 +30019,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -30025,7 +30031,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -30048,7 +30054,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -30072,7 +30078,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -30095,7 +30101,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -30119,7 +30125,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -30141,7 +30147,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -30164,7 +30170,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -30186,7 +30192,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -30209,7 +30215,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -30231,7 +30237,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -30254,7 +30260,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -30276,7 +30282,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -30299,7 +30305,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -30321,7 +30327,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -30344,7 +30350,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -30366,7 +30372,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -30389,7 +30395,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -30411,7 +30417,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -30434,7 +30440,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -30456,7 +30462,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -30479,7 +30485,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -30501,7 +30507,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -30524,7 +30530,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>3</v>
@@ -30547,7 +30553,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
@@ -30571,7 +30577,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>3</v>
@@ -30594,7 +30600,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>4</v>
@@ -30618,7 +30624,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -30640,7 +30646,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -30663,7 +30669,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
@@ -30685,7 +30691,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>4</v>
@@ -30708,7 +30714,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>3</v>
@@ -30730,7 +30736,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>4</v>
@@ -30753,7 +30759,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>3</v>
@@ -30775,7 +30781,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -30798,7 +30804,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>3</v>
@@ -30820,7 +30826,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>4</v>
@@ -30843,7 +30849,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>3</v>
@@ -30865,7 +30871,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>4</v>
@@ -30888,7 +30894,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
@@ -30910,7 +30916,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>4</v>
@@ -30933,7 +30939,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>3</v>
@@ -30955,7 +30961,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -30978,7 +30984,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>3</v>
@@ -31000,7 +31006,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -31023,7 +31029,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>3</v>
@@ -31045,7 +31051,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>4</v>
@@ -31068,7 +31074,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>3</v>
@@ -31090,7 +31096,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>4</v>
@@ -31113,7 +31119,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>3</v>
@@ -31135,7 +31141,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>4</v>
@@ -31158,7 +31164,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>3</v>
@@ -31181,7 +31187,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>4</v>
@@ -31205,7 +31211,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>3</v>
@@ -31228,7 +31234,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
@@ -31252,7 +31258,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -31274,7 +31280,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>4</v>
@@ -31297,7 +31303,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>3</v>
@@ -31319,7 +31325,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -31342,7 +31348,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>3</v>
@@ -31364,7 +31370,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>4</v>
@@ -31387,7 +31393,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>3</v>
@@ -31409,7 +31415,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -31432,7 +31438,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>3</v>
@@ -31454,7 +31460,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>4</v>
@@ -31477,7 +31483,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>3</v>
@@ -31499,7 +31505,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>4</v>
@@ -31522,7 +31528,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>3</v>
@@ -31544,7 +31550,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>4</v>
@@ -31567,7 +31573,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>3</v>
@@ -31589,7 +31595,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -31612,7 +31618,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>3</v>
@@ -31634,7 +31640,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>4</v>
@@ -31657,7 +31663,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>3</v>
@@ -31679,7 +31685,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>4</v>
@@ -31702,7 +31708,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>3</v>
@@ -31725,7 +31731,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -31749,7 +31755,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>3</v>
@@ -31772,7 +31778,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -31796,7 +31802,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>3</v>
@@ -31818,7 +31824,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>4</v>
@@ -31841,7 +31847,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>3</v>
@@ -31863,7 +31869,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -31886,7 +31892,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>3</v>
@@ -31908,7 +31914,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>4</v>
@@ -31931,7 +31937,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>3</v>
@@ -31953,7 +31959,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -31976,7 +31982,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>3</v>
@@ -31998,7 +32004,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>4</v>
@@ -32021,7 +32027,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>3</v>
@@ -32043,7 +32049,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>4</v>
@@ -32066,7 +32072,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>3</v>
@@ -32088,7 +32094,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>4</v>
@@ -32111,7 +32117,7 @@
         <v>CodeSystem/SearchEntryMode</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>3</v>
@@ -32133,7 +32139,7 @@
         <v>ValueSet/SearchEntryMode</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -32156,7 +32162,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>3</v>
@@ -32178,7 +32184,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>4</v>
@@ -32201,7 +32207,7 @@
         <v>CodeSystem/HTTPVerb</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>3</v>
@@ -32223,7 +32229,7 @@
         <v>ValueSet/HTTPVerb</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>4</v>
@@ -32325,16 +32331,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -32358,17 +32364,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
@@ -32392,17 +32398,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H14" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -32426,17 +32432,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -32460,17 +32466,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
@@ -32494,17 +32500,17 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -32528,17 +32534,17 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1">
@@ -32562,31 +32568,31 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="2" t="b">
         <v>1</v>
@@ -32595,17 +32601,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="3" customFormat="1">
@@ -32629,17 +32635,17 @@
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1">
@@ -32663,17 +32669,17 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="3" customFormat="1">
@@ -32697,7 +32703,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="1"/>
@@ -32725,17 +32731,17 @@
         <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1">
@@ -32759,31 +32765,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="2" customFormat="1" ht="15.6">
       <c r="A15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="2" t="b">
         <v>1</v>
@@ -32792,14 +32798,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1">
@@ -32860,16 +32866,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -32893,17 +32899,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="6">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
@@ -32927,17 +32933,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H5" si="1">COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -32961,17 +32967,17 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1">
@@ -32995,17 +33001,17 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1">
@@ -33016,7 +33022,7 @@
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -33103,16 +33109,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
@@ -33121,13 +33127,13 @@
         <v>CodeSystem/http://terminology.hl7.org/CodeSystem/v2-0360</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -33136,28 +33142,28 @@
         <v>0</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="6">
         <f t="shared" ref="H2:H7" si="1">COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="14" t="b">
         <v>0</v>
@@ -33166,14 +33172,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1">
@@ -33197,7 +33203,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
@@ -33225,7 +33231,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
@@ -33258,10 +33264,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1">
@@ -33270,10 +33276,10 @@
         <v>0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -33322,16 +33328,16 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="12" customFormat="1">
@@ -33340,13 +33346,13 @@
         <v>ValueSet/https://build.fhir.org/ig/HL7/fhir-ips/ValueSet-healthcare-professional-roles-uv-ips.html</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="12" t="b">
         <v>1</v>
@@ -33355,17 +33361,17 @@
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="10">
         <f>COUNTIF(E2:F2,TRUE)/COLUMNS(E2:F2)</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="14" customFormat="1">
@@ -33389,17 +33395,17 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="11">
         <f>COUNTIF(E3:F3,TRUE)/COLUMNS(E3:F3)</f>
         <v>0.5</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="12" customFormat="1">
@@ -33408,13 +33414,13 @@
         <v>ValueSet/http://hl7.org/fhir/ValueSet/c80-practice-codes</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="15" t="b">
         <v>0</v>
@@ -33428,15 +33434,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -33668,13 +33674,13 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -33703,16 +33709,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1">
@@ -33738,16 +33744,16 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
@@ -33772,16 +33778,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1">
@@ -33806,16 +33812,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
@@ -33840,16 +33846,16 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1">
@@ -33874,16 +33880,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
@@ -33908,16 +33914,16 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="3" customFormat="1">
@@ -33942,16 +33948,16 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1">
@@ -33976,16 +33982,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1">
@@ -34010,16 +34016,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I11" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1">
@@ -34096,7 +34102,7 @@
         <v>ValueSet/AllergyReactionSnomedCtIpsFreeSet</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34118,7 +34124,7 @@
         <v>CodeSystem/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34140,7 +34146,7 @@
         <v>ValueSet/AllergyIntoleranceSeverity</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -34165,8 +34171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -34196,10 +34202,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -34211,7 +34217,7 @@
         <v>CodeSystem/HL7 event-status</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -34223,7 +34229,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="2" t="b">
         <v>1</v>
@@ -34233,13 +34239,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="25.2" customHeight="1">
       <c r="A3" s="14" t="str">
         <f t="shared" ref="A3:A10" si="1">CONCATENATE(C3,"/",B3)</f>
         <v>ValueSet/HL7 ImmunizationStatusCodes</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -34250,8 +34256,8 @@
       <c r="E3" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>156</v>
+      <c r="F3" s="42" t="s">
+        <v>155</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="7">
@@ -34265,7 +34271,7 @@
         <v>ValueSet/HL7 Vaccines - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -34288,7 +34294,7 @@
         <v>CodeSystem/ATC Vaccines WHO ATC - IPS</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>3</v>
@@ -34310,7 +34316,7 @@
         <f t="shared" si="1"/>
         <v>ValueSet/Vaccines WHO ATC - IPS</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -34336,7 +34342,7 @@
         <f t="shared" si="1"/>
         <v>CodeSystem/Absent or Unknown Immunization - IPS</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -34349,7 +34355,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="14" t="b">
         <v>0</v>
@@ -34364,8 +34370,8 @@
         <f t="shared" si="1"/>
         <v>ValueSet/HL7 body_site</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>161</v>
+      <c r="B8" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>4</v>
@@ -34391,7 +34397,7 @@
         <v>CodeSystem/http://standardterms.edqm.eu</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>3</v>
@@ -34416,8 +34422,8 @@
         <f t="shared" si="1"/>
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>104</v>
+      <c r="B10" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>4</v>
@@ -34429,7 +34435,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
@@ -34444,8 +34450,8 @@
         <f t="shared" ref="A11" si="2">CONCATENATE(C11,"/",B11)</f>
         <v>ValueSet/VaccineTargetDiseasesUvIps</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>106</v>
+      <c r="B11" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -34457,7 +34463,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="7">
@@ -34512,6 +34518,11 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{50A2A781-3BB7-4D7B-B947-0269D4B0383E}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{B4191F2F-0ECF-4D7D-9187-6B12CC5C7E14}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{99409455-4B33-46C6-AE70-67F864A93199}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4FA2A5E6-4D0C-4384-A00C-154C9E655F4C}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{EC72EA2C-F4A5-469D-9B87-61EC2AA45C8E}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B207510D-01C5-43C6-A4C1-45C08C84D9E8}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{3D527618-C840-4721-AB7B-670021257E2E}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{CE8B5D7C-D8AD-4412-840C-0596650A99EC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -34521,8 +34532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -34555,7 +34566,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -34564,10 +34575,10 @@
     <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="2" t="str">
         <f t="shared" ref="A2:A21" si="0">CONCATENATE(C2,"/",B2)</f>
-        <v>CodeSystem/ConditionClinicalStatusCodes</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>CodeSystem/condition-clinical</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -34589,7 +34600,7 @@
         <f t="shared" si="0"/>
         <v>ValueSet/ConditionClinicalStatusCodes</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -34611,10 +34622,10 @@
     <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>CodeSystem/ConditionVerificationStatus</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>CodeSystem/condition-ver-status</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -34633,10 +34644,10 @@
     <row r="5" spans="1:8" s="3" customFormat="1">
       <c r="A5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>ValueSet/ConditionVerificationStatus</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>ValueSet/condition-ver-status</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -34659,7 +34670,7 @@
         <v>CodeSystem/ ProblemTypeUvIps</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -34681,7 +34692,7 @@
         <v>ValueSet/ ProblemTypeUvIps</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -34704,7 +34715,7 @@
         <v>CodeSystem/Problem Type (LOINC)</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -34726,7 +34737,7 @@
         <v>ValueSet/Problem Type (LOINC)</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -34749,7 +34760,7 @@
         <v>CodeSystem/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -34771,7 +34782,7 @@
         <v>ValueSet/Condition/DiagnosisSeverity</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -34794,7 +34805,7 @@
         <v>CodeSystem/Problem Severity - IPS</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -34816,7 +34827,7 @@
         <v>ValueSet/Problem Severity - IPS</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
@@ -34839,7 +34850,7 @@
         <v>CodeSystem/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -34861,7 +34872,7 @@
         <v>ValueSet/ProblemsSnomedAbsentUnknownUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -34884,7 +34895,7 @@
         <v>CodeSystem/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -34906,7 +34917,7 @@
         <v>ValueSet/Problems - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -34929,7 +34940,7 @@
         <v>CodeSystem/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -34951,7 +34962,7 @@
         <v>ValueSet/Absent or Unknown Problems - IPS</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>4</v>
@@ -34974,7 +34985,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -34996,7 +35007,7 @@
         <v>ValueSet/SNOMEDCTBodyStructures</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>4</v>
@@ -35064,7 +35075,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -35086,7 +35097,7 @@
         <v>ValueSet/ ConditionStage</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -35109,7 +35120,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -35131,7 +35142,7 @@
         <v>ValueSet/ConditionStageType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -35154,7 +35165,7 @@
         <v>CodeSystem/http://snomed.info/sct</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
@@ -35176,7 +35187,7 @@
         <v>ValueSet/ManifestationAndSymptomCodes</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>4</v>
@@ -35238,6 +35249,10 @@
     <hyperlink ref="B24" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
     <hyperlink ref="B26" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
     <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0800-000003000000}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{5ADCB6A7-F900-4AE5-AE60-6F7B58A028DC}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{693A2B87-3C09-409A-9F0C-1A121C728A9C}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{6573CE76-5934-41C9-8B95-37E84E49037E}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{80D4A1F3-64AE-4F0B-A832-60B504A89FAA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
+++ b/Gestão do Projeto/Indicadores/SumarioIndicadores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syola\Documents\ips-brasil-documentos\Gestão do Projeto\Indicadores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA972157-9B91-4A3C-8A6F-6DA66AE77E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F45BC-360C-433E-98EE-D499185B016F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="169">
   <si>
     <t>Artefato</t>
   </si>
@@ -185,21 +185,6 @@
   </si>
   <si>
     <t>ConditionClinicalStatusCodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ProblemTypeUvIps</t>
-  </si>
-  <si>
-    <t>Problem Type (LOINC)</t>
-  </si>
-  <si>
-    <t>Condition/DiagnosisSeverity</t>
-  </si>
-  <si>
-    <t>Problem Severity - IPS</t>
-  </si>
-  <si>
-    <t>ProblemsSnomedAbsentUnknownUvIps</t>
   </si>
   <si>
     <t>Problems - SNOMED CT IPS Free Set</t>
@@ -534,6 +519,33 @@
   <si>
     <t>condition-ver-status</t>
   </si>
+  <si>
+    <t>problem-type-uv-ips</t>
+  </si>
+  <si>
+    <t>condition-category</t>
+  </si>
+  <si>
+    <t>problem-type-loinc</t>
+  </si>
+  <si>
+    <t>condition-severity</t>
+  </si>
+  <si>
+    <t>condition-severity-uv-ips</t>
+  </si>
+  <si>
+    <t>problems-snomed-absent-unknown-uv-ips</t>
+  </si>
+  <si>
+    <t>problems-snomed-uv-ips</t>
+  </si>
+  <si>
+    <t>absent-or-unknown-problems-uv-ips</t>
+  </si>
+  <si>
+    <t>absent-unknown-uv-ips</t>
+  </si>
 </sst>
 </file>
 
@@ -25831,7 +25843,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
@@ -25855,7 +25867,7 @@
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1">
       <c r="A3" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -25879,7 +25891,7 @@
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -25903,7 +25915,7 @@
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9">
         <v>1</v>
@@ -25927,7 +25939,7 @@
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1">
       <c r="A6" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B6" s="9">
         <v>1</v>
@@ -25948,7 +25960,7 @@
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -25969,18 +25981,18 @@
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" s="9">
         <v>1</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="D8" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <v>2.9411764705882353E-2</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -25988,12 +26000,12 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35555555555555562</v>
+        <v>0.3550420168067227</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B9" s="23">
         <v>1</v>
@@ -26014,7 +26026,7 @@
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="9">
         <v>1</v>
@@ -26035,7 +26047,7 @@
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B11" s="23">
         <v>1</v>
@@ -26056,7 +26068,7 @@
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="9">
         <v>0</v>
@@ -26080,7 +26092,7 @@
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B13" s="23">
         <v>0</v>
@@ -26108,7 +26120,7 @@
       </c>
       <c r="F14" s="21">
         <f ca="1">AVERAGE(F2:F13)</f>
-        <v>0.52588134450879553</v>
+        <v>0.52583854961305942</v>
       </c>
     </row>
   </sheetData>
@@ -26170,7 +26182,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26182,7 +26194,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26229,7 +26241,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26252,7 +26264,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26276,7 +26288,7 @@
         <v>CodeSystem/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26298,7 +26310,7 @@
         <v>ValueSet/SNOMEDCTDrugTherapyStatusCodes</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -26321,7 +26333,7 @@
         <v>CodeSystem/Medication usage category codes</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -26343,7 +26355,7 @@
         <v>ValueSet/Medication usage category codes</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -26366,7 +26378,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -26388,7 +26400,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -26456,7 +26468,7 @@
         <v>CodeSystem/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -26478,7 +26490,7 @@
         <v>ValueSet/Condition/Problem/DiagnosisCodes</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -26501,7 +26513,7 @@
         <v>CodeSystem/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -26523,7 +26535,7 @@
         <v>ValueSet/SNOMEDCTAdditionalDosageInstructions</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -26546,7 +26558,7 @@
         <v>CodeSystem/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -26568,7 +26580,7 @@
         <v>ValueSet/SNOMEDCTMedicationAsNeededReasonCodes</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>4</v>
@@ -26591,7 +26603,7 @@
         <v>CodeSystem/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -26613,7 +26625,7 @@
         <v>ValueSet/SNOMEDCTAnatomicalStructureForAdministrationSiteCodes</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -26636,7 +26648,7 @@
         <v>CodeSystem/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -26658,7 +26670,7 @@
         <v>ValueSet/MedicineRouteOfAdministrationUvIps</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -26681,7 +26693,7 @@
         <v>CodeSystem/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -26703,7 +26715,7 @@
         <v>ValueSet/SNOMEDCTAdministrationMethodCodes</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>4</v>
@@ -26726,7 +26738,7 @@
         <v>CodeSystem/DoseAndRateType</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
@@ -26748,7 +26760,7 @@
         <v>ValueSet/DoseAndRateType</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>4</v>
@@ -26808,7 +26820,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -26820,7 +26832,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -26867,7 +26879,7 @@
         <v>CodeSystem/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -26890,7 +26902,7 @@
         <v>ValueSet/MedicationSnomedCodesAbsentUnknown</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -26914,7 +26926,7 @@
         <v>CodeSystem/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -26936,7 +26948,7 @@
         <v>ValueSet/Medications - SNOMED CT IPS Free Set</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27004,7 +27016,7 @@
         <v>CodeSystem/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -27026,7 +27038,7 @@
         <v>ValueSet/Absent or Unknown Medication - IPS</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
@@ -27049,7 +27061,7 @@
         <v>CodeSystem/Medication Status Codes</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -27071,7 +27083,7 @@
         <v>ValueSet/Medication Status Codes</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
@@ -27094,7 +27106,7 @@
         <v>CodeSystem/MedicineDoseFormUvIps</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -27116,7 +27128,7 @@
         <v>ValueSet/MedicineDoseFormUvIps</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
@@ -27139,7 +27151,7 @@
         <v>CodeSystem/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
@@ -27161,7 +27173,7 @@
         <v>ValueSet/MedicineActiveSubstancesUvIps</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
@@ -27338,7 +27350,7 @@
         <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -27350,7 +27362,7 @@
         <v>CodeSystem/urn:ietf:bcp:47</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -27373,7 +27385,7 @@
         <v>ValueSet/ CommonLanguages</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -27397,7 +27409,7 @@
         <v>CodeSystem/ObservationCategoryCodes</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -27420,7 +27432,7 @@
         <v>ValueSet/ObservationCategoryCodes</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -27444,7 +27456,7 @@
         <v>CodeSystem/loinc.org</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
@@ -27466,7 +27478,7 @@
         <v>ValueSet/observation-codes</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
@@ -27489,7 +27501,7 @@
         <v>CodeSystem/ DataAbsentReason</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -27511,7 +27523,7 @@
         <v>ValueSet/ DataAbsentReason</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
@@ -27534,7 +27546,7 @@
         <v>CodeSystem/ ObservationInt